--- a/rfuse/rfuse_summary.xlsx
+++ b/rfuse/rfuse_summary.xlsx
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>3200</v>
+        <v>3220</v>
       </c>
       <c r="C3" s="3">
-        <v>6714</v>
+        <v>10700</v>
       </c>
       <c r="D3" s="3">
-        <v>10300</v>
+        <v>10900</v>
       </c>
       <c r="E3" s="3">
-        <v>23700</v>
+        <v>24000</v>
       </c>
       <c r="F3" s="3">
-        <v>36700</v>
+        <v>32000</v>
       </c>
       <c r="G3" s="3">
-        <v>51500</v>
+        <v>50400</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>419.4304</v>
+        <v>422.576128</v>
       </c>
       <c r="C4" s="4">
-        <v>879.755264</v>
+        <v>1405.09184</v>
       </c>
       <c r="D4" s="4">
-        <v>1355.808768</v>
+        <v>1423.966208</v>
       </c>
       <c r="E4" s="4">
-        <v>3112.173568</v>
+        <v>3148.873728</v>
       </c>
       <c r="F4" s="4">
-        <v>4804.575232</v>
+        <v>4321.181696</v>
       </c>
       <c r="G4" s="4">
-        <v>6752.82944</v>
+        <v>6608.125952</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -514,22 +514,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>303.95</v>
+        <v>302.32</v>
       </c>
       <c r="C5" s="4">
-        <v>283.53</v>
+        <v>170.34</v>
       </c>
       <c r="D5" s="4">
-        <v>369.95</v>
+        <v>357.78</v>
       </c>
       <c r="E5" s="4">
-        <v>314.08</v>
+        <v>296.76</v>
       </c>
       <c r="F5" s="4">
-        <v>412.87</v>
+        <v>460.22</v>
       </c>
       <c r="G5" s="4">
-        <v>594.74</v>
+        <v>597.3099999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -537,22 +537,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C6" s="4">
-        <v>635</v>
+        <v>494</v>
       </c>
       <c r="D6" s="4">
-        <v>701</v>
+        <v>668</v>
       </c>
       <c r="E6" s="4">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="F6" s="4">
-        <v>865</v>
+        <v>938</v>
       </c>
       <c r="G6" s="4">
-        <v>1270</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -560,22 +560,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>693</v>
+        <v>644</v>
       </c>
       <c r="C7" s="4">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="D7" s="4">
-        <v>783</v>
+        <v>734</v>
       </c>
       <c r="E7" s="4">
-        <v>791</v>
+        <v>1106</v>
       </c>
       <c r="F7" s="4">
-        <v>1188</v>
+        <v>1221</v>
       </c>
       <c r="G7" s="4">
-        <v>1663</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -614,22 +614,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>14500</v>
+        <v>16400</v>
       </c>
       <c r="C12" s="3">
-        <v>31400</v>
+        <v>31700</v>
       </c>
       <c r="D12" s="3">
-        <v>61400</v>
+        <v>78700</v>
       </c>
       <c r="E12" s="3">
-        <v>130000</v>
+        <v>175000</v>
       </c>
       <c r="F12" s="3">
-        <v>305000</v>
+        <v>249000</v>
       </c>
       <c r="G12" s="3">
-        <v>447000</v>
+        <v>357000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -637,22 +637,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>59.244544</v>
+        <v>67.00400639999999</v>
       </c>
       <c r="C13" s="4">
-        <v>128.974848</v>
+        <v>130.023424</v>
       </c>
       <c r="D13" s="4">
-        <v>251.65824</v>
+        <v>322.961408</v>
       </c>
       <c r="E13" s="4">
-        <v>531.628032</v>
+        <v>716.177408</v>
       </c>
       <c r="F13" s="4">
-        <v>1248.854016</v>
+        <v>1019.215872</v>
       </c>
       <c r="G13" s="4">
-        <v>1829.76512</v>
+        <v>1463.812096</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -660,22 +660,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>68.09746000000001</v>
+        <v>60.18635</v>
       </c>
       <c r="C14" s="4">
-        <v>62.49258</v>
+        <v>62.15586</v>
       </c>
       <c r="D14" s="4">
-        <v>63.67208</v>
+        <v>49.89255000000001</v>
       </c>
       <c r="E14" s="4">
-        <v>59.6425</v>
+        <v>44.38476</v>
       </c>
       <c r="F14" s="4">
-        <v>50.58021</v>
+        <v>61.9583</v>
       </c>
       <c r="G14" s="4">
-        <v>68.8599</v>
+        <v>85.36058</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -683,22 +683,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>136.192</v>
+        <v>121.344</v>
       </c>
       <c r="C15" s="4">
-        <v>124.416</v>
+        <v>125.44</v>
       </c>
       <c r="D15" s="4">
-        <v>126.464</v>
+        <v>114.176</v>
       </c>
       <c r="E15" s="4">
-        <v>134.144</v>
+        <v>97.792</v>
       </c>
       <c r="F15" s="4">
-        <v>132.096</v>
+        <v>123.392</v>
       </c>
       <c r="G15" s="4">
-        <v>214.016</v>
+        <v>205.824</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -706,22 +706,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="4">
-        <v>264.192</v>
+        <v>148.48</v>
       </c>
       <c r="C16" s="4">
-        <v>150.528</v>
+        <v>158.72</v>
       </c>
       <c r="D16" s="4">
-        <v>154.624</v>
+        <v>152.576</v>
       </c>
       <c r="E16" s="4">
-        <v>168.96</v>
+        <v>146.432</v>
       </c>
       <c r="F16" s="4">
-        <v>201.728</v>
+        <v>224.256</v>
       </c>
       <c r="G16" s="4">
-        <v>370.688</v>
+        <v>452.608</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -760,22 +760,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>8982</v>
+        <v>9142</v>
       </c>
       <c r="C21" s="3">
-        <v>11000</v>
+        <v>10400</v>
       </c>
       <c r="D21" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F21" s="3">
         <v>13800</v>
       </c>
-      <c r="E21" s="3">
-        <v>16100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>14500</v>
-      </c>
       <c r="G21" s="3">
-        <v>14000</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -783,22 +783,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>1177.550848</v>
+        <v>1198.522368</v>
       </c>
       <c r="C22" s="4">
-        <v>1442.840576</v>
+        <v>1369.440256</v>
       </c>
       <c r="D22" s="4">
-        <v>1807.745024</v>
+        <v>1478.49216</v>
       </c>
       <c r="E22" s="4">
-        <v>2105.540608</v>
+        <v>1858.076672</v>
       </c>
       <c r="F22" s="4">
-        <v>1900.019712</v>
+        <v>1805.647872</v>
       </c>
       <c r="G22" s="4">
-        <v>1837.105152</v>
+        <v>1563.426816</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -806,22 +806,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>74.83</v>
+        <v>57.95</v>
       </c>
       <c r="C23" s="4">
-        <v>99.04000000000001</v>
+        <v>116.38</v>
       </c>
       <c r="D23" s="4">
-        <v>172.42</v>
+        <v>210.73</v>
       </c>
       <c r="E23" s="4">
-        <v>278.34</v>
+        <v>306.89</v>
       </c>
       <c r="F23" s="4">
-        <v>658.7</v>
+        <v>745.85</v>
       </c>
       <c r="G23" s="4">
-        <v>1611.76</v>
+        <v>1774.43</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -829,22 +829,22 @@
         <v>4</v>
       </c>
       <c r="B24" s="4">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C24" s="4">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="D24" s="4">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E24" s="4">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="F24" s="4">
-        <v>1057</v>
+        <v>1106</v>
       </c>
       <c r="G24" s="4">
-        <v>5997</v>
+        <v>6259</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -852,22 +852,22 @@
         <v>5</v>
       </c>
       <c r="B25" s="4">
-        <v>269</v>
+        <v>89</v>
       </c>
       <c r="C25" s="4">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="D25" s="4">
-        <v>383</v>
+        <v>2966</v>
       </c>
       <c r="E25" s="4">
-        <v>725</v>
+        <v>1205</v>
       </c>
       <c r="F25" s="4">
-        <v>3818</v>
+        <v>5866</v>
       </c>
       <c r="G25" s="4">
-        <v>11994</v>
+        <v>11863</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -906,22 +906,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>120000</v>
+        <v>116000</v>
       </c>
       <c r="C30" s="3">
-        <v>160000</v>
+        <v>143000</v>
       </c>
       <c r="D30" s="3">
-        <v>192000</v>
+        <v>183000</v>
       </c>
       <c r="E30" s="3">
-        <v>232000</v>
+        <v>227000</v>
       </c>
       <c r="F30" s="3">
-        <v>193000</v>
+        <v>174000</v>
       </c>
       <c r="G30" s="3">
-        <v>158000</v>
+        <v>156000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -929,22 +929,22 @@
         <v>2</v>
       </c>
       <c r="B31" s="4">
-        <v>489.684992</v>
+        <v>476.053504</v>
       </c>
       <c r="C31" s="4">
-        <v>656.408576</v>
+        <v>585.105408</v>
       </c>
       <c r="D31" s="4">
-        <v>785.383424</v>
+        <v>747.634688</v>
       </c>
       <c r="E31" s="4">
-        <v>948.96128</v>
+        <v>931.135488</v>
       </c>
       <c r="F31" s="4">
-        <v>788.529152</v>
+        <v>711.983104</v>
       </c>
       <c r="G31" s="4">
-        <v>648.0199679999999</v>
+        <v>637.534208</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -952,18 +952,20 @@
         <v>3</v>
       </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4">
+        <v>11.73</v>
+      </c>
       <c r="D32" s="4">
-        <v>17.17</v>
+        <v>17.63</v>
       </c>
       <c r="E32" s="4">
-        <v>28.02</v>
+        <v>27.32</v>
       </c>
       <c r="F32" s="4">
-        <v>68.66</v>
+        <v>74.11</v>
       </c>
       <c r="G32" s="4">
-        <v>165.1</v>
+        <v>174.53</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -974,19 +976,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="4">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D33" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E33" s="4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F33" s="4">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G33" s="4">
-        <v>420</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -994,22 +996,22 @@
         <v>5</v>
       </c>
       <c r="B34" s="4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C34" s="4">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D34" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" s="4">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F34" s="4">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G34" s="4">
-        <v>586</v>
+        <v>627</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1048,22 +1050,22 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>5851</v>
+        <v>5818</v>
       </c>
       <c r="C39" s="3">
-        <v>10400</v>
+        <v>11300</v>
       </c>
       <c r="D39" s="3">
-        <v>31000</v>
+        <v>23000</v>
       </c>
       <c r="E39" s="3">
-        <v>26300</v>
+        <v>32800</v>
       </c>
       <c r="F39" s="3">
-        <v>37900</v>
+        <v>38200</v>
       </c>
       <c r="G39" s="3">
-        <v>38800</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1071,22 +1073,22 @@
         <v>2</v>
       </c>
       <c r="B40" s="4">
-        <v>766.509056</v>
+        <v>762.314752</v>
       </c>
       <c r="C40" s="4">
-        <v>1362.100224</v>
+        <v>1482.686464</v>
       </c>
       <c r="D40" s="4">
-        <v>4067.426304</v>
+        <v>3139.436544</v>
       </c>
       <c r="E40" s="4">
-        <v>3452.960768</v>
+        <v>4294.967296</v>
       </c>
       <c r="F40" s="4">
-        <v>4971.298816</v>
+        <v>5005.901824</v>
       </c>
       <c r="G40" s="4">
-        <v>5088.739328</v>
+        <v>5112.856576</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1094,22 +1096,22 @@
         <v>3</v>
       </c>
       <c r="B41" s="4">
-        <v>169.16</v>
+        <v>164.83</v>
       </c>
       <c r="C41" s="4">
-        <v>174.95</v>
+        <v>172.15</v>
       </c>
       <c r="D41" s="4">
-        <v>121.64</v>
+        <v>153.46</v>
       </c>
       <c r="E41" s="4">
-        <v>285.98</v>
+        <v>213.35</v>
       </c>
       <c r="F41" s="4">
-        <v>388.36</v>
+        <v>389.62</v>
       </c>
       <c r="G41" s="4">
-        <v>778</v>
+        <v>782.04</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1117,22 +1119,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="4">
-        <v>603</v>
+        <v>693</v>
       </c>
       <c r="C42" s="4">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="D42" s="4">
-        <v>363</v>
+        <v>494</v>
       </c>
       <c r="E42" s="4">
-        <v>914</v>
+        <v>586</v>
       </c>
       <c r="F42" s="4">
         <v>1434</v>
       </c>
       <c r="G42" s="4">
-        <v>3195</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1140,22 +1142,22 @@
         <v>5</v>
       </c>
       <c r="B43" s="4">
-        <v>758</v>
+        <v>775</v>
       </c>
       <c r="C43" s="4">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="D43" s="4">
-        <v>478</v>
+        <v>865</v>
       </c>
       <c r="E43" s="4">
-        <v>1450</v>
+        <v>1844</v>
       </c>
       <c r="F43" s="4">
-        <v>2212</v>
+        <v>1827</v>
       </c>
       <c r="G43" s="4">
-        <v>8717</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1194,22 +1196,22 @@
         <v>1</v>
       </c>
       <c r="B48" s="3">
-        <v>223000</v>
+        <v>239000</v>
       </c>
       <c r="C48" s="3">
-        <v>415000</v>
+        <v>395000</v>
       </c>
       <c r="D48" s="3">
-        <v>736000</v>
+        <v>732000</v>
       </c>
       <c r="E48" s="3">
-        <v>933000</v>
+        <v>907000</v>
       </c>
       <c r="F48" s="3">
-        <v>1042000</v>
+        <v>1051000</v>
       </c>
       <c r="G48" s="3">
-        <v>1099000</v>
+        <v>1089000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1217,22 +1219,22 @@
         <v>2</v>
       </c>
       <c r="B49" s="4">
-        <v>913.309696</v>
+        <v>979.369984</v>
       </c>
       <c r="C49" s="4">
-        <v>1698.69312</v>
+        <v>1616.904192</v>
       </c>
       <c r="D49" s="4">
-        <v>3015.704576</v>
+        <v>2998.92736</v>
       </c>
       <c r="E49" s="4">
-        <v>3821.010944</v>
+        <v>3715.104768</v>
       </c>
       <c r="F49" s="4">
-        <v>4269.801472</v>
+        <v>4303.355904</v>
       </c>
       <c r="G49" s="4">
-        <v>4502.585344</v>
+        <v>4459.593728</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1240,22 +1242,22 @@
         <v>3</v>
       </c>
       <c r="B50" s="4">
-        <v>3.93465</v>
+        <v>3.70613</v>
       </c>
       <c r="C50" s="4">
-        <v>4.2949</v>
+        <v>4.60566</v>
       </c>
       <c r="D50" s="4">
-        <v>4.802180000000001</v>
+        <v>4.69608</v>
       </c>
       <c r="E50" s="4">
-        <v>7.58363</v>
+        <v>7.872560000000001</v>
       </c>
       <c r="F50" s="4">
-        <v>14.29153</v>
+        <v>13.9851</v>
       </c>
       <c r="G50" s="4">
-        <v>27.69226</v>
+        <v>27.82546</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1263,22 +1265,22 @@
         <v>4</v>
       </c>
       <c r="B51" s="4">
-        <v>2.008</v>
+        <v>1.896</v>
       </c>
       <c r="C51" s="4">
-        <v>2.064</v>
+        <v>1.944</v>
       </c>
       <c r="D51" s="4">
-        <v>1.992</v>
+        <v>1.976</v>
       </c>
       <c r="E51" s="4">
-        <v>2.024</v>
+        <v>2.448</v>
       </c>
       <c r="F51" s="4">
-        <v>2.928</v>
+        <v>2.896</v>
       </c>
       <c r="G51" s="4">
-        <v>3.088</v>
+        <v>2.544</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1286,22 +1288,22 @@
         <v>5</v>
       </c>
       <c r="B52" s="4">
-        <v>96.768</v>
+        <v>77.312</v>
       </c>
       <c r="C52" s="4">
-        <v>104.96</v>
+        <v>97.792</v>
       </c>
       <c r="D52" s="4">
         <v>142.336</v>
       </c>
       <c r="E52" s="4">
-        <v>252.928</v>
+        <v>246.784</v>
       </c>
       <c r="F52" s="4">
-        <v>432.128</v>
+        <v>481.28</v>
       </c>
       <c r="G52" s="4">
-        <v>321.536</v>
+        <v>238.592</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1340,22 +1342,22 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>6320</v>
+        <v>6440</v>
       </c>
       <c r="C57" s="3">
-        <v>8943</v>
+        <v>8641</v>
       </c>
       <c r="D57" s="3">
-        <v>9525</v>
+        <v>11300</v>
       </c>
       <c r="E57" s="3">
-        <v>11300</v>
+        <v>11600</v>
       </c>
       <c r="F57" s="3">
-        <v>11200</v>
+        <v>10800</v>
       </c>
       <c r="G57" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1363,22 +1365,22 @@
         <v>2</v>
       </c>
       <c r="B58" s="4">
-        <v>828.37504</v>
+        <v>844.1036800000001</v>
       </c>
       <c r="C58" s="4">
-        <v>1172.307968</v>
+        <v>1132.46208</v>
       </c>
       <c r="D58" s="4">
-        <v>1248.854016</v>
+        <v>1486.880768</v>
       </c>
       <c r="E58" s="4">
-        <v>1475.346432</v>
+        <v>1522.532352</v>
       </c>
       <c r="F58" s="4">
-        <v>1462.76352</v>
+        <v>1419.771904</v>
       </c>
       <c r="G58" s="4">
-        <v>1415.5776</v>
+        <v>1399.84896</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1386,22 +1388,22 @@
         <v>3</v>
       </c>
       <c r="B59" s="4">
-        <v>86.23999999999999</v>
+        <v>80.87</v>
       </c>
       <c r="C59" s="4">
-        <v>101.05</v>
+        <v>112.29</v>
       </c>
       <c r="D59" s="4">
-        <v>204.33</v>
+        <v>152.83</v>
       </c>
       <c r="E59" s="4">
-        <v>355.19</v>
+        <v>360.49</v>
       </c>
       <c r="F59" s="4">
-        <v>847.39</v>
+        <v>837.09</v>
       </c>
       <c r="G59" s="4">
-        <v>1664.29</v>
+        <v>1905.59</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1409,22 +1411,22 @@
         <v>4</v>
       </c>
       <c r="B60" s="4">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C60" s="4">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D60" s="4">
-        <v>260</v>
+        <v>178</v>
       </c>
       <c r="E60" s="4">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F60" s="4">
-        <v>996</v>
+        <v>1020</v>
       </c>
       <c r="G60" s="4">
-        <v>5342</v>
+        <v>5735</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1432,22 +1434,22 @@
         <v>5</v>
       </c>
       <c r="B61" s="4">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="C61" s="4">
-        <v>260</v>
+        <v>123</v>
       </c>
       <c r="D61" s="4">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="E61" s="4">
-        <v>676</v>
+        <v>742</v>
       </c>
       <c r="F61" s="4">
-        <v>4817</v>
+        <v>6783</v>
       </c>
       <c r="G61" s="4">
-        <v>12387</v>
+        <v>11207</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1486,22 +1488,22 @@
         <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>108000</v>
+        <v>126000</v>
       </c>
       <c r="C66" s="3">
-        <v>156000</v>
+        <v>169000</v>
       </c>
       <c r="D66" s="3">
-        <v>196000</v>
+        <v>188000</v>
       </c>
       <c r="E66" s="3">
-        <v>218000</v>
+        <v>222000</v>
       </c>
       <c r="F66" s="3">
-        <v>202000</v>
+        <v>201000</v>
       </c>
       <c r="G66" s="3">
-        <v>174000</v>
+        <v>179000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1509,22 +1511,22 @@
         <v>2</v>
       </c>
       <c r="B67" s="4">
-        <v>442.499072</v>
+        <v>513.80224</v>
       </c>
       <c r="C67" s="4">
-        <v>639.63136</v>
+        <v>693.108736</v>
       </c>
       <c r="D67" s="4">
-        <v>801.112064</v>
+        <v>770.70336</v>
       </c>
       <c r="E67" s="4">
-        <v>891.2896</v>
+        <v>910.163968</v>
       </c>
       <c r="F67" s="4">
-        <v>828.37504</v>
+        <v>822.083584</v>
       </c>
       <c r="G67" s="4">
-        <v>713.0316800000001</v>
+        <v>732.954624</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1534,16 +1536,16 @@
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4">
-        <v>15.53</v>
+        <v>15.26</v>
       </c>
       <c r="E68" s="4">
-        <v>24.94</v>
+        <v>27</v>
       </c>
       <c r="F68" s="4">
-        <v>62.99</v>
+        <v>64.09</v>
       </c>
       <c r="G68" s="4">
-        <v>150.38</v>
+        <v>154.75</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1551,19 +1553,19 @@
         <v>4</v>
       </c>
       <c r="B69" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C69" s="4">
         <v>10</v>
       </c>
       <c r="D69" s="4">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E69" s="4">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F69" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G69" s="4">
         <v>338</v>
@@ -1574,19 +1576,19 @@
         <v>5</v>
       </c>
       <c r="B70" s="4">
+        <v>18</v>
+      </c>
+      <c r="C70" s="4">
         <v>16</v>
       </c>
-      <c r="C70" s="4">
-        <v>12</v>
-      </c>
       <c r="D70" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E70" s="4">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F70" s="4">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G70" s="4">
         <v>498</v>

--- a/rfuse/rfuse_summary.xlsx
+++ b/rfuse/rfuse_summary.xlsx
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>3220</v>
+        <v>6692</v>
       </c>
       <c r="C3" s="3">
-        <v>10700</v>
+        <v>8224</v>
       </c>
       <c r="D3" s="3">
-        <v>10900</v>
+        <v>19200</v>
       </c>
       <c r="E3" s="3">
-        <v>24000</v>
+        <v>28600</v>
       </c>
       <c r="F3" s="3">
-        <v>32000</v>
+        <v>33900</v>
       </c>
       <c r="G3" s="3">
-        <v>50400</v>
+        <v>50500</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>422.576128</v>
+        <v>877.658112</v>
       </c>
       <c r="C4" s="4">
-        <v>1405.09184</v>
+        <v>1077.936128</v>
       </c>
       <c r="D4" s="4">
-        <v>1423.966208</v>
+        <v>2520.776704</v>
       </c>
       <c r="E4" s="4">
-        <v>3148.873728</v>
+        <v>3753.90208</v>
       </c>
       <c r="F4" s="4">
-        <v>4321.181696</v>
+        <v>4436.525056</v>
       </c>
       <c r="G4" s="4">
-        <v>6608.125952</v>
+        <v>6617.563136</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -514,22 +514,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>302.32</v>
+        <v>143.06</v>
       </c>
       <c r="C5" s="4">
-        <v>170.34</v>
+        <v>226.6</v>
       </c>
       <c r="D5" s="4">
-        <v>357.78</v>
+        <v>192.78</v>
       </c>
       <c r="E5" s="4">
-        <v>296.76</v>
+        <v>252.55</v>
       </c>
       <c r="F5" s="4">
-        <v>460.22</v>
+        <v>418.55</v>
       </c>
       <c r="G5" s="4">
-        <v>597.3099999999999</v>
+        <v>594.86</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -537,22 +537,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>603</v>
+        <v>239</v>
       </c>
       <c r="C6" s="4">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="D6" s="4">
-        <v>668</v>
+        <v>408</v>
       </c>
       <c r="E6" s="4">
-        <v>603</v>
+        <v>570</v>
       </c>
       <c r="F6" s="4">
-        <v>938</v>
+        <v>1045</v>
       </c>
       <c r="G6" s="4">
-        <v>1287</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -560,22 +560,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>644</v>
+        <v>269</v>
       </c>
       <c r="C7" s="4">
-        <v>709</v>
+        <v>660</v>
       </c>
       <c r="D7" s="4">
-        <v>734</v>
+        <v>799</v>
       </c>
       <c r="E7" s="4">
-        <v>1106</v>
+        <v>1795</v>
       </c>
       <c r="F7" s="4">
-        <v>1221</v>
+        <v>5538</v>
       </c>
       <c r="G7" s="4">
-        <v>1713</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -614,22 +614,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>16400</v>
+        <v>16900</v>
       </c>
       <c r="C12" s="3">
-        <v>31700</v>
+        <v>48200</v>
       </c>
       <c r="D12" s="3">
-        <v>78700</v>
+        <v>94400</v>
       </c>
       <c r="E12" s="3">
-        <v>175000</v>
+        <v>99800</v>
       </c>
       <c r="F12" s="3">
-        <v>249000</v>
+        <v>121000</v>
       </c>
       <c r="G12" s="3">
-        <v>357000</v>
+        <v>152000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -637,22 +637,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>67.00400639999999</v>
+        <v>68.9963008</v>
       </c>
       <c r="C13" s="4">
-        <v>130.023424</v>
+        <v>197.132288</v>
       </c>
       <c r="D13" s="4">
-        <v>322.961408</v>
+        <v>386.924544</v>
       </c>
       <c r="E13" s="4">
-        <v>716.177408</v>
+        <v>408.94464</v>
       </c>
       <c r="F13" s="4">
-        <v>1019.215872</v>
+        <v>495.976448</v>
       </c>
       <c r="G13" s="4">
-        <v>1463.812096</v>
+        <v>621.805568</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -660,22 +660,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>60.18635</v>
+        <v>58.48469</v>
       </c>
       <c r="C14" s="4">
-        <v>62.15586</v>
+        <v>40.74677</v>
       </c>
       <c r="D14" s="4">
-        <v>49.89255000000001</v>
+        <v>41.66247</v>
       </c>
       <c r="E14" s="4">
-        <v>44.38476</v>
+        <v>78.70552000000001</v>
       </c>
       <c r="F14" s="4">
-        <v>61.9583</v>
+        <v>128.29305</v>
       </c>
       <c r="G14" s="4">
-        <v>85.36058</v>
+        <v>203.49275</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -683,22 +683,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>121.344</v>
+        <v>123.392</v>
       </c>
       <c r="C15" s="4">
-        <v>125.44</v>
+        <v>86.52800000000001</v>
       </c>
       <c r="D15" s="4">
-        <v>114.176</v>
+        <v>82.432</v>
       </c>
       <c r="E15" s="4">
-        <v>97.792</v>
+        <v>119.296</v>
       </c>
       <c r="F15" s="4">
-        <v>123.392</v>
+        <v>140.288</v>
       </c>
       <c r="G15" s="4">
-        <v>205.824</v>
+        <v>238.592</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -706,22 +706,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="4">
-        <v>148.48</v>
+        <v>214.016</v>
       </c>
       <c r="C16" s="4">
-        <v>158.72</v>
+        <v>114.176</v>
       </c>
       <c r="D16" s="4">
-        <v>152.576</v>
+        <v>127.488</v>
       </c>
       <c r="E16" s="4">
-        <v>146.432</v>
+        <v>724.992</v>
       </c>
       <c r="F16" s="4">
-        <v>224.256</v>
+        <v>1384.448</v>
       </c>
       <c r="G16" s="4">
-        <v>452.608</v>
+        <v>5406.72</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -760,22 +760,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>9142</v>
+        <v>6826</v>
       </c>
       <c r="C21" s="3">
-        <v>10400</v>
+        <v>9061</v>
       </c>
       <c r="D21" s="3">
-        <v>11300</v>
+        <v>10000</v>
       </c>
       <c r="E21" s="3">
-        <v>14200</v>
+        <v>13300</v>
       </c>
       <c r="F21" s="3">
-        <v>13800</v>
+        <v>13700</v>
       </c>
       <c r="G21" s="3">
-        <v>11900</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -783,22 +783,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>1198.522368</v>
+        <v>894.435328</v>
       </c>
       <c r="C22" s="4">
-        <v>1369.440256</v>
+        <v>1188.036608</v>
       </c>
       <c r="D22" s="4">
-        <v>1478.49216</v>
+        <v>1435.500544</v>
       </c>
       <c r="E22" s="4">
-        <v>1858.076672</v>
+        <v>1749.024768</v>
       </c>
       <c r="F22" s="4">
-        <v>1805.647872</v>
+        <v>1793.06496</v>
       </c>
       <c r="G22" s="4">
-        <v>1563.426816</v>
+        <v>1763.704832</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -806,22 +806,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>57.95</v>
+        <v>94.77</v>
       </c>
       <c r="C23" s="4">
-        <v>116.38</v>
+        <v>157.92</v>
       </c>
       <c r="D23" s="4">
-        <v>210.73</v>
+        <v>230.86</v>
       </c>
       <c r="E23" s="4">
-        <v>306.89</v>
+        <v>344.14</v>
       </c>
       <c r="F23" s="4">
-        <v>745.85</v>
+        <v>724.0599999999999</v>
       </c>
       <c r="G23" s="4">
-        <v>1774.43</v>
+        <v>1715.54</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -829,22 +829,22 @@
         <v>4</v>
       </c>
       <c r="B24" s="4">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C24" s="4">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D24" s="4">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="E24" s="4">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="F24" s="4">
         <v>1106</v>
       </c>
       <c r="G24" s="4">
-        <v>6259</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -852,22 +852,22 @@
         <v>5</v>
       </c>
       <c r="B25" s="4">
-        <v>89</v>
+        <v>457</v>
       </c>
       <c r="C25" s="4">
-        <v>184</v>
+        <v>1582</v>
       </c>
       <c r="D25" s="4">
-        <v>2966</v>
+        <v>3326</v>
       </c>
       <c r="E25" s="4">
-        <v>1205</v>
+        <v>4686</v>
       </c>
       <c r="F25" s="4">
-        <v>5866</v>
+        <v>7373</v>
       </c>
       <c r="G25" s="4">
-        <v>11863</v>
+        <v>12518</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -906,22 +906,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>116000</v>
+        <v>110000</v>
       </c>
       <c r="C30" s="3">
-        <v>143000</v>
+        <v>140000</v>
       </c>
       <c r="D30" s="3">
-        <v>183000</v>
+        <v>185000</v>
       </c>
       <c r="E30" s="3">
-        <v>227000</v>
+        <v>223000</v>
       </c>
       <c r="F30" s="3">
-        <v>174000</v>
+        <v>193000</v>
       </c>
       <c r="G30" s="3">
-        <v>156000</v>
+        <v>152000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -929,22 +929,22 @@
         <v>2</v>
       </c>
       <c r="B31" s="4">
-        <v>476.053504</v>
+        <v>451.936256</v>
       </c>
       <c r="C31" s="4">
-        <v>585.105408</v>
+        <v>572.522496</v>
       </c>
       <c r="D31" s="4">
-        <v>747.634688</v>
+        <v>757.071872</v>
       </c>
       <c r="E31" s="4">
-        <v>931.135488</v>
+        <v>912.26112</v>
       </c>
       <c r="F31" s="4">
-        <v>711.983104</v>
+        <v>789.577728</v>
       </c>
       <c r="G31" s="4">
-        <v>637.534208</v>
+        <v>623.90272</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -953,19 +953,19 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
-        <v>11.73</v>
+        <v>11.47</v>
       </c>
       <c r="D32" s="4">
-        <v>17.63</v>
+        <v>16.9</v>
       </c>
       <c r="E32" s="4">
-        <v>27.32</v>
+        <v>28.69</v>
       </c>
       <c r="F32" s="4">
-        <v>74.11</v>
+        <v>71.14</v>
       </c>
       <c r="G32" s="4">
-        <v>174.53</v>
+        <v>181.69</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -973,22 +973,22 @@
         <v>4</v>
       </c>
       <c r="B33" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C33" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E33" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F33" s="4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G33" s="4">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -999,19 +999,19 @@
         <v>14</v>
       </c>
       <c r="C34" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E34" s="4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F34" s="4">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G34" s="4">
-        <v>627</v>
+        <v>693</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1050,22 +1050,22 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>5818</v>
+        <v>6606</v>
       </c>
       <c r="C39" s="3">
         <v>11300</v>
       </c>
       <c r="D39" s="3">
-        <v>23000</v>
+        <v>24400</v>
       </c>
       <c r="E39" s="3">
-        <v>32800</v>
+        <v>30100</v>
       </c>
       <c r="F39" s="3">
-        <v>38200</v>
+        <v>35800</v>
       </c>
       <c r="G39" s="3">
-        <v>39000</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1073,22 +1073,22 @@
         <v>2</v>
       </c>
       <c r="B40" s="4">
-        <v>762.314752</v>
+        <v>866.123776</v>
       </c>
       <c r="C40" s="4">
         <v>1482.686464</v>
       </c>
       <c r="D40" s="4">
-        <v>3139.436544</v>
+        <v>3196.059648</v>
       </c>
       <c r="E40" s="4">
-        <v>4294.967296</v>
+        <v>3947.88864</v>
       </c>
       <c r="F40" s="4">
-        <v>5005.901824</v>
+        <v>4689.231872</v>
       </c>
       <c r="G40" s="4">
-        <v>5112.856576</v>
+        <v>4976.541696</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1096,22 +1096,22 @@
         <v>3</v>
       </c>
       <c r="B41" s="4">
-        <v>164.83</v>
+        <v>144.45</v>
       </c>
       <c r="C41" s="4">
-        <v>172.15</v>
+        <v>164.72</v>
       </c>
       <c r="D41" s="4">
-        <v>153.46</v>
+        <v>150.91</v>
       </c>
       <c r="E41" s="4">
-        <v>213.35</v>
+        <v>240.48</v>
       </c>
       <c r="F41" s="4">
-        <v>389.62</v>
+        <v>410.07</v>
       </c>
       <c r="G41" s="4">
-        <v>782.04</v>
+        <v>793.33</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1119,22 +1119,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="4">
-        <v>693</v>
+        <v>400</v>
       </c>
       <c r="C42" s="4">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="D42" s="4">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="E42" s="4">
-        <v>586</v>
+        <v>734</v>
       </c>
       <c r="F42" s="4">
         <v>1434</v>
       </c>
       <c r="G42" s="4">
-        <v>3294</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1142,22 +1142,22 @@
         <v>5</v>
       </c>
       <c r="B43" s="4">
-        <v>775</v>
+        <v>537</v>
       </c>
       <c r="C43" s="4">
-        <v>725</v>
+        <v>881</v>
       </c>
       <c r="D43" s="4">
-        <v>865</v>
+        <v>1057</v>
       </c>
       <c r="E43" s="4">
-        <v>1844</v>
+        <v>2147</v>
       </c>
       <c r="F43" s="4">
-        <v>1827</v>
+        <v>3490</v>
       </c>
       <c r="G43" s="4">
-        <v>5800</v>
+        <v>6259</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1196,22 +1196,22 @@
         <v>1</v>
       </c>
       <c r="B48" s="3">
-        <v>239000</v>
+        <v>252000</v>
       </c>
       <c r="C48" s="3">
-        <v>395000</v>
+        <v>407000</v>
       </c>
       <c r="D48" s="3">
-        <v>732000</v>
+        <v>712000</v>
       </c>
       <c r="E48" s="3">
-        <v>907000</v>
+        <v>859000</v>
       </c>
       <c r="F48" s="3">
-        <v>1051000</v>
+        <v>1036000</v>
       </c>
       <c r="G48" s="3">
-        <v>1089000</v>
+        <v>1087000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1219,22 +1219,22 @@
         <v>2</v>
       </c>
       <c r="B49" s="4">
-        <v>979.369984</v>
+        <v>1032.84736</v>
       </c>
       <c r="C49" s="4">
-        <v>1616.904192</v>
+        <v>1667.23584</v>
       </c>
       <c r="D49" s="4">
-        <v>2998.92736</v>
+        <v>2918.187008</v>
       </c>
       <c r="E49" s="4">
-        <v>3715.104768</v>
+        <v>3520.069632</v>
       </c>
       <c r="F49" s="4">
-        <v>4303.355904</v>
+        <v>4243.587072</v>
       </c>
       <c r="G49" s="4">
-        <v>4459.593728</v>
+        <v>4451.20512</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1242,22 +1242,22 @@
         <v>3</v>
       </c>
       <c r="B50" s="4">
-        <v>3.70613</v>
+        <v>3.49284</v>
       </c>
       <c r="C50" s="4">
-        <v>4.60566</v>
+        <v>4.26071</v>
       </c>
       <c r="D50" s="4">
-        <v>4.69608</v>
+        <v>4.90011</v>
       </c>
       <c r="E50" s="4">
-        <v>7.872560000000001</v>
+        <v>8.265270000000001</v>
       </c>
       <c r="F50" s="4">
-        <v>13.9851</v>
+        <v>14.0396</v>
       </c>
       <c r="G50" s="4">
-        <v>27.82546</v>
+        <v>27.76948</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1265,22 +1265,22 @@
         <v>4</v>
       </c>
       <c r="B51" s="4">
-        <v>1.896</v>
+        <v>2.024</v>
       </c>
       <c r="C51" s="4">
-        <v>1.944</v>
+        <v>1.96</v>
       </c>
       <c r="D51" s="4">
-        <v>1.976</v>
+        <v>2.192</v>
       </c>
       <c r="E51" s="4">
-        <v>2.448</v>
+        <v>2.64</v>
       </c>
       <c r="F51" s="4">
-        <v>2.896</v>
+        <v>2.64</v>
       </c>
       <c r="G51" s="4">
-        <v>2.544</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1288,22 +1288,22 @@
         <v>5</v>
       </c>
       <c r="B52" s="4">
-        <v>77.312</v>
+        <v>73.21600000000001</v>
       </c>
       <c r="C52" s="4">
-        <v>97.792</v>
+        <v>107.008</v>
       </c>
       <c r="D52" s="4">
         <v>142.336</v>
       </c>
       <c r="E52" s="4">
-        <v>246.784</v>
+        <v>189.44</v>
       </c>
       <c r="F52" s="4">
-        <v>481.28</v>
+        <v>268.288</v>
       </c>
       <c r="G52" s="4">
-        <v>238.592</v>
+        <v>264.192</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1342,22 +1342,22 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>6440</v>
+        <v>5851</v>
       </c>
       <c r="C57" s="3">
-        <v>8641</v>
+        <v>9752</v>
       </c>
       <c r="D57" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E57" s="3">
         <v>11300</v>
       </c>
-      <c r="E57" s="3">
-        <v>11600</v>
-      </c>
       <c r="F57" s="3">
+        <v>10500</v>
+      </c>
+      <c r="G57" s="3">
         <v>10800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>10700</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1365,22 +1365,22 @@
         <v>2</v>
       </c>
       <c r="B58" s="4">
-        <v>844.1036800000001</v>
+        <v>766.509056</v>
       </c>
       <c r="C58" s="4">
-        <v>1132.46208</v>
+        <v>1278.214144</v>
       </c>
       <c r="D58" s="4">
-        <v>1486.880768</v>
+        <v>1331.69152</v>
       </c>
       <c r="E58" s="4">
-        <v>1522.532352</v>
+        <v>1478.49216</v>
       </c>
       <c r="F58" s="4">
-        <v>1419.771904</v>
+        <v>1378.87744</v>
       </c>
       <c r="G58" s="4">
-        <v>1399.84896</v>
+        <v>1413.480448</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1388,22 +1388,22 @@
         <v>3</v>
       </c>
       <c r="B59" s="4">
-        <v>80.87</v>
+        <v>95.79000000000001</v>
       </c>
       <c r="C59" s="4">
-        <v>112.29</v>
+        <v>115.31</v>
       </c>
       <c r="D59" s="4">
-        <v>152.83</v>
+        <v>207.69</v>
       </c>
       <c r="E59" s="4">
-        <v>360.49</v>
+        <v>354.47</v>
       </c>
       <c r="F59" s="4">
-        <v>837.09</v>
+        <v>766.38</v>
       </c>
       <c r="G59" s="4">
-        <v>1905.59</v>
+        <v>1870.84</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1411,22 +1411,22 @@
         <v>4</v>
       </c>
       <c r="B60" s="4">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="C60" s="4">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D60" s="4">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="E60" s="4">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="F60" s="4">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="G60" s="4">
-        <v>5735</v>
+        <v>6063</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1434,22 +1434,22 @@
         <v>5</v>
       </c>
       <c r="B61" s="4">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C61" s="4">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D61" s="4">
-        <v>231</v>
+        <v>416</v>
       </c>
       <c r="E61" s="4">
-        <v>742</v>
+        <v>676</v>
       </c>
       <c r="F61" s="4">
-        <v>6783</v>
+        <v>7439</v>
       </c>
       <c r="G61" s="4">
-        <v>11207</v>
+        <v>12387</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1488,22 +1488,22 @@
         <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>126000</v>
+        <v>113000</v>
       </c>
       <c r="C66" s="3">
-        <v>169000</v>
+        <v>175000</v>
       </c>
       <c r="D66" s="3">
-        <v>188000</v>
+        <v>182000</v>
       </c>
       <c r="E66" s="3">
-        <v>222000</v>
+        <v>206000</v>
       </c>
       <c r="F66" s="3">
-        <v>201000</v>
+        <v>195000</v>
       </c>
       <c r="G66" s="3">
-        <v>179000</v>
+        <v>173000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1511,22 +1511,22 @@
         <v>2</v>
       </c>
       <c r="B67" s="4">
-        <v>513.80224</v>
+        <v>462.422016</v>
       </c>
       <c r="C67" s="4">
-        <v>693.108736</v>
+        <v>716.177408</v>
       </c>
       <c r="D67" s="4">
-        <v>770.70336</v>
+        <v>743.440384</v>
       </c>
       <c r="E67" s="4">
-        <v>910.163968</v>
+        <v>842.006528</v>
       </c>
       <c r="F67" s="4">
-        <v>822.083584</v>
+        <v>796.91776</v>
       </c>
       <c r="G67" s="4">
-        <v>732.954624</v>
+        <v>709.885952</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1536,16 +1536,16 @@
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4">
-        <v>15.26</v>
+        <v>16.07</v>
       </c>
       <c r="E68" s="4">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="F68" s="4">
-        <v>64.09</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="G68" s="4">
-        <v>154.75</v>
+        <v>155.5</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1556,16 +1556,16 @@
         <v>7</v>
       </c>
       <c r="C69" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69" s="4">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E69" s="4">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F69" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G69" s="4">
         <v>338</v>
@@ -1576,22 +1576,22 @@
         <v>5</v>
       </c>
       <c r="B70" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C70" s="4">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D70" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E70" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F70" s="4">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G70" s="4">
-        <v>498</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/rfuse_summary.xlsx
+++ b/rfuse/rfuse_summary.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="busy" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="idle" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summary" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +437,31 @@
           <t>lat_avg(ns)</t>
         </is>
       </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>BW(MiB/s)</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>lat_avg(ns)</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>lat_p95(ns)</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>lat_p99(ns)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="C2" t="n">
@@ -476,6 +500,54 @@
       <c r="N2" t="n">
         <v>4</v>
       </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -488,6 +560,16 @@
           <t>bs</t>
         </is>
       </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>workload</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>bs</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -536,6 +618,64 @@
       <c r="N4" t="n">
         <v>377.78</v>
       </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>randread</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>128k</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>374</v>
+      </c>
+      <c r="W4" t="n">
+        <v>877</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1297</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1484</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2994</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>7013</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>329.11</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>278.52</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>282.38</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>325.27</v>
+      </c>
+      <c r="AH4" t="n">
+        <v/>
+      </c>
+      <c r="AI4" t="n">
+        <v/>
+      </c>
+      <c r="AJ4" t="n">
+        <v/>
+      </c>
+      <c r="AK4" t="n">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
@@ -579,6 +719,59 @@
       <c r="N5" t="n">
         <v>23145.84</v>
       </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>4k</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v/>
+      </c>
+      <c r="W5" t="n">
+        <v>179</v>
+      </c>
+      <c r="X5" t="n">
+        <v>158</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>159</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>10922.67</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>44240</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41503.33</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>41797.9</v>
+      </c>
+      <c r="AH5" t="n">
+        <v/>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
+      </c>
+      <c r="AJ5" t="n">
+        <v/>
+      </c>
+      <c r="AK5" t="n">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -627,6 +820,64 @@
       <c r="N6" t="n">
         <v>364.71</v>
       </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>randwrite</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>128k</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>208</v>
+      </c>
+      <c r="W6" t="n">
+        <v>307</v>
+      </c>
+      <c r="X6" t="n">
+        <v>315</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>393</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1662</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2455</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2522</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>3145</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>166.23</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>177.26</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>178.14</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>179.18</v>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
+      </c>
+      <c r="AJ6" t="n">
+        <v/>
+      </c>
+      <c r="AK6" t="n">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
@@ -670,6 +921,59 @@
       <c r="N7" t="n">
         <v>115877</v>
       </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>4k</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>180</v>
+      </c>
+      <c r="W7" t="n">
+        <v>245</v>
+      </c>
+      <c r="X7" t="n">
+        <v>290</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>376</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>62</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>74</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>96</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>26280</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>49992</v>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
+      </c>
+      <c r="AJ7" t="n">
+        <v/>
+      </c>
+      <c r="AK7" t="n">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -718,6 +1022,64 @@
       <c r="N8" t="n">
         <v>256.79</v>
       </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>128k</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>643</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1118</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1518</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1932</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>5145</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>8943</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>187.87</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>217.57</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>236.6</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>251.94</v>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
+      </c>
+      <c r="AJ8" t="n">
+        <v/>
+      </c>
+      <c r="AK8" t="n">
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
@@ -761,6 +1123,59 @@
       <c r="N9" t="n">
         <v>8563.559999999999</v>
       </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>4k</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>607</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1053</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1428</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1875</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>155000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>270000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>365000</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>480000</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6200.07</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>6963.92</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>7897.46</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>7988.46</v>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
+      </c>
+      <c r="AJ9" t="n">
+        <v/>
+      </c>
+      <c r="AK9" t="n">
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -809,6 +1224,64 @@
       <c r="N10" t="n">
         <v>7442</v>
       </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>128k</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>438</v>
+      </c>
+      <c r="W10" t="n">
+        <v>707</v>
+      </c>
+      <c r="X10" t="n">
+        <v>636</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>992</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>3506</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>5657</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>5086</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7937</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>211.78</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>237.4</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>254.16</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>285.46</v>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
+      </c>
+      <c r="AJ10" t="n">
+        <v/>
+      </c>
+      <c r="AK10" t="n">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
@@ -852,572 +1325,57 @@
       <c r="N11" t="n">
         <v>18150.86</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:R11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>BW(MiB/s)</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>lat_avg(ns)</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>lat_p95(ns)</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>lat_p99(ns)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>workload</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>bs</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>randread</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>128k</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>374</v>
-      </c>
-      <c r="D4" t="n">
-        <v>877</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1297</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1484</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2994</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7013</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11</v>
-      </c>
-      <c r="K4" t="n">
-        <v>329.11</v>
-      </c>
-      <c r="L4" t="n">
-        <v>278.52</v>
-      </c>
-      <c r="M4" t="n">
-        <v>282.38</v>
-      </c>
-      <c r="N4" t="n">
-        <v>325.27</v>
-      </c>
-      <c r="O4" t="n">
-        <v/>
-      </c>
-      <c r="P4" t="n">
-        <v/>
-      </c>
-      <c r="Q4" t="n">
-        <v/>
-      </c>
-      <c r="R4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>4k</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v/>
-      </c>
-      <c r="D5" t="n">
-        <v>179</v>
-      </c>
-      <c r="E5" t="n">
-        <v>158</v>
-      </c>
-      <c r="F5" t="n">
-        <v>159</v>
-      </c>
-      <c r="G5" t="n">
-        <v>16</v>
-      </c>
-      <c r="H5" t="n">
-        <v>45</v>
-      </c>
-      <c r="I5" t="n">
-        <v>40</v>
-      </c>
-      <c r="J5" t="n">
-        <v>40</v>
-      </c>
-      <c r="K5" t="n">
-        <v>10922.67</v>
-      </c>
-      <c r="L5" t="n">
-        <v>44240</v>
-      </c>
-      <c r="M5" t="n">
-        <v>41503.33</v>
-      </c>
-      <c r="N5" t="n">
-        <v>41797.9</v>
-      </c>
-      <c r="O5" t="n">
-        <v/>
-      </c>
-      <c r="P5" t="n">
-        <v/>
-      </c>
-      <c r="Q5" t="n">
-        <v/>
-      </c>
-      <c r="R5" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>randwrite</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>128k</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>208</v>
-      </c>
-      <c r="D6" t="n">
-        <v>307</v>
-      </c>
-      <c r="E6" t="n">
-        <v>315</v>
-      </c>
-      <c r="F6" t="n">
-        <v>393</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1662</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2455</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2522</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3145</v>
-      </c>
-      <c r="K6" t="n">
-        <v>166.23</v>
-      </c>
-      <c r="L6" t="n">
-        <v>177.26</v>
-      </c>
-      <c r="M6" t="n">
-        <v>178.14</v>
-      </c>
-      <c r="N6" t="n">
-        <v>179.18</v>
-      </c>
-      <c r="O6" t="n">
-        <v/>
-      </c>
-      <c r="P6" t="n">
-        <v/>
-      </c>
-      <c r="Q6" t="n">
-        <v/>
-      </c>
-      <c r="R6" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>4k</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>180</v>
-      </c>
-      <c r="D7" t="n">
-        <v>245</v>
-      </c>
-      <c r="E7" t="n">
-        <v>290</v>
-      </c>
-      <c r="F7" t="n">
-        <v>376</v>
-      </c>
-      <c r="G7" t="n">
-        <v>46</v>
-      </c>
-      <c r="H7" t="n">
-        <v>62</v>
-      </c>
-      <c r="I7" t="n">
-        <v>74</v>
-      </c>
-      <c r="J7" t="n">
-        <v>96</v>
-      </c>
-      <c r="K7" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="L7" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="M7" t="n">
-        <v>26280</v>
-      </c>
-      <c r="N7" t="n">
-        <v>49992</v>
-      </c>
-      <c r="O7" t="n">
-        <v/>
-      </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="n">
-        <v/>
-      </c>
-      <c r="R7" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>128k</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>643</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1118</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1518</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1932</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5145</v>
-      </c>
-      <c r="H8" t="n">
-        <v>8943</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12</v>
-      </c>
-      <c r="J8" t="n">
-        <v>15</v>
-      </c>
-      <c r="K8" t="n">
-        <v>187.87</v>
-      </c>
-      <c r="L8" t="n">
-        <v>217.57</v>
-      </c>
-      <c r="M8" t="n">
-        <v>236.6</v>
-      </c>
-      <c r="N8" t="n">
-        <v>251.94</v>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
-      </c>
-      <c r="R8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>4k</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>607</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1053</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1428</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1875</v>
-      </c>
-      <c r="G9" t="n">
-        <v>155000</v>
-      </c>
-      <c r="H9" t="n">
-        <v>270000</v>
-      </c>
-      <c r="I9" t="n">
-        <v>365000</v>
-      </c>
-      <c r="J9" t="n">
-        <v>480000</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6200.07</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6963.92</v>
-      </c>
-      <c r="M9" t="n">
-        <v>7897.46</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7988.46</v>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
-      </c>
-      <c r="R9" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>128k</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>438</v>
-      </c>
-      <c r="D10" t="n">
-        <v>707</v>
-      </c>
-      <c r="E10" t="n">
-        <v>636</v>
-      </c>
-      <c r="F10" t="n">
-        <v>992</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3506</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5657</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5086</v>
-      </c>
-      <c r="J10" t="n">
-        <v>7937</v>
-      </c>
-      <c r="K10" t="n">
-        <v>211.78</v>
-      </c>
-      <c r="L10" t="n">
-        <v>237.4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>254.16</v>
-      </c>
-      <c r="N10" t="n">
-        <v>285.46</v>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
-      </c>
-      <c r="R10" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>4k</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="V11" t="n">
         <v>184</v>
       </c>
-      <c r="D11" t="n">
+      <c r="W11" t="n">
         <v>345</v>
       </c>
-      <c r="E11" t="n">
+      <c r="X11" t="n">
         <v>475</v>
       </c>
-      <c r="F11" t="n">
+      <c r="Y11" t="n">
         <v>536</v>
       </c>
-      <c r="G11" t="n">
+      <c r="Z11" t="n">
         <v>47</v>
       </c>
-      <c r="H11" t="n">
+      <c r="AA11" t="n">
         <v>88</v>
       </c>
-      <c r="I11" t="n">
+      <c r="AB11" t="n">
         <v>122000</v>
       </c>
-      <c r="J11" t="n">
+      <c r="AC11" t="n">
         <v>137000</v>
       </c>
-      <c r="K11" t="n">
+      <c r="AD11" t="n">
         <v>64278</v>
       </c>
-      <c r="L11" t="n">
+      <c r="AE11" t="n">
         <v>112222</v>
       </c>
-      <c r="M11" t="n">
+      <c r="AF11" t="n">
         <v>150804</v>
       </c>
-      <c r="N11" t="n">
+      <c r="AG11" t="n">
         <v>176146</v>
       </c>
-      <c r="O11" t="n">
+      <c r="AH11" t="n">
         <v>23168</v>
       </c>
-      <c r="P11" t="n">
+      <c r="AI11" t="n">
         <v>27264</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="AJ11" t="n">
         <v>27776</v>
       </c>
-      <c r="R11" t="n">
+      <c r="AK11" t="n">
         <v>32128</v>
       </c>
     </row>

--- a/rfuse/rfuse_summary.xlsx
+++ b/rfuse/rfuse_summary.xlsx
@@ -442,18 +442,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_randread_4k</t>
+          <t>8,10,12,14_randread_4k</t>
         </is>
       </c>
     </row>
@@ -478,16 +485,16 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6268</v>
+        <v>16900</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13000</v>
+        <v>45700</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>19200</v>
+        <v>40300</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>25000</v>
+        <v>40600</v>
       </c>
     </row>
     <row r="4">
@@ -497,16 +504,16 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>25.7</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>53.2</v>
+        <v>187</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>78.40000000000001</v>
+        <v>165</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>103</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5">
@@ -516,22 +523,22 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>159.08873</v>
+        <v>58.74355000000001</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>151.19658</v>
+        <v>41.97553</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>154.2982</v>
+        <v>64.34284</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>155.13049</v>
+        <v>87.98022</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_randread_128k</t>
+          <t>8,10,12,14_randread_128k</t>
         </is>
       </c>
     </row>
@@ -556,16 +563,16 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>3271</v>
+        <v>2994</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>5610</v>
+        <v>7013</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>7511</v>
+        <v>10400</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>10200</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="12">
@@ -575,16 +582,16 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>735</v>
+        <v>919</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>984</v>
+        <v>1360</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>1342</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="13">
@@ -594,22 +601,22 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>297.54</v>
+        <v>329.08</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>347.44</v>
+        <v>278.5</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>389.63</v>
+        <v>282.36</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>377.76</v>
+        <v>325.25</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_randwrite_4k</t>
+          <t>8,10,12,14_randwrite_4k</t>
         </is>
       </c>
     </row>
@@ -634,16 +641,16 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>19700</v>
+        <v>46200</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>11200</v>
+        <v>62800</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>15400</v>
+        <v>74100</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>61600</v>
+        <v>96300</v>
       </c>
     </row>
     <row r="20">
@@ -653,16 +660,16 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>80.7</v>
+        <v>189</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>45.9</v>
+        <v>257</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>63</v>
+        <v>304</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>252</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21">
@@ -672,22 +679,22 @@
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>44.49</v>
+        <v>12.7</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>102.23</v>
+        <v>11.75</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>80.39</v>
+        <v>14.41</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>32.43</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_randwrite_128k</t>
+          <t>8,10,12,14_randwrite_128k</t>
         </is>
       </c>
     </row>
@@ -712,16 +719,16 @@
         </is>
       </c>
       <c r="B27" s="4" t="n">
-        <v>1179</v>
+        <v>1662</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>2398</v>
+        <v>2455</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>2752</v>
+        <v>2522</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>2864</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="28">
@@ -731,16 +738,16 @@
         </is>
       </c>
       <c r="B28" s="4" t="n">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>375</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29">
@@ -750,22 +757,22 @@
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>493.49</v>
+        <v>165.71</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>399.62</v>
+        <v>176.76</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>455.96</v>
+        <v>177.63</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>364.17</v>
+        <v>178.67</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_read_4k</t>
+          <t>8,10,12,14_read_4k</t>
         </is>
       </c>
     </row>
@@ -790,16 +797,16 @@
         </is>
       </c>
       <c r="B35" s="4" t="n">
-        <v>116000</v>
+        <v>155000</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>229000</v>
+        <v>270000</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>349000</v>
+        <v>365000</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>449000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="36">
@@ -809,16 +816,16 @@
         </is>
       </c>
       <c r="B36" s="4" t="n">
-        <v>474</v>
+        <v>636</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>939</v>
+        <v>1105</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>1428</v>
+        <v>1497</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>1839</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="37">
@@ -828,22 +835,22 @@
         </is>
       </c>
       <c r="B37" s="4" t="n">
-        <v>8.378</v>
+        <v>6.18641</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>8.376760000000001</v>
+        <v>6.950159999999999</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>8.25699</v>
+        <v>7.88361</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>8.5496</v>
+        <v>7.97429</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_read_128k</t>
+          <t>8,10,12,14_read_128k</t>
         </is>
       </c>
     </row>
@@ -868,16 +875,16 @@
         </is>
       </c>
       <c r="B43" s="4" t="n">
-        <v>3580</v>
+        <v>5145</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>7160</v>
+        <v>8943</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>14900</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="44">
@@ -887,16 +894,16 @@
         </is>
       </c>
       <c r="B44" s="4" t="n">
-        <v>469</v>
+        <v>674</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>939</v>
+        <v>1172</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1561</v>
+        <v>1592</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1952</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="45">
@@ -906,22 +913,22 @@
         </is>
       </c>
       <c r="B45" s="4" t="n">
-        <v>272.26</v>
+        <v>187.85</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>273.29</v>
+        <v>217.55</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>245.7</v>
+        <v>236.58</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>256.77</v>
+        <v>251.91</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_write_4k</t>
+          <t>8,10,12,14_write_4k</t>
         </is>
       </c>
     </row>
@@ -946,16 +953,16 @@
         </is>
       </c>
       <c r="B51" s="4" t="n">
-        <v>4476</v>
+        <v>47100</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>8937</v>
+        <v>88200</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>13500</v>
+        <v>122000</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>17800</v>
+        <v>137000</v>
       </c>
     </row>
     <row r="52">
@@ -965,16 +972,16 @@
         </is>
       </c>
       <c r="B52" s="4" t="n">
-        <v>18.3</v>
+        <v>193</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>36.6</v>
+        <v>361</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>55.3</v>
+        <v>498</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>73.09999999999999</v>
+        <v>562</v>
       </c>
     </row>
     <row r="53">
@@ -984,22 +991,22 @@
         </is>
       </c>
       <c r="B53" s="4" t="n">
-        <v>219.17</v>
+        <v>15.19</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>221.88</v>
+        <v>17.43</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>220.2</v>
+        <v>19.35</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>220.04</v>
+        <v>22.37</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_write_128k</t>
+          <t>8,10,12,14_write_128k</t>
         </is>
       </c>
     </row>
@@ -1024,16 +1031,16 @@
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>1412</v>
+        <v>3506</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>2659</v>
+        <v>5657</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>4272</v>
+        <v>5086</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>5231</v>
+        <v>7937</v>
       </c>
     </row>
     <row r="60">
@@ -1043,16 +1050,16 @@
         </is>
       </c>
       <c r="B60" s="4" t="n">
-        <v>185</v>
+        <v>460</v>
       </c>
       <c r="C60" s="4" t="n">
-        <v>349</v>
+        <v>742</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>560</v>
+        <v>667</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>686</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="61">
@@ -1062,660 +1069,28 @@
         </is>
       </c>
       <c r="B61" s="4" t="n">
-        <v>531.39</v>
+        <v>211.19</v>
       </c>
       <c r="C61" s="4" t="n">
-        <v>537.8200000000001</v>
+        <v>236.88</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>535.64</v>
+        <v>253.64</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>533.97</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_randread_4k</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D66" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E66" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B67" s="4" t="n">
-        <v>6268</v>
-      </c>
-      <c r="C67" s="4" t="n">
-        <v>13000</v>
-      </c>
-      <c r="D67" s="4" t="n">
-        <v>19200</v>
-      </c>
-      <c r="E67" s="4" t="n">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B68" s="4" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="C68" s="4" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="D68" s="4" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="E68" s="4" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B69" s="4" t="n">
-        <v>159.08873</v>
-      </c>
-      <c r="C69" s="4" t="n">
-        <v>151.19658</v>
-      </c>
-      <c r="D69" s="4" t="n">
-        <v>154.2982</v>
-      </c>
-      <c r="E69" s="4" t="n">
-        <v>155.13049</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_randread_128k</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D74" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E74" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B75" s="4" t="n">
-        <v>3271</v>
-      </c>
-      <c r="C75" s="4" t="n">
-        <v>5610</v>
-      </c>
-      <c r="D75" s="4" t="n">
-        <v>7511</v>
-      </c>
-      <c r="E75" s="4" t="n">
-        <v>10200</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B76" s="4" t="n">
-        <v>429</v>
-      </c>
-      <c r="C76" s="4" t="n">
-        <v>735</v>
-      </c>
-      <c r="D76" s="4" t="n">
-        <v>984</v>
-      </c>
-      <c r="E76" s="4" t="n">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B77" s="4" t="n">
-        <v>297.54</v>
-      </c>
-      <c r="C77" s="4" t="n">
-        <v>347.44</v>
-      </c>
-      <c r="D77" s="4" t="n">
-        <v>389.63</v>
-      </c>
-      <c r="E77" s="4" t="n">
-        <v>377.76</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_randwrite_4k</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D82" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E82" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B83" s="4" t="n">
-        <v>19700</v>
-      </c>
-      <c r="C83" s="4" t="n">
-        <v>11200</v>
-      </c>
-      <c r="D83" s="4" t="n">
-        <v>15400</v>
-      </c>
-      <c r="E83" s="4" t="n">
-        <v>61600</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B84" s="4" t="n">
-        <v>80.7</v>
-      </c>
-      <c r="C84" s="4" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="D84" s="4" t="n">
-        <v>63</v>
-      </c>
-      <c r="E84" s="4" t="n">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B85" s="4" t="n">
-        <v>44.49</v>
-      </c>
-      <c r="C85" s="4" t="n">
-        <v>102.23</v>
-      </c>
-      <c r="D85" s="4" t="n">
-        <v>80.39</v>
-      </c>
-      <c r="E85" s="4" t="n">
-        <v>32.43</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_randwrite_128k</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="B90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D90" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E90" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B91" s="4" t="n">
-        <v>1179</v>
-      </c>
-      <c r="C91" s="4" t="n">
-        <v>2398</v>
-      </c>
-      <c r="D91" s="4" t="n">
-        <v>2752</v>
-      </c>
-      <c r="E91" s="4" t="n">
-        <v>2864</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B92" s="4" t="n">
-        <v>155</v>
-      </c>
-      <c r="C92" s="4" t="n">
-        <v>314</v>
-      </c>
-      <c r="D92" s="4" t="n">
-        <v>361</v>
-      </c>
-      <c r="E92" s="4" t="n">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B93" s="4" t="n">
-        <v>493.49</v>
-      </c>
-      <c r="C93" s="4" t="n">
-        <v>399.62</v>
-      </c>
-      <c r="D93" s="4" t="n">
-        <v>455.96</v>
-      </c>
-      <c r="E93" s="4" t="n">
-        <v>364.17</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="B97" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_read_4k</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="B98" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D98" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E98" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B99" s="4" t="n">
-        <v>116000</v>
-      </c>
-      <c r="C99" s="4" t="n">
-        <v>229000</v>
-      </c>
-      <c r="D99" s="4" t="n">
-        <v>349000</v>
-      </c>
-      <c r="E99" s="4" t="n">
-        <v>449000</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B100" s="4" t="n">
-        <v>474</v>
-      </c>
-      <c r="C100" s="4" t="n">
-        <v>939</v>
-      </c>
-      <c r="D100" s="4" t="n">
-        <v>1428</v>
-      </c>
-      <c r="E100" s="4" t="n">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B101" s="4" t="n">
-        <v>8.378</v>
-      </c>
-      <c r="C101" s="4" t="n">
-        <v>8.376760000000001</v>
-      </c>
-      <c r="D101" s="4" t="n">
-        <v>8.25699</v>
-      </c>
-      <c r="E101" s="4" t="n">
-        <v>8.5496</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="B105" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_read_128k</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="B106" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E106" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B107" s="4" t="n">
-        <v>3580</v>
-      </c>
-      <c r="C107" s="4" t="n">
-        <v>7160</v>
-      </c>
-      <c r="D107" s="4" t="n">
-        <v>11900</v>
-      </c>
-      <c r="E107" s="4" t="n">
-        <v>14900</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B108" s="4" t="n">
-        <v>469</v>
-      </c>
-      <c r="C108" s="4" t="n">
-        <v>939</v>
-      </c>
-      <c r="D108" s="4" t="n">
-        <v>1561</v>
-      </c>
-      <c r="E108" s="4" t="n">
-        <v>1952</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B109" s="4" t="n">
-        <v>272.26</v>
-      </c>
-      <c r="C109" s="4" t="n">
-        <v>273.29</v>
-      </c>
-      <c r="D109" s="4" t="n">
-        <v>245.7</v>
-      </c>
-      <c r="E109" s="4" t="n">
-        <v>256.77</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="B113" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_write_4k</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="B114" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E114" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B115" s="4" t="n">
-        <v>4476</v>
-      </c>
-      <c r="C115" s="4" t="n">
-        <v>8937</v>
-      </c>
-      <c r="D115" s="4" t="n">
-        <v>13500</v>
-      </c>
-      <c r="E115" s="4" t="n">
-        <v>17800</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B116" s="4" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="C116" s="4" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D116" s="4" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="E116" s="4" t="n">
-        <v>73.09999999999999</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B117" s="4" t="n">
-        <v>219.17</v>
-      </c>
-      <c r="C117" s="4" t="n">
-        <v>221.88</v>
-      </c>
-      <c r="D117" s="4" t="n">
-        <v>220.2</v>
-      </c>
-      <c r="E117" s="4" t="n">
-        <v>220.04</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="B121" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_write_128k</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="B122" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E122" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B123" s="4" t="n">
-        <v>1412</v>
-      </c>
-      <c r="C123" s="4" t="n">
-        <v>2659</v>
-      </c>
-      <c r="D123" s="4" t="n">
-        <v>4272</v>
-      </c>
-      <c r="E123" s="4" t="n">
-        <v>5231</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B124" s="4" t="n">
-        <v>185</v>
-      </c>
-      <c r="C124" s="4" t="n">
-        <v>349</v>
-      </c>
-      <c r="D124" s="4" t="n">
-        <v>560</v>
-      </c>
-      <c r="E124" s="4" t="n">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B125" s="4" t="n">
-        <v>531.39</v>
-      </c>
-      <c r="C125" s="4" t="n">
-        <v>537.8200000000001</v>
-      </c>
-      <c r="D125" s="4" t="n">
-        <v>535.64</v>
-      </c>
-      <c r="E125" s="4" t="n">
-        <v>533.97</v>
+        <v>284.93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="8">
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B113:E113"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B121:E121"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/rfuse/rfuse_summary.xlsx
+++ b/rfuse/rfuse_summary.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_randread_4k</t>
+          <t>0,2,4,6_randread_4k</t>
         </is>
       </c>
     </row>
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16900</v>
+        <v>6268</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>45700</v>
+        <v>13000</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>40300</v>
+        <v>19200</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>40600</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="4">
@@ -504,16 +504,16 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>69.40000000000001</v>
+        <v>25.7</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>187</v>
+        <v>53.2</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>165</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>166</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
@@ -523,22 +523,22 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>58.74355000000001</v>
+        <v>159.08873</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>41.97553</v>
+        <v>151.19658</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>64.34284</v>
+        <v>154.2982</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>87.98022</v>
+        <v>155.13049</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_randread_128k</t>
+          <t>0,2,4,6_randread_128k</t>
         </is>
       </c>
     </row>
@@ -563,16 +563,16 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>2994</v>
+        <v>3271</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>7013</v>
+        <v>5610</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>10400</v>
+        <v>7511</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>11900</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="12">
@@ -582,16 +582,16 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>392</v>
+        <v>429</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>919</v>
+        <v>735</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>1360</v>
+        <v>984</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>1556</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="13">
@@ -601,22 +601,22 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>329.08</v>
+        <v>297.54</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>278.5</v>
+        <v>347.44</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>282.36</v>
+        <v>389.63</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>325.25</v>
+        <v>377.76</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_randwrite_4k</t>
+          <t>0,2,4,6_randwrite_4k</t>
         </is>
       </c>
     </row>
@@ -641,16 +641,16 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>46200</v>
+        <v>19700</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>62800</v>
+        <v>11200</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>74100</v>
+        <v>15400</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>96300</v>
+        <v>61600</v>
       </c>
     </row>
     <row r="20">
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>189</v>
+        <v>80.7</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>257</v>
+        <v>45.9</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>304</v>
+        <v>63</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>394</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21">
@@ -679,22 +679,22 @@
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>12.7</v>
+        <v>44.49</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>11.75</v>
+        <v>102.23</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>14.41</v>
+        <v>80.39</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>13.25</v>
+        <v>32.43</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_randwrite_128k</t>
+          <t>0,2,4,6_randwrite_128k</t>
         </is>
       </c>
     </row>
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="B27" s="4" t="n">
-        <v>1662</v>
+        <v>1179</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>2455</v>
+        <v>2398</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>2522</v>
+        <v>2752</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>3145</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="28">
@@ -738,16 +738,16 @@
         </is>
       </c>
       <c r="B28" s="4" t="n">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>412</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29">
@@ -757,22 +757,22 @@
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>165.71</v>
+        <v>493.49</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>176.76</v>
+        <v>399.62</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>177.63</v>
+        <v>455.96</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>178.67</v>
+        <v>364.17</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_read_4k</t>
+          <t>0,2,4,6_read_4k</t>
         </is>
       </c>
     </row>
@@ -797,16 +797,16 @@
         </is>
       </c>
       <c r="B35" s="4" t="n">
-        <v>155000</v>
+        <v>116000</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>270000</v>
+        <v>229000</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>365000</v>
+        <v>349000</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>480000</v>
+        <v>449000</v>
       </c>
     </row>
     <row r="36">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B36" s="4" t="n">
-        <v>636</v>
+        <v>474</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>1105</v>
+        <v>939</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>1497</v>
+        <v>1428</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>1967</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="37">
@@ -835,22 +835,22 @@
         </is>
       </c>
       <c r="B37" s="4" t="n">
-        <v>6.18641</v>
+        <v>8.378</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>6.950159999999999</v>
+        <v>8.376760000000001</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>7.88361</v>
+        <v>8.25699</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>7.97429</v>
+        <v>8.5496</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_read_128k</t>
+          <t>0,2,4,6_read_128k</t>
         </is>
       </c>
     </row>
@@ -875,16 +875,16 @@
         </is>
       </c>
       <c r="B43" s="4" t="n">
-        <v>5145</v>
+        <v>3580</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>8943</v>
+        <v>7160</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>12100</v>
+        <v>11900</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>15500</v>
+        <v>14900</v>
       </c>
     </row>
     <row r="44">
@@ -894,16 +894,16 @@
         </is>
       </c>
       <c r="B44" s="4" t="n">
-        <v>674</v>
+        <v>469</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1172</v>
+        <v>939</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1592</v>
+        <v>1561</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>2026</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="45">
@@ -913,22 +913,22 @@
         </is>
       </c>
       <c r="B45" s="4" t="n">
-        <v>187.85</v>
+        <v>272.26</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>217.55</v>
+        <v>273.29</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>236.58</v>
+        <v>245.7</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>251.91</v>
+        <v>256.77</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_write_4k</t>
+          <t>0,2,4,6_write_4k</t>
         </is>
       </c>
     </row>
@@ -953,16 +953,16 @@
         </is>
       </c>
       <c r="B51" s="4" t="n">
-        <v>47100</v>
+        <v>4476</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>88200</v>
+        <v>8937</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>122000</v>
+        <v>13500</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>137000</v>
+        <v>17800</v>
       </c>
     </row>
     <row r="52">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B52" s="4" t="n">
-        <v>193</v>
+        <v>18.3</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>361</v>
+        <v>36.6</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>498</v>
+        <v>55.3</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>562</v>
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -991,22 +991,22 @@
         </is>
       </c>
       <c r="B53" s="4" t="n">
-        <v>15.19</v>
+        <v>219.17</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>17.43</v>
+        <v>221.88</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>19.35</v>
+        <v>220.2</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>22.37</v>
+        <v>220.04</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_write_128k</t>
+          <t>0,2,4,6_write_128k</t>
         </is>
       </c>
     </row>
@@ -1031,16 +1031,16 @@
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>3506</v>
+        <v>1412</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>5657</v>
+        <v>2659</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>5086</v>
+        <v>4272</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>7937</v>
+        <v>5231</v>
       </c>
     </row>
     <row r="60">
@@ -1050,16 +1050,16 @@
         </is>
       </c>
       <c r="B60" s="4" t="n">
-        <v>460</v>
+        <v>185</v>
       </c>
       <c r="C60" s="4" t="n">
-        <v>742</v>
+        <v>349</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>667</v>
+        <v>560</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>1040</v>
+        <v>686</v>
       </c>
     </row>
     <row r="61">
@@ -1069,28 +1069,660 @@
         </is>
       </c>
       <c r="B61" s="4" t="n">
+        <v>531.39</v>
+      </c>
+      <c r="C61" s="4" t="n">
+        <v>537.8200000000001</v>
+      </c>
+      <c r="D61" s="4" t="n">
+        <v>535.64</v>
+      </c>
+      <c r="E61" s="4" t="n">
+        <v>533.97</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_randread_4k</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="n">
+        <v>16900</v>
+      </c>
+      <c r="C67" s="4" t="n">
+        <v>45700</v>
+      </c>
+      <c r="D67" s="4" t="n">
+        <v>40300</v>
+      </c>
+      <c r="E67" s="4" t="n">
+        <v>40600</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="C68" s="4" t="n">
+        <v>187</v>
+      </c>
+      <c r="D68" s="4" t="n">
+        <v>165</v>
+      </c>
+      <c r="E68" s="4" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="n">
+        <v>58.74355000000001</v>
+      </c>
+      <c r="C69" s="4" t="n">
+        <v>41.97553</v>
+      </c>
+      <c r="D69" s="4" t="n">
+        <v>64.34284</v>
+      </c>
+      <c r="E69" s="4" t="n">
+        <v>87.98022</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_randread_128k</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B75" s="4" t="n">
+        <v>2994</v>
+      </c>
+      <c r="C75" s="4" t="n">
+        <v>7013</v>
+      </c>
+      <c r="D75" s="4" t="n">
+        <v>10400</v>
+      </c>
+      <c r="E75" s="4" t="n">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B76" s="4" t="n">
+        <v>392</v>
+      </c>
+      <c r="C76" s="4" t="n">
+        <v>919</v>
+      </c>
+      <c r="D76" s="4" t="n">
+        <v>1360</v>
+      </c>
+      <c r="E76" s="4" t="n">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B77" s="4" t="n">
+        <v>329.08</v>
+      </c>
+      <c r="C77" s="4" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="D77" s="4" t="n">
+        <v>282.36</v>
+      </c>
+      <c r="E77" s="4" t="n">
+        <v>325.25</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_randwrite_4k</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B83" s="4" t="n">
+        <v>46200</v>
+      </c>
+      <c r="C83" s="4" t="n">
+        <v>62800</v>
+      </c>
+      <c r="D83" s="4" t="n">
+        <v>74100</v>
+      </c>
+      <c r="E83" s="4" t="n">
+        <v>96300</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B84" s="4" t="n">
+        <v>189</v>
+      </c>
+      <c r="C84" s="4" t="n">
+        <v>257</v>
+      </c>
+      <c r="D84" s="4" t="n">
+        <v>304</v>
+      </c>
+      <c r="E84" s="4" t="n">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B85" s="4" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C85" s="4" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D85" s="4" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="E85" s="4" t="n">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_randwrite_128k</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B91" s="4" t="n">
+        <v>1662</v>
+      </c>
+      <c r="C91" s="4" t="n">
+        <v>2455</v>
+      </c>
+      <c r="D91" s="4" t="n">
+        <v>2522</v>
+      </c>
+      <c r="E91" s="4" t="n">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B92" s="4" t="n">
+        <v>218</v>
+      </c>
+      <c r="C92" s="4" t="n">
+        <v>322</v>
+      </c>
+      <c r="D92" s="4" t="n">
+        <v>331</v>
+      </c>
+      <c r="E92" s="4" t="n">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B93" s="4" t="n">
+        <v>165.71</v>
+      </c>
+      <c r="C93" s="4" t="n">
+        <v>176.76</v>
+      </c>
+      <c r="D93" s="4" t="n">
+        <v>177.63</v>
+      </c>
+      <c r="E93" s="4" t="n">
+        <v>178.67</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_read_4k</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B99" s="4" t="n">
+        <v>155000</v>
+      </c>
+      <c r="C99" s="4" t="n">
+        <v>270000</v>
+      </c>
+      <c r="D99" s="4" t="n">
+        <v>365000</v>
+      </c>
+      <c r="E99" s="4" t="n">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B100" s="4" t="n">
+        <v>636</v>
+      </c>
+      <c r="C100" s="4" t="n">
+        <v>1105</v>
+      </c>
+      <c r="D100" s="4" t="n">
+        <v>1497</v>
+      </c>
+      <c r="E100" s="4" t="n">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B101" s="4" t="n">
+        <v>6.18641</v>
+      </c>
+      <c r="C101" s="4" t="n">
+        <v>6.950159999999999</v>
+      </c>
+      <c r="D101" s="4" t="n">
+        <v>7.88361</v>
+      </c>
+      <c r="E101" s="4" t="n">
+        <v>7.97429</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_read_128k</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B107" s="4" t="n">
+        <v>5145</v>
+      </c>
+      <c r="C107" s="4" t="n">
+        <v>8943</v>
+      </c>
+      <c r="D107" s="4" t="n">
+        <v>12100</v>
+      </c>
+      <c r="E107" s="4" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B108" s="4" t="n">
+        <v>674</v>
+      </c>
+      <c r="C108" s="4" t="n">
+        <v>1172</v>
+      </c>
+      <c r="D108" s="4" t="n">
+        <v>1592</v>
+      </c>
+      <c r="E108" s="4" t="n">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B109" s="4" t="n">
+        <v>187.85</v>
+      </c>
+      <c r="C109" s="4" t="n">
+        <v>217.55</v>
+      </c>
+      <c r="D109" s="4" t="n">
+        <v>236.58</v>
+      </c>
+      <c r="E109" s="4" t="n">
+        <v>251.91</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_write_4k</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B115" s="4" t="n">
+        <v>47100</v>
+      </c>
+      <c r="C115" s="4" t="n">
+        <v>88200</v>
+      </c>
+      <c r="D115" s="4" t="n">
+        <v>122000</v>
+      </c>
+      <c r="E115" s="4" t="n">
+        <v>137000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B116" s="4" t="n">
+        <v>193</v>
+      </c>
+      <c r="C116" s="4" t="n">
+        <v>361</v>
+      </c>
+      <c r="D116" s="4" t="n">
+        <v>498</v>
+      </c>
+      <c r="E116" s="4" t="n">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B117" s="4" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="C117" s="4" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="D117" s="4" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="E117" s="4" t="n">
+        <v>22.37</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_write_128k</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B123" s="4" t="n">
+        <v>3506</v>
+      </c>
+      <c r="C123" s="4" t="n">
+        <v>5657</v>
+      </c>
+      <c r="D123" s="4" t="n">
+        <v>5086</v>
+      </c>
+      <c r="E123" s="4" t="n">
+        <v>7937</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B124" s="4" t="n">
+        <v>460</v>
+      </c>
+      <c r="C124" s="4" t="n">
+        <v>742</v>
+      </c>
+      <c r="D124" s="4" t="n">
+        <v>667</v>
+      </c>
+      <c r="E124" s="4" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B125" s="4" t="n">
         <v>211.19</v>
       </c>
-      <c r="C61" s="4" t="n">
+      <c r="C125" s="4" t="n">
         <v>236.88</v>
       </c>
-      <c r="D61" s="4" t="n">
+      <c r="D125" s="4" t="n">
         <v>253.64</v>
       </c>
-      <c r="E61" s="4" t="n">
+      <c r="E125" s="4" t="n">
         <v>284.93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B113:E113"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B121:E121"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/rfuse/rfuse_summary.xlsx
+++ b/rfuse/rfuse_summary.xlsx
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6268</v>
+        <v>26800</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13000</v>
+        <v>52500</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>19200</v>
+        <v>71700</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>25000</v>
+        <v>85900</v>
       </c>
     </row>
     <row r="4">
@@ -504,16 +504,16 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>25.7</v>
+        <v>110</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>53.2</v>
+        <v>215</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>78.40000000000001</v>
+        <v>294</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>103</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5">
@@ -523,16 +523,16 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>159.08873</v>
+        <v>37.03445</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>151.19658</v>
+        <v>37.7654</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>154.2982</v>
+        <v>39.85357</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>155.13049</v>
+        <v>41.63467</v>
       </c>
     </row>
     <row r="9">
@@ -563,16 +563,16 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>3271</v>
+        <v>6965</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>5610</v>
+        <v>11400</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>7511</v>
+        <v>18500</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>10200</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="12">
@@ -582,16 +582,16 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>429</v>
+        <v>913</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>735</v>
+        <v>1491</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>984</v>
+        <v>2426</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>1342</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="13">
@@ -601,16 +601,16 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>297.54</v>
+        <v>138.4</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>347.44</v>
+        <v>158.48</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>389.63</v>
+        <v>155.77</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>377.76</v>
+        <v>173.23</v>
       </c>
     </row>
     <row r="17">
@@ -641,16 +641,16 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>19700</v>
+        <v>49600</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>11200</v>
+        <v>70800</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>15400</v>
+        <v>83200</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>61600</v>
+        <v>101000</v>
       </c>
     </row>
     <row r="20">
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>80.7</v>
+        <v>203</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>45.9</v>
+        <v>290</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>63</v>
+        <v>341</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>252</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21">
@@ -679,16 +679,16 @@
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>44.49</v>
+        <v>18.1</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>102.23</v>
+        <v>25.4</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>80.39</v>
+        <v>30.87</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>32.43</v>
+        <v>33.34</v>
       </c>
     </row>
     <row r="25">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="B27" s="4" t="n">
-        <v>1179</v>
+        <v>3878</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>2398</v>
+        <v>6005</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>2752</v>
+        <v>8370</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>2864</v>
+        <v>9122</v>
       </c>
     </row>
     <row r="28">
@@ -738,16 +738,16 @@
         </is>
       </c>
       <c r="B28" s="4" t="n">
-        <v>155</v>
+        <v>508</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>314</v>
+        <v>787</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>361</v>
+        <v>1097</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>375</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="29">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>493.49</v>
+        <v>201.13</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>399.62</v>
+        <v>249.36</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>455.96</v>
+        <v>243.57</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>364.17</v>
+        <v>275.26</v>
       </c>
     </row>
     <row r="33">
@@ -797,16 +797,16 @@
         </is>
       </c>
       <c r="B35" s="4" t="n">
-        <v>116000</v>
+        <v>218000</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>229000</v>
+        <v>379000</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>349000</v>
+        <v>512000</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>449000</v>
+        <v>615000</v>
       </c>
     </row>
     <row r="36">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B36" s="4" t="n">
-        <v>474</v>
+        <v>895</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>939</v>
+        <v>1552</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>1428</v>
+        <v>2097</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>1839</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="37">
@@ -835,16 +835,16 @@
         </is>
       </c>
       <c r="B37" s="4" t="n">
-        <v>8.378</v>
+        <v>4.234970000000001</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>8.376760000000001</v>
+        <v>4.90655</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>8.25699</v>
+        <v>5.53202</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>8.5496</v>
+        <v>6.1661</v>
       </c>
     </row>
     <row r="41">
@@ -875,16 +875,16 @@
         </is>
       </c>
       <c r="B43" s="4" t="n">
-        <v>3580</v>
+        <v>6649</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>7160</v>
+        <v>11900</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>11900</v>
+        <v>16300</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>14900</v>
+        <v>19300</v>
       </c>
     </row>
     <row r="44">
@@ -894,16 +894,16 @@
         </is>
       </c>
       <c r="B44" s="4" t="n">
-        <v>469</v>
+        <v>872</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>939</v>
+        <v>1561</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1561</v>
+        <v>2142</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1952</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="45">
@@ -913,16 +913,16 @@
         </is>
       </c>
       <c r="B45" s="4" t="n">
-        <v>272.26</v>
+        <v>145.37</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>273.29</v>
+        <v>158.42</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>245.7</v>
+        <v>177.88</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>256.77</v>
+        <v>198.09</v>
       </c>
     </row>
     <row r="49">
@@ -953,16 +953,16 @@
         </is>
       </c>
       <c r="B51" s="4" t="n">
-        <v>4476</v>
+        <v>49900</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>8937</v>
+        <v>61200</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>13500</v>
+        <v>97500</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>17800</v>
+        <v>113000</v>
       </c>
     </row>
     <row r="52">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B52" s="4" t="n">
-        <v>18.3</v>
+        <v>204</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>36.6</v>
+        <v>251</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>55.3</v>
+        <v>399</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>73.09999999999999</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53">
@@ -991,16 +991,16 @@
         </is>
       </c>
       <c r="B53" s="4" t="n">
-        <v>219.17</v>
+        <v>17.48</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>221.88</v>
+        <v>25.76</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>220.2</v>
+        <v>25.78</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>220.04</v>
+        <v>28.35</v>
       </c>
     </row>
     <row r="57">
@@ -1031,16 +1031,16 @@
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>1412</v>
+        <v>3864</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>2659</v>
+        <v>5769</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>4272</v>
+        <v>7094</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>5231</v>
+        <v>7699</v>
       </c>
     </row>
     <row r="60">
@@ -1050,16 +1050,16 @@
         </is>
       </c>
       <c r="B60" s="4" t="n">
-        <v>185</v>
+        <v>506</v>
       </c>
       <c r="C60" s="4" t="n">
-        <v>349</v>
+        <v>756</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>560</v>
+        <v>930</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>686</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="61">
@@ -1069,16 +1069,16 @@
         </is>
       </c>
       <c r="B61" s="4" t="n">
-        <v>531.39</v>
+        <v>186.32</v>
       </c>
       <c r="C61" s="4" t="n">
-        <v>537.8200000000001</v>
+        <v>227.78</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>535.64</v>
+        <v>262.4</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>533.97</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65">
@@ -1109,16 +1109,16 @@
         </is>
       </c>
       <c r="B67" s="4" t="n">
-        <v>16900</v>
+        <v>33700</v>
       </c>
       <c r="C67" s="4" t="n">
-        <v>45700</v>
+        <v>65600</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>40300</v>
+        <v>97100</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>40600</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="68">
@@ -1128,16 +1128,16 @@
         </is>
       </c>
       <c r="B68" s="4" t="n">
-        <v>69.40000000000001</v>
+        <v>138</v>
       </c>
       <c r="C68" s="4" t="n">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>165</v>
+        <v>398</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>166</v>
+        <v>493</v>
       </c>
     </row>
     <row r="69">
@@ -1147,16 +1147,16 @@
         </is>
       </c>
       <c r="B69" s="4" t="n">
-        <v>58.74355000000001</v>
+        <v>29.29052</v>
       </c>
       <c r="C69" s="4" t="n">
-        <v>41.97553</v>
+        <v>29.95759</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>64.34284</v>
+        <v>30.40274</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>87.98022</v>
+        <v>31.45437</v>
       </c>
     </row>
     <row r="73">
@@ -1187,16 +1187,16 @@
         </is>
       </c>
       <c r="B75" s="4" t="n">
-        <v>2994</v>
+        <v>8982</v>
       </c>
       <c r="C75" s="4" t="n">
-        <v>7013</v>
+        <v>17400</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>10400</v>
+        <v>23600</v>
       </c>
       <c r="E75" s="4" t="n">
-        <v>11900</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="76">
@@ -1206,16 +1206,16 @@
         </is>
       </c>
       <c r="B76" s="4" t="n">
-        <v>392</v>
+        <v>1177</v>
       </c>
       <c r="C76" s="4" t="n">
-        <v>919</v>
+        <v>2275</v>
       </c>
       <c r="D76" s="4" t="n">
-        <v>1360</v>
+        <v>3097</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>1556</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="77">
@@ -1225,16 +1225,16 @@
         </is>
       </c>
       <c r="B77" s="4" t="n">
-        <v>329.08</v>
+        <v>102.78</v>
       </c>
       <c r="C77" s="4" t="n">
-        <v>278.5</v>
+        <v>106.32</v>
       </c>
       <c r="D77" s="4" t="n">
-        <v>282.36</v>
+        <v>120.81</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>325.25</v>
+        <v>129.47</v>
       </c>
     </row>
     <row r="81">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B83" s="4" t="n">
-        <v>46200</v>
+        <v>79500</v>
       </c>
       <c r="C83" s="4" t="n">
-        <v>62800</v>
+        <v>122000</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>74100</v>
+        <v>151000</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>96300</v>
+        <v>165000</v>
       </c>
     </row>
     <row r="84">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="B84" s="4" t="n">
-        <v>189</v>
+        <v>326</v>
       </c>
       <c r="C84" s="4" t="n">
-        <v>257</v>
+        <v>500</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>304</v>
+        <v>618</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>394</v>
+        <v>675</v>
       </c>
     </row>
     <row r="85">
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B85" s="4" t="n">
-        <v>12.7</v>
+        <v>10.71</v>
       </c>
       <c r="C85" s="4" t="n">
-        <v>11.75</v>
+        <v>13.7</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>14.41</v>
+        <v>15.94</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>13.25</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="89">
@@ -1343,16 +1343,16 @@
         </is>
       </c>
       <c r="B91" s="4" t="n">
-        <v>1662</v>
+        <v>6059</v>
       </c>
       <c r="C91" s="4" t="n">
-        <v>2455</v>
+        <v>8677</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>2522</v>
+        <v>10900</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>3145</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="92">
@@ -1362,16 +1362,16 @@
         </is>
       </c>
       <c r="B92" s="4" t="n">
-        <v>218</v>
+        <v>794</v>
       </c>
       <c r="C92" s="4" t="n">
-        <v>322</v>
+        <v>1137</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>331</v>
+        <v>1423</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>412</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="93">
@@ -1381,16 +1381,16 @@
         </is>
       </c>
       <c r="B93" s="4" t="n">
-        <v>165.71</v>
+        <v>117.46</v>
       </c>
       <c r="C93" s="4" t="n">
-        <v>176.76</v>
+        <v>141.39</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>177.63</v>
+        <v>161.64</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>178.67</v>
+        <v>211.02</v>
       </c>
     </row>
     <row r="97">
@@ -1421,16 +1421,16 @@
         </is>
       </c>
       <c r="B99" s="4" t="n">
-        <v>155000</v>
+        <v>315000</v>
       </c>
       <c r="C99" s="4" t="n">
-        <v>270000</v>
+        <v>643000</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>365000</v>
+        <v>793000</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>480000</v>
+        <v>814000</v>
       </c>
     </row>
     <row r="100">
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="B100" s="4" t="n">
-        <v>636</v>
+        <v>1291</v>
       </c>
       <c r="C100" s="4" t="n">
-        <v>1105</v>
+        <v>2632</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>1497</v>
+        <v>3247</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>1967</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="101">
@@ -1459,16 +1459,16 @@
         </is>
       </c>
       <c r="B101" s="4" t="n">
-        <v>6.18641</v>
+        <v>2.92332</v>
       </c>
       <c r="C101" s="4" t="n">
-        <v>6.950159999999999</v>
+        <v>2.85878</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>7.88361</v>
+        <v>3.40918</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>7.97429</v>
+        <v>4.44653</v>
       </c>
     </row>
     <row r="105">
@@ -1499,16 +1499,16 @@
         </is>
       </c>
       <c r="B107" s="4" t="n">
-        <v>5145</v>
+        <v>10600</v>
       </c>
       <c r="C107" s="4" t="n">
-        <v>8943</v>
+        <v>18600</v>
       </c>
       <c r="D107" s="4" t="n">
-        <v>12100</v>
+        <v>25400</v>
       </c>
       <c r="E107" s="4" t="n">
-        <v>15500</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="108">
@@ -1518,16 +1518,16 @@
         </is>
       </c>
       <c r="B108" s="4" t="n">
-        <v>674</v>
+        <v>1384</v>
       </c>
       <c r="C108" s="4" t="n">
-        <v>1172</v>
+        <v>2440</v>
       </c>
       <c r="D108" s="4" t="n">
-        <v>1592</v>
+        <v>3328</v>
       </c>
       <c r="E108" s="4" t="n">
-        <v>2026</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="109">
@@ -1537,16 +1537,16 @@
         </is>
       </c>
       <c r="B109" s="4" t="n">
-        <v>187.85</v>
+        <v>90.12</v>
       </c>
       <c r="C109" s="4" t="n">
-        <v>217.55</v>
+        <v>101.93</v>
       </c>
       <c r="D109" s="4" t="n">
-        <v>236.58</v>
+        <v>111.67</v>
       </c>
       <c r="E109" s="4" t="n">
-        <v>251.91</v>
+        <v>130.68</v>
       </c>
     </row>
     <row r="113">
@@ -1577,16 +1577,16 @@
         </is>
       </c>
       <c r="B115" s="4" t="n">
-        <v>47100</v>
+        <v>83400</v>
       </c>
       <c r="C115" s="4" t="n">
-        <v>88200</v>
+        <v>127000</v>
       </c>
       <c r="D115" s="4" t="n">
-        <v>122000</v>
+        <v>141000</v>
       </c>
       <c r="E115" s="4" t="n">
-        <v>137000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="116">
@@ -1596,16 +1596,16 @@
         </is>
       </c>
       <c r="B116" s="4" t="n">
-        <v>193</v>
+        <v>342</v>
       </c>
       <c r="C116" s="4" t="n">
-        <v>361</v>
+        <v>518</v>
       </c>
       <c r="D116" s="4" t="n">
-        <v>498</v>
+        <v>578</v>
       </c>
       <c r="E116" s="4" t="n">
-        <v>562</v>
+        <v>697</v>
       </c>
     </row>
     <row r="117">
@@ -1615,16 +1615,16 @@
         </is>
       </c>
       <c r="B117" s="4" t="n">
-        <v>15.19</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C117" s="4" t="n">
-        <v>17.43</v>
+        <v>11.98</v>
       </c>
       <c r="D117" s="4" t="n">
-        <v>19.35</v>
+        <v>16.32</v>
       </c>
       <c r="E117" s="4" t="n">
-        <v>22.37</v>
+        <v>17.57</v>
       </c>
     </row>
     <row r="121">
@@ -1655,16 +1655,16 @@
         </is>
       </c>
       <c r="B123" s="4" t="n">
-        <v>3506</v>
+        <v>5224</v>
       </c>
       <c r="C123" s="4" t="n">
-        <v>5657</v>
+        <v>6918</v>
       </c>
       <c r="D123" s="4" t="n">
-        <v>5086</v>
+        <v>8439</v>
       </c>
       <c r="E123" s="4" t="n">
-        <v>7937</v>
+        <v>9041</v>
       </c>
     </row>
     <row r="124">
@@ -1674,16 +1674,16 @@
         </is>
       </c>
       <c r="B124" s="4" t="n">
-        <v>460</v>
+        <v>685</v>
       </c>
       <c r="C124" s="4" t="n">
-        <v>742</v>
+        <v>907</v>
       </c>
       <c r="D124" s="4" t="n">
-        <v>667</v>
+        <v>1106</v>
       </c>
       <c r="E124" s="4" t="n">
-        <v>1040</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="125">
@@ -1693,16 +1693,16 @@
         </is>
       </c>
       <c r="B125" s="4" t="n">
-        <v>211.19</v>
+        <v>116.64</v>
       </c>
       <c r="C125" s="4" t="n">
-        <v>236.88</v>
+        <v>148.98</v>
       </c>
       <c r="D125" s="4" t="n">
-        <v>253.64</v>
+        <v>178.42</v>
       </c>
       <c r="E125" s="4" t="n">
-        <v>284.93</v>
+        <v>229.1</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/rfuse_summary.xlsx
+++ b/rfuse/rfuse_summary.xlsx
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>3605</v>
+        <v>5333</v>
       </c>
       <c r="C3" s="3">
-        <v>7557</v>
+        <v>9615</v>
       </c>
       <c r="D3" s="3">
-        <v>14400</v>
+        <v>17100</v>
       </c>
       <c r="E3" s="3">
-        <v>23800</v>
+        <v>24500</v>
       </c>
       <c r="F3" s="3">
-        <v>23000</v>
+        <v>24200</v>
       </c>
       <c r="G3" s="3">
-        <v>21100</v>
+        <v>21300</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>472.907776</v>
+        <v>699.4001919999999</v>
       </c>
       <c r="C4" s="4">
-        <v>990.90432</v>
+        <v>1260.388352</v>
       </c>
       <c r="D4" s="4">
-        <v>1890.582528</v>
+        <v>2246.049792</v>
       </c>
       <c r="E4" s="4">
-        <v>3121.610752</v>
+        <v>3205.496832</v>
       </c>
       <c r="F4" s="4">
-        <v>3144.679424</v>
+        <v>3177.18528</v>
       </c>
       <c r="G4" s="4">
-        <v>2771.386368</v>
+        <v>2789.21216</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -514,22 +514,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>276</v>
+        <v>186.87</v>
       </c>
       <c r="C5" s="4">
-        <v>257.88</v>
+        <v>196.6</v>
       </c>
       <c r="D5" s="4">
-        <v>268.15</v>
+        <v>225.29</v>
       </c>
       <c r="E5" s="4">
-        <v>328.9</v>
+        <v>314.86</v>
       </c>
       <c r="F5" s="4">
-        <v>653.5</v>
+        <v>646.47</v>
       </c>
       <c r="G5" s="4">
-        <v>1482.93</v>
+        <v>1475.04</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -537,22 +537,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>457</v>
+        <v>310</v>
       </c>
       <c r="C6" s="4">
-        <v>445</v>
+        <v>351</v>
       </c>
       <c r="D6" s="4">
-        <v>478</v>
+        <v>396</v>
       </c>
       <c r="E6" s="4">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F6" s="4">
-        <v>1303</v>
+        <v>1287</v>
       </c>
       <c r="G6" s="4">
-        <v>3032</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -560,22 +560,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>515</v>
+        <v>363</v>
       </c>
       <c r="C7" s="4">
-        <v>523</v>
+        <v>388</v>
       </c>
       <c r="D7" s="4">
-        <v>537</v>
+        <v>461</v>
       </c>
       <c r="E7" s="4">
         <v>709</v>
       </c>
       <c r="F7" s="4">
-        <v>1532</v>
+        <v>1500</v>
       </c>
       <c r="G7" s="4">
-        <v>3752</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -614,22 +614,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>16900</v>
+        <v>25700</v>
       </c>
       <c r="C12" s="3">
-        <v>34800</v>
+        <v>51600</v>
       </c>
       <c r="D12" s="3">
-        <v>73500</v>
+        <v>100000</v>
       </c>
       <c r="E12" s="3">
-        <v>159000</v>
+        <v>189000</v>
       </c>
       <c r="F12" s="3">
-        <v>312000</v>
+        <v>335000</v>
       </c>
       <c r="G12" s="3">
-        <v>494000</v>
+        <v>503000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -637,22 +637,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>69.31087359999999</v>
+        <v>104.8576</v>
       </c>
       <c r="C13" s="4">
-        <v>142.606336</v>
+        <v>210.763776</v>
       </c>
       <c r="D13" s="4">
-        <v>300.941312</v>
+        <v>411.041792</v>
       </c>
       <c r="E13" s="4">
-        <v>651.165696</v>
+        <v>773.8490880000001</v>
       </c>
       <c r="F13" s="4">
-        <v>1277.165568</v>
+        <v>1371.537408</v>
       </c>
       <c r="G13" s="4">
-        <v>2021.654528</v>
+        <v>2060.45184</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -660,22 +660,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>58.5289</v>
+        <v>38.61556</v>
       </c>
       <c r="C14" s="4">
-        <v>56.48868</v>
+        <v>37.99648000000001</v>
       </c>
       <c r="D14" s="4">
-        <v>53.38082</v>
+        <v>39.25501000000001</v>
       </c>
       <c r="E14" s="4">
-        <v>49.3582</v>
+        <v>41.65730000000001</v>
       </c>
       <c r="F14" s="4">
-        <v>50.08457</v>
+        <v>46.75563</v>
       </c>
       <c r="G14" s="4">
-        <v>63.3888</v>
+        <v>62.08248</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -683,22 +683,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>111.104</v>
+        <v>72.19200000000001</v>
       </c>
       <c r="C15" s="4">
-        <v>107.008</v>
+        <v>69.12</v>
       </c>
       <c r="D15" s="4">
-        <v>103.936</v>
+        <v>75.264</v>
       </c>
       <c r="E15" s="4">
-        <v>99.84</v>
+        <v>84.48</v>
       </c>
       <c r="F15" s="4">
-        <v>103.936</v>
+        <v>98.816</v>
       </c>
       <c r="G15" s="4">
-        <v>136.192</v>
+        <v>134.144</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -706,22 +706,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="4">
-        <v>134.144</v>
+        <v>94.72</v>
       </c>
       <c r="C16" s="4">
-        <v>132.096</v>
+        <v>96.768</v>
       </c>
       <c r="D16" s="4">
-        <v>128.512</v>
+        <v>99.84</v>
       </c>
       <c r="E16" s="4">
-        <v>122.368</v>
+        <v>108.032</v>
       </c>
       <c r="F16" s="4">
-        <v>130.56</v>
+        <v>126.464</v>
       </c>
       <c r="G16" s="4">
-        <v>179.2</v>
+        <v>177.152</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -760,22 +760,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>4876</v>
+        <v>7111</v>
       </c>
       <c r="C21" s="3">
-        <v>8462</v>
+        <v>11500</v>
       </c>
       <c r="D21" s="3">
-        <v>12700</v>
+        <v>17500</v>
       </c>
       <c r="E21" s="3">
-        <v>14100</v>
+        <v>20100</v>
       </c>
       <c r="F21" s="3">
-        <v>13700</v>
+        <v>19500</v>
       </c>
       <c r="G21" s="3">
-        <v>14000</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -783,22 +783,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>639.63136</v>
+        <v>932.184064</v>
       </c>
       <c r="C22" s="4">
-        <v>1109.393408</v>
+        <v>1507.852288</v>
       </c>
       <c r="D22" s="4">
-        <v>1661.99296</v>
+        <v>2294.284288</v>
       </c>
       <c r="E22" s="4">
-        <v>1844.445184</v>
+        <v>2638.217216</v>
       </c>
       <c r="F22" s="4">
-        <v>1795.162112</v>
+        <v>2556.428288</v>
       </c>
       <c r="G22" s="4">
-        <v>1963.982848</v>
+        <v>1987.05152</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -806,22 +806,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>160.08</v>
+        <v>105.81</v>
       </c>
       <c r="C23" s="4">
-        <v>171.7</v>
+        <v>109.74</v>
       </c>
       <c r="D23" s="4">
-        <v>205.37</v>
+        <v>123.61</v>
       </c>
       <c r="E23" s="4">
-        <v>375.84</v>
+        <v>186.93</v>
       </c>
       <c r="F23" s="4">
-        <v>759.65</v>
+        <v>464.54</v>
       </c>
       <c r="G23" s="4">
-        <v>1391.3</v>
+        <v>1417.81</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -829,22 +829,22 @@
         <v>4</v>
       </c>
       <c r="B24" s="4">
-        <v>260</v>
+        <v>121</v>
       </c>
       <c r="C24" s="4">
+        <v>135</v>
+      </c>
+      <c r="D24" s="4">
+        <v>184</v>
+      </c>
+      <c r="E24" s="4">
         <v>289</v>
       </c>
-      <c r="D24" s="4">
-        <v>330</v>
-      </c>
-      <c r="E24" s="4">
-        <v>578</v>
-      </c>
       <c r="F24" s="4">
-        <v>1401</v>
+        <v>963</v>
       </c>
       <c r="G24" s="4">
-        <v>3982</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -852,22 +852,22 @@
         <v>5</v>
       </c>
       <c r="B25" s="4">
-        <v>408</v>
+        <v>167</v>
       </c>
       <c r="C25" s="4">
-        <v>347</v>
+        <v>174</v>
       </c>
       <c r="D25" s="4">
-        <v>400</v>
+        <v>221</v>
       </c>
       <c r="E25" s="4">
-        <v>676</v>
+        <v>355</v>
       </c>
       <c r="F25" s="4">
-        <v>1745</v>
+        <v>1516</v>
       </c>
       <c r="G25" s="4">
-        <v>4883</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -906,22 +906,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>70000</v>
+        <v>91300</v>
       </c>
       <c r="C30" s="3">
-        <v>127000</v>
+        <v>147000</v>
       </c>
       <c r="D30" s="3">
-        <v>220000</v>
+        <v>278000</v>
       </c>
       <c r="E30" s="3">
-        <v>347000</v>
+        <v>425000</v>
       </c>
       <c r="F30" s="3">
-        <v>352000</v>
+        <v>459000</v>
       </c>
       <c r="G30" s="3">
-        <v>279000</v>
+        <v>379000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -929,22 +929,22 @@
         <v>2</v>
       </c>
       <c r="B31" s="4">
-        <v>287.309824</v>
+        <v>374.341632</v>
       </c>
       <c r="C31" s="4">
-        <v>521.142272</v>
+        <v>601.882624</v>
       </c>
       <c r="D31" s="4">
-        <v>899.678208</v>
+        <v>1137.70496</v>
       </c>
       <c r="E31" s="4">
-        <v>1421.869056</v>
+        <v>1740.63616</v>
       </c>
       <c r="F31" s="4">
-        <v>1442.840576</v>
+        <v>1882.19392</v>
       </c>
       <c r="G31" s="4">
-        <v>1143.996416</v>
+        <v>1552.941056</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -952,22 +952,22 @@
         <v>3</v>
       </c>
       <c r="B32" s="4">
-        <v>11.90864</v>
+        <v>9.121370000000001</v>
       </c>
       <c r="C32" s="4">
-        <v>12.89</v>
+        <v>11.16</v>
       </c>
       <c r="D32" s="4">
-        <v>13.88601</v>
+        <v>10.49798</v>
       </c>
       <c r="E32" s="4">
-        <v>15.3</v>
+        <v>11.54</v>
       </c>
       <c r="F32" s="4">
-        <v>25.9</v>
+        <v>15.64</v>
       </c>
       <c r="G32" s="4">
-        <v>50.43</v>
+        <v>46.21</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -975,22 +975,22 @@
         <v>4</v>
       </c>
       <c r="B33" s="4">
-        <v>25.216</v>
+        <v>10.944</v>
       </c>
       <c r="C33" s="4">
-        <v>25.472</v>
+        <v>13.888</v>
       </c>
       <c r="D33" s="4">
-        <v>24.192</v>
+        <v>13.376</v>
       </c>
       <c r="E33" s="4">
-        <v>23.424</v>
+        <v>16.32</v>
       </c>
       <c r="F33" s="4">
-        <v>39</v>
+        <v>21.888</v>
       </c>
       <c r="G33" s="4">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -998,22 +998,22 @@
         <v>5</v>
       </c>
       <c r="B34" s="4">
-        <v>28.8</v>
+        <v>12.608</v>
       </c>
       <c r="C34" s="4">
-        <v>30.08</v>
+        <v>16.32</v>
       </c>
       <c r="D34" s="4">
-        <v>30.848</v>
+        <v>15.68</v>
       </c>
       <c r="E34" s="4">
-        <v>31.36</v>
+        <v>20.352</v>
       </c>
       <c r="F34" s="4">
-        <v>51</v>
+        <v>29.568</v>
       </c>
       <c r="G34" s="4">
-        <v>126</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1052,22 +1052,22 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>7062</v>
+        <v>10300</v>
       </c>
       <c r="C39" s="3">
-        <v>11300</v>
+        <v>9846</v>
       </c>
       <c r="D39" s="3">
-        <v>14800</v>
+        <v>15900</v>
       </c>
       <c r="E39" s="3">
-        <v>13900</v>
+        <v>13000</v>
       </c>
       <c r="F39" s="3">
         <v>12700</v>
       </c>
       <c r="G39" s="3">
-        <v>10400</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1075,22 +1075,22 @@
         <v>2</v>
       </c>
       <c r="B40" s="4">
-        <v>925.892608</v>
+        <v>1355.808768</v>
       </c>
       <c r="C40" s="4">
-        <v>1482.686464</v>
+        <v>1290.797056</v>
       </c>
       <c r="D40" s="4">
-        <v>1945.10848</v>
+        <v>2088.763392</v>
       </c>
       <c r="E40" s="4">
-        <v>1825.570816</v>
+        <v>1831.862272</v>
       </c>
       <c r="F40" s="4">
-        <v>1666.187264</v>
+        <v>1665.138688</v>
       </c>
       <c r="G40" s="4">
-        <v>1362.100224</v>
+        <v>1430.257664</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1098,22 +1098,22 @@
         <v>3</v>
       </c>
       <c r="B41" s="4">
-        <v>140.17</v>
+        <v>95.94</v>
       </c>
       <c r="C41" s="4">
-        <v>169.56</v>
+        <v>160.39</v>
       </c>
       <c r="D41" s="4">
-        <v>257.03</v>
+        <v>230.78</v>
       </c>
       <c r="E41" s="4">
-        <v>564.4400000000001</v>
+        <v>556.4299999999999</v>
       </c>
       <c r="F41" s="4">
-        <v>1228.45</v>
+        <v>1231.82</v>
       </c>
       <c r="G41" s="4">
-        <v>3010.13</v>
+        <v>2858.32</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1121,22 +1121,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="4">
-        <v>343</v>
+        <v>225</v>
       </c>
       <c r="C42" s="4">
-        <v>441</v>
+        <v>310</v>
       </c>
       <c r="D42" s="4">
-        <v>693</v>
+        <v>619</v>
       </c>
       <c r="E42" s="4">
-        <v>1483</v>
+        <v>1434</v>
       </c>
       <c r="F42" s="4">
-        <v>3523</v>
+        <v>3621</v>
       </c>
       <c r="G42" s="4">
-        <v>9110</v>
+        <v>9765</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1144,22 +1144,22 @@
         <v>5</v>
       </c>
       <c r="B43" s="4">
-        <v>404</v>
+        <v>273</v>
       </c>
       <c r="C43" s="4">
-        <v>570</v>
+        <v>502</v>
       </c>
       <c r="D43" s="4">
-        <v>938</v>
+        <v>840</v>
       </c>
       <c r="E43" s="4">
-        <v>1844</v>
+        <v>1893</v>
       </c>
       <c r="F43" s="4">
-        <v>5145</v>
+        <v>5342</v>
       </c>
       <c r="G43" s="4">
-        <v>14746</v>
+        <v>18220</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1198,22 +1198,22 @@
         <v>1</v>
       </c>
       <c r="B48" s="3">
-        <v>209000</v>
+        <v>309000</v>
       </c>
       <c r="C48" s="3">
-        <v>350000</v>
+        <v>455000</v>
       </c>
       <c r="D48" s="3">
-        <v>495000</v>
+        <v>520000</v>
       </c>
       <c r="E48" s="3">
-        <v>457000</v>
+        <v>461000</v>
       </c>
       <c r="F48" s="3">
-        <v>422000</v>
+        <v>429000</v>
       </c>
       <c r="G48" s="3">
-        <v>368000</v>
+        <v>383000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1221,22 +1221,22 @@
         <v>2</v>
       </c>
       <c r="B49" s="4">
-        <v>854.58944</v>
+        <v>1266.679808</v>
       </c>
       <c r="C49" s="4">
-        <v>1435.500544</v>
+        <v>1864.368128</v>
       </c>
       <c r="D49" s="4">
-        <v>2025.848832</v>
+        <v>2130.706432</v>
       </c>
       <c r="E49" s="4">
-        <v>1870.659584</v>
+        <v>1887.4368</v>
       </c>
       <c r="F49" s="4">
-        <v>1729.101824</v>
+        <v>1757.413376</v>
       </c>
       <c r="G49" s="4">
-        <v>1505.755136</v>
+        <v>1566.572544</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1244,22 +1244,22 @@
         <v>3</v>
       </c>
       <c r="B50" s="4">
-        <v>4.466520000000001</v>
+        <v>2.97914</v>
       </c>
       <c r="C50" s="4">
-        <v>5.18179</v>
+        <v>3.90883</v>
       </c>
       <c r="D50" s="4">
-        <v>7.425800000000001</v>
+        <v>7.23163</v>
       </c>
       <c r="E50" s="4">
-        <v>16.70145</v>
+        <v>16.57516</v>
       </c>
       <c r="F50" s="4">
-        <v>36.11358000000001</v>
+        <v>35.39712</v>
       </c>
       <c r="G50" s="4">
-        <v>83.19456</v>
+        <v>79.96814000000001</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1267,22 +1267,22 @@
         <v>4</v>
       </c>
       <c r="B51" s="4">
-        <v>1.704</v>
+        <v>1.608</v>
       </c>
       <c r="C51" s="4">
-        <v>1.848</v>
+        <v>2.096</v>
       </c>
       <c r="D51" s="4">
-        <v>4.64</v>
+        <v>4.96</v>
       </c>
       <c r="E51" s="4">
-        <v>10.432</v>
+        <v>10.688</v>
       </c>
       <c r="F51" s="4">
-        <v>25.472</v>
+        <v>24.96</v>
       </c>
       <c r="G51" s="4">
-        <v>33</v>
+        <v>31.616</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1290,22 +1290,22 @@
         <v>5</v>
       </c>
       <c r="B52" s="4">
-        <v>189.44</v>
+        <v>102.912</v>
       </c>
       <c r="C52" s="4">
-        <v>216.064</v>
+        <v>138.24</v>
       </c>
       <c r="D52" s="4">
-        <v>259.072</v>
+        <v>232.448</v>
       </c>
       <c r="E52" s="4">
-        <v>593.92</v>
+        <v>577.5360000000001</v>
       </c>
       <c r="F52" s="4">
-        <v>1187.84</v>
+        <v>1122.304</v>
       </c>
       <c r="G52" s="4">
-        <v>2769</v>
+        <v>2179.072</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1344,22 +1344,22 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>4145</v>
+        <v>5953</v>
       </c>
       <c r="C57" s="3">
-        <v>7236</v>
+        <v>8827</v>
       </c>
       <c r="D57" s="3">
-        <v>10600</v>
+        <v>13500</v>
       </c>
       <c r="E57" s="3">
-        <v>11800</v>
+        <v>15300</v>
       </c>
       <c r="F57" s="3">
-        <v>11700</v>
+        <v>16100</v>
       </c>
       <c r="G57" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1367,22 +1367,22 @@
         <v>2</v>
       </c>
       <c r="B58" s="4">
-        <v>543.162368</v>
+        <v>780.140544</v>
       </c>
       <c r="C58" s="4">
-        <v>948.96128</v>
+        <v>1156.579328</v>
       </c>
       <c r="D58" s="4">
-        <v>1387.266048</v>
+        <v>1765.801984</v>
       </c>
       <c r="E58" s="4">
-        <v>1549.795328</v>
+        <v>2011.168768</v>
       </c>
       <c r="F58" s="4">
-        <v>1535.115264</v>
+        <v>2109.734912</v>
       </c>
       <c r="G58" s="4">
-        <v>1908.40832</v>
+        <v>1897.92256</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1390,22 +1390,22 @@
         <v>3</v>
       </c>
       <c r="B59" s="4">
-        <v>185.62</v>
+        <v>116.6</v>
       </c>
       <c r="C59" s="4">
-        <v>192.15</v>
+        <v>119.87</v>
       </c>
       <c r="D59" s="4">
-        <v>217.74</v>
+        <v>125.42</v>
       </c>
       <c r="E59" s="4">
-        <v>384.6</v>
+        <v>176.36</v>
       </c>
       <c r="F59" s="4">
-        <v>790.47</v>
+        <v>494.11</v>
       </c>
       <c r="G59" s="4">
-        <v>1505.81</v>
+        <v>1497.74</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1413,22 +1413,22 @@
         <v>4</v>
       </c>
       <c r="B60" s="4">
-        <v>302</v>
+        <v>124</v>
       </c>
       <c r="C60" s="4">
-        <v>310</v>
+        <v>135</v>
       </c>
       <c r="D60" s="4">
-        <v>326</v>
+        <v>147</v>
       </c>
       <c r="E60" s="4">
-        <v>570</v>
+        <v>247</v>
       </c>
       <c r="F60" s="4">
-        <v>1287</v>
+        <v>865</v>
       </c>
       <c r="G60" s="4">
-        <v>3490</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1436,22 +1436,22 @@
         <v>5</v>
       </c>
       <c r="B61" s="4">
-        <v>359</v>
+        <v>149</v>
       </c>
       <c r="C61" s="4">
-        <v>359</v>
+        <v>161</v>
       </c>
       <c r="D61" s="4">
-        <v>367</v>
+        <v>182</v>
       </c>
       <c r="E61" s="4">
-        <v>652</v>
+        <v>322</v>
       </c>
       <c r="F61" s="4">
-        <v>1565</v>
+        <v>1188</v>
       </c>
       <c r="G61" s="4">
-        <v>3982</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1490,22 +1490,22 @@
         <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>75200</v>
+        <v>91300</v>
       </c>
       <c r="C66" s="3">
-        <v>133000</v>
+        <v>163000</v>
       </c>
       <c r="D66" s="3">
-        <v>207000</v>
+        <v>254000</v>
       </c>
       <c r="E66" s="3">
-        <v>315000</v>
+        <v>370000</v>
       </c>
       <c r="F66" s="3">
-        <v>382000</v>
+        <v>497000</v>
       </c>
       <c r="G66" s="3">
-        <v>445000</v>
+        <v>474000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1513,22 +1513,22 @@
         <v>2</v>
       </c>
       <c r="B67" s="4">
-        <v>308.281344</v>
+        <v>374.341632</v>
       </c>
       <c r="C67" s="4">
-        <v>545.25952</v>
+        <v>668.991488</v>
       </c>
       <c r="D67" s="4">
-        <v>849.34656</v>
+        <v>1040.187392</v>
       </c>
       <c r="E67" s="4">
-        <v>1290.797056</v>
+        <v>1514.143744</v>
       </c>
       <c r="F67" s="4">
-        <v>1564.475392</v>
+        <v>2035.286016</v>
       </c>
       <c r="G67" s="4">
-        <v>1823.473664</v>
+        <v>1940.914176</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1536,22 +1536,20 @@
         <v>3</v>
       </c>
       <c r="B68" s="4">
-        <v>11.33659</v>
-      </c>
-      <c r="C68" s="4">
-        <v>12.08751</v>
-      </c>
+        <v>9.06779</v>
+      </c>
+      <c r="C68" s="4"/>
       <c r="D68" s="4">
-        <v>13.55052</v>
+        <v>10.67</v>
       </c>
       <c r="E68" s="4">
-        <v>14.88</v>
+        <v>11.15416</v>
       </c>
       <c r="F68" s="4">
-        <v>27.35</v>
+        <v>16.42</v>
       </c>
       <c r="G68" s="4">
-        <v>53.97</v>
+        <v>50.36</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1559,22 +1557,22 @@
         <v>4</v>
       </c>
       <c r="B69" s="4">
-        <v>24.704</v>
+        <v>10.176</v>
       </c>
       <c r="C69" s="4">
-        <v>24.448</v>
+        <v>10.816</v>
       </c>
       <c r="D69" s="4">
-        <v>25.216</v>
+        <v>14.272</v>
       </c>
       <c r="E69" s="4">
-        <v>22.144</v>
+        <v>15.68</v>
       </c>
       <c r="F69" s="4">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G69" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1582,22 +1580,22 @@
         <v>5</v>
       </c>
       <c r="B70" s="4">
-        <v>27.776</v>
+        <v>11.328</v>
       </c>
       <c r="C70" s="4">
-        <v>28.032</v>
+        <v>12.352</v>
       </c>
       <c r="D70" s="4">
-        <v>29.824</v>
+        <v>16.768</v>
       </c>
       <c r="E70" s="4">
-        <v>30.848</v>
+        <v>19.328</v>
       </c>
       <c r="F70" s="4">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G70" s="4">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/rfuse_summary.xlsx
+++ b/rfuse/rfuse_summary.xlsx
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>983</v>
+        <v>4899</v>
       </c>
       <c r="C3" s="3">
-        <v>1894</v>
+        <v>8031</v>
       </c>
       <c r="D3" s="3">
-        <v>3580</v>
+        <v>3657</v>
       </c>
       <c r="E3" s="3">
-        <v>7173</v>
+        <v>6553</v>
       </c>
       <c r="F3" s="3">
         <v>11500</v>
       </c>
       <c r="G3" s="3">
-        <v>42800</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>128.974848</v>
+        <v>641.728512</v>
       </c>
       <c r="C4" s="4">
-        <v>248.512512</v>
+        <v>1052.770304</v>
       </c>
       <c r="D4" s="4">
-        <v>469.762048</v>
+        <v>479.199232</v>
       </c>
       <c r="E4" s="4">
-        <v>940.572672</v>
+        <v>858.783744</v>
       </c>
       <c r="F4" s="4">
-        <v>1512.046592</v>
+        <v>1501.560832</v>
       </c>
       <c r="G4" s="4">
-        <v>5614.075904</v>
+        <v>1676.673024</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -514,22 +514,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>1005.02</v>
+        <v>203.04</v>
       </c>
       <c r="C5" s="4">
-        <v>1035.09</v>
+        <v>241.44</v>
       </c>
       <c r="D5" s="4">
-        <v>1099.55</v>
+        <v>1068.68</v>
       </c>
       <c r="E5" s="4">
-        <v>1078.97</v>
+        <v>1154.35</v>
       </c>
       <c r="F5" s="4">
-        <v>1285.44</v>
+        <v>1264.3</v>
       </c>
       <c r="G5" s="4">
-        <v>594.75</v>
+        <v>2046.16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -537,22 +537,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>1745</v>
+        <v>383</v>
       </c>
       <c r="C6" s="4">
-        <v>1778</v>
+        <v>404</v>
       </c>
       <c r="D6" s="4">
-        <v>1926</v>
+        <v>1876</v>
       </c>
       <c r="E6" s="4">
-        <v>1975</v>
+        <v>2057</v>
       </c>
       <c r="F6" s="4">
-        <v>3195</v>
+        <v>2638</v>
       </c>
       <c r="G6" s="4">
-        <v>2442</v>
+        <v>7701</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -560,22 +560,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>1958</v>
+        <v>396</v>
       </c>
       <c r="C7" s="4">
-        <v>1975</v>
+        <v>433</v>
       </c>
       <c r="D7" s="4">
-        <v>2147</v>
+        <v>2040</v>
       </c>
       <c r="E7" s="4">
-        <v>2245</v>
+        <v>3163</v>
       </c>
       <c r="F7" s="4">
-        <v>4015</v>
+        <v>3851</v>
       </c>
       <c r="G7" s="4">
-        <v>3425</v>
+        <v>11076</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -614,22 +614,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>4206</v>
+        <v>4782</v>
       </c>
       <c r="C12" s="3">
-        <v>41800</v>
+        <v>35500</v>
       </c>
       <c r="D12" s="3">
-        <v>16700</v>
+        <v>98600</v>
       </c>
       <c r="E12" s="3">
-        <v>213000</v>
+        <v>157000</v>
       </c>
       <c r="F12" s="3">
-        <v>251000</v>
+        <v>60300</v>
       </c>
       <c r="G12" s="3">
-        <v>242000</v>
+        <v>278000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -637,22 +637,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>17.1966464</v>
+        <v>19.6083712</v>
       </c>
       <c r="C13" s="4">
-        <v>170.917888</v>
+        <v>145.752064</v>
       </c>
       <c r="D13" s="4">
-        <v>68.4720128</v>
+        <v>403.70176</v>
       </c>
       <c r="E13" s="4">
-        <v>873.463808</v>
+        <v>641.728512</v>
       </c>
       <c r="F13" s="4">
-        <v>1028.653056</v>
+        <v>246.41536</v>
       </c>
       <c r="G13" s="4">
-        <v>990.90432</v>
+        <v>1139.802112</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -660,22 +660,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>236.7403</v>
+        <v>207.89832</v>
       </c>
       <c r="C14" s="4">
-        <v>47.07708</v>
+        <v>55.03463</v>
       </c>
       <c r="D14" s="4">
-        <v>238.33798</v>
+        <v>39.57362000000001</v>
       </c>
       <c r="E14" s="4">
-        <v>35.49738</v>
+        <v>39.81417</v>
       </c>
       <c r="F14" s="4">
-        <v>49.52993</v>
+        <v>255.95412</v>
       </c>
       <c r="G14" s="4">
-        <v>87.97478</v>
+        <v>84.10915</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -686,19 +686,19 @@
         <v>1449.984</v>
       </c>
       <c r="C15" s="4">
-        <v>95.744</v>
+        <v>102.912</v>
       </c>
       <c r="D15" s="4">
-        <v>1466.368</v>
+        <v>91.648</v>
       </c>
       <c r="E15" s="4">
-        <v>93.696</v>
+        <v>100.864</v>
       </c>
       <c r="F15" s="4">
-        <v>175.104</v>
+        <v>1548.288</v>
       </c>
       <c r="G15" s="4">
-        <v>489.472</v>
+        <v>432.128</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -706,22 +706,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="4">
-        <v>1581.056</v>
+        <v>1564.672</v>
       </c>
       <c r="C16" s="4">
-        <v>122.368</v>
+        <v>130.56</v>
       </c>
       <c r="D16" s="4">
-        <v>1613.824</v>
+        <v>113.152</v>
       </c>
       <c r="E16" s="4">
-        <v>125.44</v>
+        <v>148.48</v>
       </c>
       <c r="F16" s="4">
-        <v>234.496</v>
+        <v>1859.584</v>
       </c>
       <c r="G16" s="4">
-        <v>700.4160000000001</v>
+        <v>626.688</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -760,22 +760,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>6564</v>
+        <v>6360</v>
       </c>
       <c r="C21" s="3">
-        <v>10800</v>
+        <v>9846</v>
       </c>
       <c r="D21" s="3">
-        <v>14300</v>
+        <v>14600</v>
       </c>
       <c r="E21" s="3">
-        <v>18200</v>
+        <v>19500</v>
       </c>
       <c r="F21" s="3">
-        <v>19300</v>
+        <v>17200</v>
       </c>
       <c r="G21" s="3">
-        <v>13400</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -783,22 +783,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>860.880896</v>
+        <v>833.61792</v>
       </c>
       <c r="C22" s="4">
-        <v>1412.431872</v>
+        <v>1290.797056</v>
       </c>
       <c r="D22" s="4">
-        <v>1876.95104</v>
+        <v>1917.845504</v>
       </c>
       <c r="E22" s="4">
-        <v>2386.558976</v>
+        <v>2550.136832</v>
       </c>
       <c r="F22" s="4">
-        <v>2532.31104</v>
+        <v>2251.292672</v>
       </c>
       <c r="G22" s="4">
-        <v>1750.073344</v>
+        <v>1835.008</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -806,22 +806,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>71.53</v>
+        <v>77.03</v>
       </c>
       <c r="C23" s="4">
-        <v>77.06999999999999</v>
+        <v>85.53</v>
       </c>
       <c r="D23" s="4">
-        <v>84.09</v>
+        <v>102.28</v>
       </c>
       <c r="E23" s="4">
-        <v>125.88</v>
+        <v>128.51</v>
       </c>
       <c r="F23" s="4">
-        <v>204.09</v>
+        <v>180.28</v>
       </c>
       <c r="G23" s="4">
-        <v>1283.98</v>
+        <v>1152.47</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -829,22 +829,22 @@
         <v>4</v>
       </c>
       <c r="B24" s="4">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C24" s="4">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D24" s="4">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="E24" s="4">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="F24" s="4">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G24" s="4">
-        <v>4752</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -852,22 +852,22 @@
         <v>5</v>
       </c>
       <c r="B25" s="4">
-        <v>379</v>
+        <v>217</v>
       </c>
       <c r="C25" s="4">
-        <v>253</v>
+        <v>1303</v>
       </c>
       <c r="D25" s="4">
-        <v>523</v>
+        <v>1029</v>
       </c>
       <c r="E25" s="4">
-        <v>1418</v>
+        <v>1336</v>
       </c>
       <c r="F25" s="4">
-        <v>2212</v>
+        <v>2147</v>
       </c>
       <c r="G25" s="4">
-        <v>12649</v>
+        <v>11207</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -906,22 +906,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>113000</v>
+        <v>122000</v>
       </c>
       <c r="C30" s="3">
-        <v>177000</v>
+        <v>165000</v>
       </c>
       <c r="D30" s="3">
-        <v>311000</v>
+        <v>260000</v>
       </c>
       <c r="E30" s="3">
-        <v>427000</v>
+        <v>392000</v>
       </c>
       <c r="F30" s="3">
-        <v>398000</v>
+        <v>373000</v>
       </c>
       <c r="G30" s="3">
-        <v>204000</v>
+        <v>251000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -929,37 +929,39 @@
         <v>2</v>
       </c>
       <c r="B31" s="4">
-        <v>462.422016</v>
+        <v>499.122176</v>
       </c>
       <c r="C31" s="4">
-        <v>725.614592</v>
+        <v>677.380096</v>
       </c>
       <c r="D31" s="4">
-        <v>1275.068416</v>
+        <v>1063.256064</v>
       </c>
       <c r="E31" s="4">
-        <v>1749.024768</v>
+        <v>1607.467008</v>
       </c>
       <c r="F31" s="4">
-        <v>1631.584256</v>
+        <v>1527.775232</v>
       </c>
       <c r="G31" s="4">
-        <v>836.763648</v>
+        <v>1028.653056</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="4">
+        <v>5.457020000000001</v>
+      </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4">
-        <v>14.84</v>
+        <v>15.41</v>
       </c>
       <c r="G32" s="4">
-        <v>101.44</v>
+        <v>83.54000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -967,22 +969,22 @@
         <v>4</v>
       </c>
       <c r="B33" s="4">
-        <v>8</v>
+        <v>6.496</v>
       </c>
       <c r="C33" s="4">
         <v>10</v>
       </c>
       <c r="D33" s="4">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E33" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" s="4">
         <v>18</v>
       </c>
       <c r="G33" s="4">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -990,22 +992,22 @@
         <v>5</v>
       </c>
       <c r="B34" s="4">
-        <v>18</v>
+        <v>14.4</v>
       </c>
       <c r="C34" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D34" s="4">
         <v>21</v>
       </c>
       <c r="E34" s="4">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F34" s="4">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G34" s="4">
-        <v>865</v>
+        <v>742</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1044,22 +1046,22 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="C39" s="3">
-        <v>4129</v>
+        <v>21100</v>
       </c>
       <c r="D39" s="3">
-        <v>5688</v>
+        <v>6390</v>
       </c>
       <c r="E39" s="3">
-        <v>7460</v>
+        <v>7620</v>
       </c>
       <c r="F39" s="3">
-        <v>7968</v>
+        <v>7772</v>
       </c>
       <c r="G39" s="3">
-        <v>8289</v>
+        <v>8255</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1067,22 +1069,22 @@
         <v>2</v>
       </c>
       <c r="B40" s="4">
-        <v>1475.346432</v>
+        <v>1542.455296</v>
       </c>
       <c r="C40" s="4">
-        <v>541.065216</v>
+        <v>2767.192064</v>
       </c>
       <c r="D40" s="4">
-        <v>745.537536</v>
+        <v>837.812224</v>
       </c>
       <c r="E40" s="4">
-        <v>978.321408</v>
+        <v>999.292928</v>
       </c>
       <c r="F40" s="4">
-        <v>1044.381696</v>
+        <v>1019.215872</v>
       </c>
       <c r="G40" s="4">
-        <v>1086.324736</v>
+        <v>1082.130432</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1090,22 +1092,22 @@
         <v>3</v>
       </c>
       <c r="B41" s="4">
-        <v>80.86</v>
+        <v>77.27</v>
       </c>
       <c r="C41" s="4">
-        <v>409.01</v>
+        <v>81.69</v>
       </c>
       <c r="D41" s="4">
-        <v>625.5599999999999</v>
+        <v>595.9299999999999</v>
       </c>
       <c r="E41" s="4">
-        <v>891.9</v>
+        <v>868.2</v>
       </c>
       <c r="F41" s="4">
-        <v>1563.77</v>
+        <v>1647.09</v>
       </c>
       <c r="G41" s="4">
-        <v>2983.25</v>
+        <v>3033.47</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1113,22 +1115,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="4">
+        <v>251</v>
+      </c>
+      <c r="C42" s="4">
         <v>273</v>
       </c>
-      <c r="C42" s="4">
-        <v>1811</v>
-      </c>
       <c r="D42" s="4">
-        <v>1909</v>
+        <v>1926</v>
       </c>
       <c r="E42" s="4">
         <v>3195</v>
       </c>
       <c r="F42" s="4">
-        <v>5735</v>
+        <v>5669</v>
       </c>
       <c r="G42" s="4">
-        <v>13435</v>
+        <v>15664</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1136,22 +1138,22 @@
         <v>5</v>
       </c>
       <c r="B43" s="4">
-        <v>424</v>
+        <v>562</v>
       </c>
       <c r="C43" s="4">
-        <v>3064</v>
+        <v>453</v>
       </c>
       <c r="D43" s="4">
-        <v>2278</v>
+        <v>2343</v>
       </c>
       <c r="E43" s="4">
-        <v>7439</v>
+        <v>4948</v>
       </c>
       <c r="F43" s="4">
-        <v>11863</v>
+        <v>15533</v>
       </c>
       <c r="G43" s="4">
-        <v>35914</v>
+        <v>28443</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1190,22 +1192,22 @@
         <v>1</v>
       </c>
       <c r="B48" s="3">
-        <v>104000</v>
+        <v>144000</v>
       </c>
       <c r="C48" s="3">
-        <v>133000</v>
+        <v>155000</v>
       </c>
       <c r="D48" s="3">
-        <v>199000</v>
+        <v>215000</v>
       </c>
       <c r="E48" s="3">
-        <v>209000</v>
+        <v>301000</v>
       </c>
       <c r="F48" s="3">
-        <v>268000</v>
+        <v>267000</v>
       </c>
       <c r="G48" s="3">
-        <v>358000</v>
+        <v>332000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1213,22 +1215,22 @@
         <v>2</v>
       </c>
       <c r="B49" s="4">
-        <v>427.819008</v>
+        <v>588.251136</v>
       </c>
       <c r="C49" s="4">
-        <v>545.25952</v>
+        <v>636.485632</v>
       </c>
       <c r="D49" s="4">
-        <v>813.694976</v>
+        <v>879.755264</v>
       </c>
       <c r="E49" s="4">
-        <v>854.58944</v>
+        <v>1231.028224</v>
       </c>
       <c r="F49" s="4">
-        <v>1098.907648</v>
+        <v>1092.616192</v>
       </c>
       <c r="G49" s="4">
-        <v>1466.957824</v>
+        <v>1360.003072</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1236,22 +1238,22 @@
         <v>3</v>
       </c>
       <c r="B50" s="4">
-        <v>8.87734</v>
+        <v>6.44061</v>
       </c>
       <c r="C50" s="4">
-        <v>11.49356</v>
+        <v>10.20723</v>
       </c>
       <c r="D50" s="4">
-        <v>18.71468</v>
+        <v>16.9717</v>
       </c>
       <c r="E50" s="4">
-        <v>28.85582</v>
+        <v>24.61053</v>
       </c>
       <c r="F50" s="4">
-        <v>50.52084</v>
+        <v>47.83172</v>
       </c>
       <c r="G50" s="4">
-        <v>81.0972</v>
+        <v>88.0149</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1259,19 +1261,19 @@
         <v>4</v>
       </c>
       <c r="B51" s="4">
-        <v>2.672</v>
+        <v>1.912</v>
       </c>
       <c r="C51" s="4">
-        <v>2.448</v>
+        <v>2.224</v>
       </c>
       <c r="D51" s="4">
-        <v>2.384</v>
+        <v>2.8</v>
       </c>
       <c r="E51" s="4">
-        <v>2.928</v>
+        <v>2.8</v>
       </c>
       <c r="F51" s="4">
-        <v>2.704</v>
+        <v>2.576</v>
       </c>
       <c r="G51" s="4">
         <v>2.672</v>
@@ -1282,22 +1284,22 @@
         <v>5</v>
       </c>
       <c r="B52" s="4">
-        <v>129.536</v>
+        <v>101.888</v>
       </c>
       <c r="C52" s="4">
-        <v>134.144</v>
+        <v>120.32</v>
       </c>
       <c r="D52" s="4">
-        <v>847.8720000000001</v>
+        <v>407.552</v>
       </c>
       <c r="E52" s="4">
-        <v>1089.536</v>
+        <v>1220.608</v>
       </c>
       <c r="F52" s="4">
-        <v>2023.424</v>
+        <v>1662.976</v>
       </c>
       <c r="G52" s="4">
-        <v>1613.824</v>
+        <v>2039.808</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1336,13 +1338,13 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>5305</v>
+        <v>6564</v>
       </c>
       <c r="C57" s="3">
-        <v>8159</v>
+        <v>8427</v>
       </c>
       <c r="D57" s="3">
-        <v>10200</v>
+        <v>9266</v>
       </c>
       <c r="E57" s="3">
         <v>12500</v>
@@ -1351,7 +1353,7 @@
         <v>13200</v>
       </c>
       <c r="G57" s="3">
-        <v>11400</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1359,22 +1361,22 @@
         <v>2</v>
       </c>
       <c r="B58" s="4">
-        <v>695.205888</v>
+        <v>860.880896</v>
       </c>
       <c r="C58" s="4">
-        <v>1069.54752</v>
+        <v>1104.150528</v>
       </c>
       <c r="D58" s="4">
-        <v>1342.17728</v>
+        <v>1214.251008</v>
       </c>
       <c r="E58" s="4">
-        <v>1638.924288</v>
+        <v>1642.070016</v>
       </c>
       <c r="F58" s="4">
-        <v>1733.296128</v>
+        <v>1732.247552</v>
       </c>
       <c r="G58" s="4">
-        <v>1488.97792</v>
+        <v>1686.110208</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1382,22 +1384,22 @@
         <v>3</v>
       </c>
       <c r="B59" s="4">
-        <v>83.31999999999999</v>
+        <v>60.32</v>
       </c>
       <c r="C59" s="4">
-        <v>98.28</v>
+        <v>77.38</v>
       </c>
       <c r="D59" s="4">
-        <v>147.55</v>
+        <v>188</v>
       </c>
       <c r="E59" s="4">
-        <v>108.36</v>
+        <v>128.65</v>
       </c>
       <c r="F59" s="4">
-        <v>198.38</v>
+        <v>183.37</v>
       </c>
       <c r="G59" s="4">
-        <v>1250.61</v>
+        <v>823.5700000000001</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1405,22 +1407,22 @@
         <v>4</v>
       </c>
       <c r="B60" s="4">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="C60" s="4">
         <v>91</v>
       </c>
       <c r="D60" s="4">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="E60" s="4">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="F60" s="4">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="G60" s="4">
-        <v>4359</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1428,22 +1430,22 @@
         <v>5</v>
       </c>
       <c r="B61" s="4">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C61" s="4">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D61" s="4">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="E61" s="4">
-        <v>326</v>
+        <v>420</v>
       </c>
       <c r="F61" s="4">
-        <v>2212</v>
+        <v>2114</v>
       </c>
       <c r="G61" s="4">
-        <v>10945</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1482,22 +1484,22 @@
         <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>118000</v>
+        <v>137000</v>
       </c>
       <c r="C66" s="3">
-        <v>173000</v>
+        <v>158000</v>
       </c>
       <c r="D66" s="3">
         <v>269000</v>
       </c>
       <c r="E66" s="3">
-        <v>340000</v>
+        <v>334000</v>
       </c>
       <c r="F66" s="3">
-        <v>359000</v>
+        <v>377000</v>
       </c>
       <c r="G66" s="3">
-        <v>297000</v>
+        <v>239000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1505,22 +1507,22 @@
         <v>2</v>
       </c>
       <c r="B67" s="4">
-        <v>482.34496</v>
+        <v>562.036736</v>
       </c>
       <c r="C67" s="4">
-        <v>709.885952</v>
+        <v>644.87424</v>
       </c>
       <c r="D67" s="4">
         <v>1102.053376</v>
       </c>
       <c r="E67" s="4">
-        <v>1390.411776</v>
+        <v>1367.343104</v>
       </c>
       <c r="F67" s="4">
-        <v>1469.054976</v>
+        <v>1544.552448</v>
       </c>
       <c r="G67" s="4">
-        <v>1216.34816</v>
+        <v>980.41856</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1530,12 +1532,14 @@
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
+      <c r="E68" s="4">
+        <v>12.26</v>
+      </c>
       <c r="F68" s="4">
-        <v>11.09</v>
+        <v>10.03</v>
       </c>
       <c r="G68" s="4">
-        <v>60.78</v>
+        <v>87.39</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1543,22 +1547,22 @@
         <v>4</v>
       </c>
       <c r="B69" s="4">
-        <v>6.88</v>
+        <v>5.536</v>
       </c>
       <c r="C69" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69" s="4">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F69" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G69" s="4">
-        <v>153</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1566,22 +1570,22 @@
         <v>5</v>
       </c>
       <c r="B70" s="4">
-        <v>15.168</v>
+        <v>23.68</v>
       </c>
       <c r="C70" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D70" s="4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E70" s="4">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F70" s="4">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="G70" s="4">
-        <v>627</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/rfuse_summary.xlsx
+++ b/rfuse/rfuse_summary.xlsx
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>4899</v>
+        <v>1024</v>
       </c>
       <c r="C3" s="3">
-        <v>8031</v>
+        <v>1978</v>
       </c>
       <c r="D3" s="3">
-        <v>3657</v>
+        <v>4031</v>
       </c>
       <c r="E3" s="3">
-        <v>6553</v>
+        <v>9775</v>
       </c>
       <c r="F3" s="3">
-        <v>11500</v>
+        <v>10400</v>
       </c>
       <c r="G3" s="3">
-        <v>12800</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>641.728512</v>
+        <v>134.217728</v>
       </c>
       <c r="C4" s="4">
-        <v>1052.770304</v>
+        <v>258.998272</v>
       </c>
       <c r="D4" s="4">
-        <v>479.199232</v>
+        <v>528.482304</v>
       </c>
       <c r="E4" s="4">
-        <v>858.783744</v>
+        <v>1281.359872</v>
       </c>
       <c r="F4" s="4">
-        <v>1501.560832</v>
+        <v>1357.90592</v>
       </c>
       <c r="G4" s="4">
-        <v>1676.673024</v>
+        <v>1529.872384</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -514,22 +514,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>203.04</v>
+        <v>969.6799999999999</v>
       </c>
       <c r="C5" s="4">
-        <v>241.44</v>
+        <v>992.95</v>
       </c>
       <c r="D5" s="4">
-        <v>1068.68</v>
+        <v>921.92</v>
       </c>
       <c r="E5" s="4">
-        <v>1154.35</v>
+        <v>768.33</v>
       </c>
       <c r="F5" s="4">
-        <v>1264.3</v>
+        <v>1351.15</v>
       </c>
       <c r="G5" s="4">
-        <v>2046.16</v>
+        <v>2341.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -537,22 +537,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>383</v>
+        <v>1762</v>
       </c>
       <c r="C6" s="4">
-        <v>404</v>
+        <v>1762</v>
       </c>
       <c r="D6" s="4">
-        <v>1876</v>
+        <v>1893</v>
       </c>
       <c r="E6" s="4">
-        <v>2057</v>
+        <v>1860</v>
       </c>
       <c r="F6" s="4">
-        <v>2638</v>
+        <v>3359</v>
       </c>
       <c r="G6" s="4">
-        <v>7701</v>
+        <v>8979</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -560,22 +560,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>396</v>
+        <v>1893</v>
       </c>
       <c r="C7" s="4">
-        <v>433</v>
+        <v>2180</v>
       </c>
       <c r="D7" s="4">
+        <v>2024</v>
+      </c>
+      <c r="E7" s="4">
         <v>2040</v>
       </c>
-      <c r="E7" s="4">
-        <v>3163</v>
-      </c>
       <c r="F7" s="4">
-        <v>3851</v>
+        <v>4490</v>
       </c>
       <c r="G7" s="4">
-        <v>11076</v>
+        <v>14484</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -614,22 +614,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>4782</v>
+        <v>4753</v>
       </c>
       <c r="C12" s="3">
-        <v>35500</v>
+        <v>9004</v>
       </c>
       <c r="D12" s="3">
-        <v>98600</v>
+        <v>17200</v>
       </c>
       <c r="E12" s="3">
-        <v>157000</v>
+        <v>32400</v>
       </c>
       <c r="F12" s="3">
-        <v>60300</v>
+        <v>58100</v>
       </c>
       <c r="G12" s="3">
-        <v>278000</v>
+        <v>87800</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -637,22 +637,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>19.6083712</v>
+        <v>19.5035136</v>
       </c>
       <c r="C13" s="4">
-        <v>145.752064</v>
+        <v>36.9098752</v>
       </c>
       <c r="D13" s="4">
-        <v>403.70176</v>
+        <v>70.35944959999999</v>
       </c>
       <c r="E13" s="4">
-        <v>641.728512</v>
+        <v>132.120576</v>
       </c>
       <c r="F13" s="4">
-        <v>246.41536</v>
+        <v>238.026752</v>
       </c>
       <c r="G13" s="4">
-        <v>1139.802112</v>
+        <v>359.661568</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -660,22 +660,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>207.89832</v>
+        <v>209.85605</v>
       </c>
       <c r="C14" s="4">
-        <v>55.03463</v>
+        <v>221.69688</v>
       </c>
       <c r="D14" s="4">
-        <v>39.57362000000001</v>
+        <v>228.52552</v>
       </c>
       <c r="E14" s="4">
-        <v>39.81417</v>
+        <v>243.13351</v>
       </c>
       <c r="F14" s="4">
-        <v>255.95412</v>
+        <v>265.25533</v>
       </c>
       <c r="G14" s="4">
-        <v>84.10915</v>
+        <v>320.86286</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -683,22 +683,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
+        <v>1417.216</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1466.368</v>
+      </c>
+      <c r="D15" s="4">
         <v>1449.984</v>
       </c>
-      <c r="C15" s="4">
-        <v>102.912</v>
-      </c>
-      <c r="D15" s="4">
-        <v>91.648</v>
-      </c>
       <c r="E15" s="4">
-        <v>100.864</v>
+        <v>1499.136</v>
       </c>
       <c r="F15" s="4">
-        <v>1548.288</v>
+        <v>1564.672</v>
       </c>
       <c r="G15" s="4">
-        <v>432.128</v>
+        <v>1646.592</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -706,22 +706,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="4">
-        <v>1564.672</v>
+        <v>1531.904</v>
       </c>
       <c r="C16" s="4">
-        <v>130.56</v>
+        <v>1581.056</v>
       </c>
       <c r="D16" s="4">
-        <v>113.152</v>
+        <v>1597.44</v>
       </c>
       <c r="E16" s="4">
-        <v>148.48</v>
+        <v>1662.976</v>
       </c>
       <c r="F16" s="4">
         <v>1859.584</v>
       </c>
       <c r="G16" s="4">
-        <v>626.688</v>
+        <v>3850.24</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -760,22 +760,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>6360</v>
+        <v>8827</v>
       </c>
       <c r="C21" s="3">
-        <v>9846</v>
+        <v>10900</v>
       </c>
       <c r="D21" s="3">
-        <v>14600</v>
+        <v>13700</v>
       </c>
       <c r="E21" s="3">
-        <v>19500</v>
+        <v>16700</v>
       </c>
       <c r="F21" s="3">
-        <v>17200</v>
+        <v>16700</v>
       </c>
       <c r="G21" s="3">
-        <v>13000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -783,22 +783,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>833.61792</v>
+        <v>1156.579328</v>
       </c>
       <c r="C22" s="4">
-        <v>1290.797056</v>
+        <v>1428.160512</v>
       </c>
       <c r="D22" s="4">
-        <v>1917.845504</v>
+        <v>1795.162112</v>
       </c>
       <c r="E22" s="4">
-        <v>2550.136832</v>
+        <v>2182.086656</v>
       </c>
       <c r="F22" s="4">
-        <v>2251.292672</v>
+        <v>2184.183808</v>
       </c>
       <c r="G22" s="4">
-        <v>1835.008</v>
+        <v>1881.145344</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -806,22 +806,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>77.03</v>
+        <v>45.52</v>
       </c>
       <c r="C23" s="4">
-        <v>85.53</v>
+        <v>87.26000000000001</v>
       </c>
       <c r="D23" s="4">
-        <v>102.28</v>
+        <v>115.79</v>
       </c>
       <c r="E23" s="4">
-        <v>128.51</v>
+        <v>100.04</v>
       </c>
       <c r="F23" s="4">
-        <v>180.28</v>
+        <v>165.46</v>
       </c>
       <c r="G23" s="4">
-        <v>1152.47</v>
+        <v>1088.79</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -829,22 +829,22 @@
         <v>4</v>
       </c>
       <c r="B24" s="4">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C24" s="4">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="D24" s="4">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="E24" s="4">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="F24" s="4">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="G24" s="4">
-        <v>4015</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -852,22 +852,22 @@
         <v>5</v>
       </c>
       <c r="B25" s="4">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="C25" s="4">
-        <v>1303</v>
+        <v>326</v>
       </c>
       <c r="D25" s="4">
-        <v>1029</v>
+        <v>1012</v>
       </c>
       <c r="E25" s="4">
-        <v>1336</v>
+        <v>416</v>
       </c>
       <c r="F25" s="4">
-        <v>2147</v>
+        <v>1860</v>
       </c>
       <c r="G25" s="4">
-        <v>11207</v>
+        <v>9634</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -906,22 +906,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>122000</v>
+        <v>142000</v>
       </c>
       <c r="C30" s="3">
-        <v>165000</v>
+        <v>211000</v>
       </c>
       <c r="D30" s="3">
-        <v>260000</v>
+        <v>353000</v>
       </c>
       <c r="E30" s="3">
-        <v>392000</v>
+        <v>532000</v>
       </c>
       <c r="F30" s="3">
-        <v>373000</v>
+        <v>432000</v>
       </c>
       <c r="G30" s="3">
-        <v>251000</v>
+        <v>203000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -929,39 +929,37 @@
         <v>2</v>
       </c>
       <c r="B31" s="4">
-        <v>499.122176</v>
+        <v>580.911104</v>
       </c>
       <c r="C31" s="4">
-        <v>677.380096</v>
+        <v>866.123776</v>
       </c>
       <c r="D31" s="4">
-        <v>1063.256064</v>
+        <v>1447.03488</v>
       </c>
       <c r="E31" s="4">
-        <v>1607.467008</v>
+        <v>2177.892352</v>
       </c>
       <c r="F31" s="4">
-        <v>1527.775232</v>
+        <v>1767.899136</v>
       </c>
       <c r="G31" s="4">
-        <v>1028.653056</v>
+        <v>830.4721919999999</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="4">
-        <v>5.457020000000001</v>
-      </c>
+      <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4">
-        <v>15.41</v>
+        <v>10.99</v>
       </c>
       <c r="G32" s="4">
-        <v>83.54000000000001</v>
+        <v>101.95</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -969,22 +967,22 @@
         <v>4</v>
       </c>
       <c r="B33" s="4">
-        <v>6.496</v>
+        <v>5.856</v>
       </c>
       <c r="C33" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E33" s="4">
-        <v>11</v>
+        <v>9.152000000000001</v>
       </c>
       <c r="F33" s="4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G33" s="4">
-        <v>330</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -992,22 +990,22 @@
         <v>5</v>
       </c>
       <c r="B34" s="4">
-        <v>14.4</v>
+        <v>6.24</v>
       </c>
       <c r="C34" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D34" s="4">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E34" s="4">
-        <v>24</v>
+        <v>31.36</v>
       </c>
       <c r="F34" s="4">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G34" s="4">
-        <v>742</v>
+        <v>979</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1046,22 +1044,22 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>11800</v>
+        <v>13300</v>
       </c>
       <c r="C39" s="3">
-        <v>21100</v>
+        <v>18000</v>
       </c>
       <c r="D39" s="3">
-        <v>6390</v>
+        <v>25800</v>
       </c>
       <c r="E39" s="3">
-        <v>7620</v>
+        <v>32600</v>
       </c>
       <c r="F39" s="3">
-        <v>7772</v>
+        <v>33400</v>
       </c>
       <c r="G39" s="3">
-        <v>8255</v>
+        <v>35700</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1069,22 +1067,22 @@
         <v>2</v>
       </c>
       <c r="B40" s="4">
-        <v>1542.455296</v>
+        <v>1742.733312</v>
       </c>
       <c r="C40" s="4">
-        <v>2767.192064</v>
+        <v>2485.12512</v>
       </c>
       <c r="D40" s="4">
-        <v>837.812224</v>
+        <v>3376.41472</v>
       </c>
       <c r="E40" s="4">
-        <v>999.292928</v>
+        <v>4278.19008</v>
       </c>
       <c r="F40" s="4">
-        <v>1019.215872</v>
+        <v>4373.610496</v>
       </c>
       <c r="G40" s="4">
-        <v>1082.130432</v>
+        <v>4673.503232</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1092,22 +1090,22 @@
         <v>3</v>
       </c>
       <c r="B41" s="4">
-        <v>77.27</v>
+        <v>67.19</v>
       </c>
       <c r="C41" s="4">
-        <v>81.69</v>
+        <v>87.53</v>
       </c>
       <c r="D41" s="4">
-        <v>595.9299999999999</v>
+        <v>130.26</v>
       </c>
       <c r="E41" s="4">
-        <v>868.2</v>
+        <v>180.89</v>
       </c>
       <c r="F41" s="4">
-        <v>1647.09</v>
+        <v>382.45</v>
       </c>
       <c r="G41" s="4">
-        <v>3033.47</v>
+        <v>681.88</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1115,22 +1113,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="4">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="C42" s="4">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="D42" s="4">
-        <v>1926</v>
+        <v>469</v>
       </c>
       <c r="E42" s="4">
-        <v>3195</v>
+        <v>611</v>
       </c>
       <c r="F42" s="4">
-        <v>5669</v>
+        <v>1369</v>
       </c>
       <c r="G42" s="4">
-        <v>15664</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1138,22 +1136,22 @@
         <v>5</v>
       </c>
       <c r="B43" s="4">
-        <v>562</v>
+        <v>355</v>
       </c>
       <c r="C43" s="4">
-        <v>453</v>
+        <v>363</v>
       </c>
       <c r="D43" s="4">
-        <v>2343</v>
+        <v>611</v>
       </c>
       <c r="E43" s="4">
-        <v>4948</v>
+        <v>1221</v>
       </c>
       <c r="F43" s="4">
-        <v>15533</v>
+        <v>2540</v>
       </c>
       <c r="G43" s="4">
-        <v>28443</v>
+        <v>7046</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1192,22 +1190,22 @@
         <v>1</v>
       </c>
       <c r="B48" s="3">
-        <v>144000</v>
+        <v>426000</v>
       </c>
       <c r="C48" s="3">
-        <v>155000</v>
+        <v>537000</v>
       </c>
       <c r="D48" s="3">
-        <v>215000</v>
+        <v>819000</v>
       </c>
       <c r="E48" s="3">
-        <v>301000</v>
+        <v>895000</v>
       </c>
       <c r="F48" s="3">
-        <v>267000</v>
+        <v>986000</v>
       </c>
       <c r="G48" s="3">
-        <v>332000</v>
+        <v>995000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1215,22 +1213,22 @@
         <v>2</v>
       </c>
       <c r="B49" s="4">
-        <v>588.251136</v>
+        <v>1742.733312</v>
       </c>
       <c r="C49" s="4">
-        <v>636.485632</v>
+        <v>2199.912448</v>
       </c>
       <c r="D49" s="4">
-        <v>879.755264</v>
+        <v>3355.4432</v>
       </c>
       <c r="E49" s="4">
-        <v>1231.028224</v>
+        <v>3664.77312</v>
       </c>
       <c r="F49" s="4">
-        <v>1092.616192</v>
+        <v>4037.0176</v>
       </c>
       <c r="G49" s="4">
-        <v>1360.003072</v>
+        <v>4074.766336</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1238,22 +1236,22 @@
         <v>3</v>
       </c>
       <c r="B50" s="4">
-        <v>6.44061</v>
+        <v>2.06662</v>
       </c>
       <c r="C50" s="4">
-        <v>10.20723</v>
+        <v>3.07137</v>
       </c>
       <c r="D50" s="4">
-        <v>16.9717</v>
+        <v>4.45406</v>
       </c>
       <c r="E50" s="4">
-        <v>24.61053</v>
+        <v>6.818750000000001</v>
       </c>
       <c r="F50" s="4">
-        <v>47.83172</v>
+        <v>12.33315</v>
       </c>
       <c r="G50" s="4">
-        <v>88.0149</v>
+        <v>24.86924</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1261,22 +1259,22 @@
         <v>4</v>
       </c>
       <c r="B51" s="4">
-        <v>1.912</v>
+        <v>0.358</v>
       </c>
       <c r="C51" s="4">
-        <v>2.224</v>
+        <v>0.358</v>
       </c>
       <c r="D51" s="4">
-        <v>2.8</v>
+        <v>0.434</v>
       </c>
       <c r="E51" s="4">
-        <v>2.8</v>
+        <v>0.482</v>
       </c>
       <c r="F51" s="4">
-        <v>2.576</v>
+        <v>0.532</v>
       </c>
       <c r="G51" s="4">
-        <v>2.672</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1284,22 +1282,22 @@
         <v>5</v>
       </c>
       <c r="B52" s="4">
-        <v>101.888</v>
+        <v>66.048</v>
       </c>
       <c r="C52" s="4">
-        <v>120.32</v>
+        <v>116.224</v>
       </c>
       <c r="D52" s="4">
-        <v>407.552</v>
+        <v>230.4</v>
       </c>
       <c r="E52" s="4">
-        <v>1220.608</v>
+        <v>292.864</v>
       </c>
       <c r="F52" s="4">
-        <v>1662.976</v>
+        <v>309.248</v>
       </c>
       <c r="G52" s="4">
-        <v>2039.808</v>
+        <v>1073.152</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1338,22 +1336,22 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>6564</v>
+        <v>5361</v>
       </c>
       <c r="C57" s="3">
-        <v>8427</v>
+        <v>8291</v>
       </c>
       <c r="D57" s="3">
-        <v>9266</v>
+        <v>11100</v>
       </c>
       <c r="E57" s="3">
-        <v>12500</v>
+        <v>13200</v>
       </c>
       <c r="F57" s="3">
-        <v>13200</v>
+        <v>12300</v>
       </c>
       <c r="G57" s="3">
-        <v>12900</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1361,22 +1359,22 @@
         <v>2</v>
       </c>
       <c r="B58" s="4">
-        <v>860.880896</v>
+        <v>702.54592</v>
       </c>
       <c r="C58" s="4">
-        <v>1104.150528</v>
+        <v>1086.324736</v>
       </c>
       <c r="D58" s="4">
-        <v>1214.251008</v>
+        <v>1455.423488</v>
       </c>
       <c r="E58" s="4">
-        <v>1642.070016</v>
+        <v>1729.101824</v>
       </c>
       <c r="F58" s="4">
-        <v>1732.247552</v>
+        <v>1606.418432</v>
       </c>
       <c r="G58" s="4">
-        <v>1686.110208</v>
+        <v>1592.786944</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1384,22 +1382,22 @@
         <v>3</v>
       </c>
       <c r="B59" s="4">
-        <v>60.32</v>
+        <v>91.3</v>
       </c>
       <c r="C59" s="4">
-        <v>77.38</v>
+        <v>85.56999999999999</v>
       </c>
       <c r="D59" s="4">
-        <v>188</v>
+        <v>113.12</v>
       </c>
       <c r="E59" s="4">
-        <v>128.65</v>
+        <v>130.06</v>
       </c>
       <c r="F59" s="4">
-        <v>183.37</v>
+        <v>181.05</v>
       </c>
       <c r="G59" s="4">
-        <v>823.5700000000001</v>
+        <v>1017.82</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1407,22 +1405,22 @@
         <v>4</v>
       </c>
       <c r="B60" s="4">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C60" s="4">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D60" s="4">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E60" s="4">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="F60" s="4">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="G60" s="4">
-        <v>3359</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1430,22 +1428,22 @@
         <v>5</v>
       </c>
       <c r="B61" s="4">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="C61" s="4">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D61" s="4">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="E61" s="4">
-        <v>420</v>
+        <v>709</v>
       </c>
       <c r="F61" s="4">
-        <v>2114</v>
+        <v>2212</v>
       </c>
       <c r="G61" s="4">
-        <v>8291</v>
+        <v>8094</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1484,22 +1482,22 @@
         <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>137000</v>
+        <v>120000</v>
       </c>
       <c r="C66" s="3">
-        <v>158000</v>
+        <v>163000</v>
       </c>
       <c r="D66" s="3">
-        <v>269000</v>
+        <v>279000</v>
       </c>
       <c r="E66" s="3">
-        <v>334000</v>
+        <v>340000</v>
       </c>
       <c r="F66" s="3">
-        <v>377000</v>
+        <v>356000</v>
       </c>
       <c r="G66" s="3">
-        <v>239000</v>
+        <v>215000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1507,22 +1505,22 @@
         <v>2</v>
       </c>
       <c r="B67" s="4">
-        <v>562.036736</v>
+        <v>489.684992</v>
       </c>
       <c r="C67" s="4">
-        <v>644.87424</v>
+        <v>665.84576</v>
       </c>
       <c r="D67" s="4">
-        <v>1102.053376</v>
+        <v>1145.044992</v>
       </c>
       <c r="E67" s="4">
-        <v>1367.343104</v>
+        <v>1394.60608</v>
       </c>
       <c r="F67" s="4">
-        <v>1544.552448</v>
+        <v>1458.569216</v>
       </c>
       <c r="G67" s="4">
-        <v>980.41856</v>
+        <v>879.755264</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1532,14 +1530,12 @@
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="4">
-        <v>12.26</v>
-      </c>
+      <c r="E68" s="4"/>
       <c r="F68" s="4">
-        <v>10.03</v>
+        <v>11.86</v>
       </c>
       <c r="G68" s="4">
-        <v>87.39</v>
+        <v>99.77</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1547,22 +1543,22 @@
         <v>4</v>
       </c>
       <c r="B69" s="4">
-        <v>5.536</v>
+        <v>5.344</v>
       </c>
       <c r="C69" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D69" s="4">
         <v>12</v>
       </c>
       <c r="E69" s="4">
-        <v>24</v>
+        <v>8.896000000000001</v>
       </c>
       <c r="F69" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G69" s="4">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1570,22 +1566,22 @@
         <v>5</v>
       </c>
       <c r="B70" s="4">
-        <v>23.68</v>
+        <v>5.792</v>
       </c>
       <c r="C70" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D70" s="4">
         <v>15</v>
       </c>
       <c r="E70" s="4">
-        <v>32</v>
+        <v>23.424</v>
       </c>
       <c r="F70" s="4">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="G70" s="4">
-        <v>848</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/rfuse_summary.xlsx
+++ b/rfuse/rfuse_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1009</v>
+        <v>7198</v>
       </c>
       <c r="C3" s="3">
-        <v>2035</v>
+        <v>14400</v>
       </c>
       <c r="D3" s="3">
-        <v>3996</v>
+        <v>21700</v>
       </c>
       <c r="E3" s="3">
-        <v>7281</v>
+        <v>23700</v>
       </c>
       <c r="F3" s="3">
-        <v>10200</v>
+        <v>26100</v>
       </c>
       <c r="G3" s="3">
-        <v>14300</v>
+        <v>25900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>4514</v>
+        <v>15600</v>
       </c>
       <c r="C8" s="3">
-        <v>61200</v>
+        <v>41000</v>
       </c>
       <c r="D8" s="3">
-        <v>16400</v>
+        <v>81600</v>
       </c>
       <c r="E8" s="3">
-        <v>156000</v>
+        <v>144000</v>
       </c>
       <c r="F8" s="3">
-        <v>187000</v>
+        <v>180000</v>
       </c>
       <c r="G8" s="3">
-        <v>203000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>8605</v>
+        <v>4015</v>
       </c>
       <c r="C13" s="3">
-        <v>13300</v>
+        <v>5128</v>
       </c>
       <c r="D13" s="3">
-        <v>16400</v>
+        <v>5496</v>
       </c>
       <c r="E13" s="3">
-        <v>18700</v>
+        <v>5955</v>
       </c>
       <c r="F13" s="3">
-        <v>16000</v>
+        <v>6089</v>
       </c>
       <c r="G13" s="3">
-        <v>19800</v>
+        <v>4773</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>155000</v>
+        <v>152000</v>
       </c>
       <c r="C18" s="3">
-        <v>219000</v>
+        <v>265000</v>
       </c>
       <c r="D18" s="3">
-        <v>329000</v>
+        <v>368000</v>
       </c>
       <c r="E18" s="3">
-        <v>408000</v>
+        <v>125000</v>
       </c>
       <c r="F18" s="3">
-        <v>374000</v>
+        <v>139000</v>
       </c>
       <c r="G18" s="3">
-        <v>231000</v>
+        <v>129000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>19700</v>
+        <v>3893</v>
       </c>
       <c r="C23" s="3">
-        <v>3961</v>
+        <v>4641</v>
       </c>
       <c r="D23" s="3">
-        <v>8000</v>
+        <v>12400</v>
       </c>
       <c r="E23" s="3">
-        <v>5785</v>
+        <v>7434</v>
       </c>
       <c r="F23" s="3">
-        <v>6535</v>
+        <v>11300</v>
       </c>
       <c r="G23" s="3">
-        <v>9089</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>146000</v>
+        <v>144000</v>
       </c>
       <c r="C28" s="3">
-        <v>173000</v>
+        <v>188000</v>
       </c>
       <c r="D28" s="3">
-        <v>206000</v>
+        <v>394000</v>
       </c>
       <c r="E28" s="3">
-        <v>239000</v>
+        <v>240000</v>
       </c>
       <c r="F28" s="3">
-        <v>219000</v>
+        <v>689000</v>
       </c>
       <c r="G28" s="3">
-        <v>378000</v>
+        <v>468000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>5278</v>
+        <v>2890</v>
       </c>
       <c r="C33" s="3">
-        <v>9183</v>
+        <v>3130</v>
       </c>
       <c r="D33" s="3">
-        <v>11300</v>
+        <v>3459</v>
       </c>
       <c r="E33" s="3">
-        <v>12600</v>
+        <v>3750</v>
       </c>
       <c r="F33" s="3">
-        <v>12800</v>
+        <v>3867</v>
       </c>
       <c r="G33" s="3">
-        <v>11700</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>142000</v>
+        <v>58900</v>
       </c>
       <c r="C38" s="3">
-        <v>215000</v>
+        <v>73500</v>
       </c>
       <c r="D38" s="3">
-        <v>238000</v>
+        <v>78500</v>
       </c>
       <c r="E38" s="3">
-        <v>351000</v>
+        <v>85800</v>
       </c>
       <c r="F38" s="3">
-        <v>384000</v>
+        <v>99900</v>
       </c>
       <c r="G38" s="3">
-        <v>248000</v>
+        <v>112000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/rfuse_summary.xlsx
+++ b/rfuse/rfuse_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>7198</v>
+        <v>974</v>
       </c>
       <c r="C3" s="3">
-        <v>14400</v>
+        <v>1889</v>
       </c>
       <c r="D3" s="3">
-        <v>21700</v>
+        <v>4404</v>
       </c>
       <c r="E3" s="3">
-        <v>23700</v>
+        <v>7656</v>
       </c>
       <c r="F3" s="3">
-        <v>26100</v>
+        <v>9277</v>
       </c>
       <c r="G3" s="3">
-        <v>25900</v>
+        <v>15900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>15600</v>
+        <v>8626</v>
       </c>
       <c r="C8" s="3">
-        <v>41000</v>
+        <v>14300</v>
       </c>
       <c r="D8" s="3">
-        <v>81600</v>
+        <v>32200</v>
       </c>
       <c r="E8" s="3">
-        <v>144000</v>
+        <v>54900</v>
       </c>
       <c r="F8" s="3">
-        <v>180000</v>
+        <v>95800</v>
       </c>
       <c r="G8" s="3">
-        <v>180000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>4015</v>
+        <v>7236</v>
       </c>
       <c r="C13" s="3">
-        <v>5128</v>
+        <v>13200</v>
       </c>
       <c r="D13" s="3">
-        <v>5496</v>
+        <v>13200</v>
       </c>
       <c r="E13" s="3">
-        <v>5955</v>
+        <v>17300</v>
       </c>
       <c r="F13" s="3">
-        <v>6089</v>
+        <v>17500</v>
       </c>
       <c r="G13" s="3">
-        <v>4773</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>152000</v>
+        <v>143000</v>
       </c>
       <c r="C18" s="3">
-        <v>265000</v>
+        <v>167000</v>
       </c>
       <c r="D18" s="3">
-        <v>368000</v>
+        <v>323000</v>
       </c>
       <c r="E18" s="3">
-        <v>125000</v>
+        <v>416000</v>
       </c>
       <c r="F18" s="3">
-        <v>139000</v>
+        <v>384000</v>
       </c>
       <c r="G18" s="3">
-        <v>129000</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>3893</v>
+        <v>18100</v>
       </c>
       <c r="C23" s="3">
-        <v>4641</v>
+        <v>4496</v>
       </c>
       <c r="D23" s="3">
-        <v>12400</v>
+        <v>5764</v>
       </c>
       <c r="E23" s="3">
-        <v>7434</v>
+        <v>7571</v>
       </c>
       <c r="F23" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="G23" s="3">
-        <v>15200</v>
+        <v>6858</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>144000</v>
+        <v>136000</v>
       </c>
       <c r="C28" s="3">
+        <v>153000</v>
+      </c>
+      <c r="D28" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E28" s="3">
         <v>188000</v>
       </c>
-      <c r="D28" s="3">
-        <v>394000</v>
-      </c>
-      <c r="E28" s="3">
-        <v>240000</v>
-      </c>
       <c r="F28" s="3">
-        <v>689000</v>
+        <v>616000</v>
       </c>
       <c r="G28" s="3">
-        <v>468000</v>
+        <v>237000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>2890</v>
+        <v>7641</v>
       </c>
       <c r="C33" s="3">
-        <v>3130</v>
+        <v>9416</v>
       </c>
       <c r="D33" s="3">
-        <v>3459</v>
+        <v>11900</v>
       </c>
       <c r="E33" s="3">
-        <v>3750</v>
+        <v>13300</v>
       </c>
       <c r="F33" s="3">
-        <v>3867</v>
+        <v>13400</v>
       </c>
       <c r="G33" s="3">
-        <v>3880</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>58900</v>
+        <v>132000</v>
       </c>
       <c r="C38" s="3">
-        <v>73500</v>
+        <v>187000</v>
       </c>
       <c r="D38" s="3">
-        <v>78500</v>
+        <v>297000</v>
       </c>
       <c r="E38" s="3">
-        <v>85800</v>
+        <v>354000</v>
       </c>
       <c r="F38" s="3">
-        <v>99900</v>
+        <v>366000</v>
       </c>
       <c r="G38" s="3">
-        <v>112000</v>
+        <v>296000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/rfuse_summary.xlsx
+++ b/rfuse/rfuse_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C3" s="3">
-        <v>1889</v>
+        <v>1962</v>
       </c>
       <c r="D3" s="3">
-        <v>4404</v>
+        <v>3711</v>
       </c>
       <c r="E3" s="3">
-        <v>7656</v>
+        <v>8537</v>
       </c>
       <c r="F3" s="3">
-        <v>9277</v>
+        <v>12800</v>
       </c>
       <c r="G3" s="3">
-        <v>15900</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>8626</v>
+        <v>6972</v>
       </c>
       <c r="C8" s="3">
-        <v>14300</v>
+        <v>13800</v>
       </c>
       <c r="D8" s="3">
-        <v>32200</v>
+        <v>28100</v>
       </c>
       <c r="E8" s="3">
-        <v>54900</v>
+        <v>62900</v>
       </c>
       <c r="F8" s="3">
-        <v>95800</v>
+        <v>102000</v>
       </c>
       <c r="G8" s="3">
-        <v>120000</v>
+        <v>158000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>7236</v>
+        <v>7613</v>
       </c>
       <c r="C13" s="3">
-        <v>13200</v>
+        <v>10800</v>
       </c>
       <c r="D13" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="E13" s="3">
-        <v>17300</v>
+        <v>13500</v>
       </c>
       <c r="F13" s="3">
-        <v>17500</v>
+        <v>12200</v>
       </c>
       <c r="G13" s="3">
-        <v>14400</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>143000</v>
+        <v>129000</v>
       </c>
       <c r="C18" s="3">
-        <v>167000</v>
+        <v>179000</v>
       </c>
       <c r="D18" s="3">
-        <v>323000</v>
+        <v>199000</v>
       </c>
       <c r="E18" s="3">
-        <v>416000</v>
+        <v>203000</v>
       </c>
       <c r="F18" s="3">
-        <v>384000</v>
+        <v>178000</v>
       </c>
       <c r="G18" s="3">
-        <v>216000</v>
+        <v>149000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>18100</v>
+        <v>3820</v>
       </c>
       <c r="C23" s="3">
-        <v>4496</v>
+        <v>3305</v>
       </c>
       <c r="D23" s="3">
-        <v>5764</v>
+        <v>6787</v>
       </c>
       <c r="E23" s="3">
-        <v>7571</v>
+        <v>7454</v>
       </c>
       <c r="F23" s="3">
-        <v>11200</v>
+        <v>10400</v>
       </c>
       <c r="G23" s="3">
-        <v>6858</v>
+        <v>7043</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>136000</v>
+        <v>73600</v>
       </c>
       <c r="C28" s="3">
         <v>153000</v>
       </c>
       <c r="D28" s="3">
-        <v>247000</v>
+        <v>239000</v>
       </c>
       <c r="E28" s="3">
-        <v>188000</v>
+        <v>262000</v>
       </c>
       <c r="F28" s="3">
-        <v>616000</v>
+        <v>348000</v>
       </c>
       <c r="G28" s="3">
-        <v>237000</v>
+        <v>236000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>7641</v>
+        <v>6224</v>
       </c>
       <c r="C33" s="3">
-        <v>9416</v>
+        <v>8551</v>
       </c>
       <c r="D33" s="3">
-        <v>11900</v>
+        <v>8943</v>
       </c>
       <c r="E33" s="3">
-        <v>13300</v>
+        <v>9959</v>
       </c>
       <c r="F33" s="3">
-        <v>13400</v>
+        <v>9617</v>
       </c>
       <c r="G33" s="3">
-        <v>13100</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>132000</v>
+        <v>131000</v>
       </c>
       <c r="C38" s="3">
-        <v>187000</v>
+        <v>167000</v>
       </c>
       <c r="D38" s="3">
-        <v>297000</v>
+        <v>178000</v>
       </c>
       <c r="E38" s="3">
-        <v>354000</v>
+        <v>193000</v>
       </c>
       <c r="F38" s="3">
-        <v>366000</v>
+        <v>189000</v>
       </c>
       <c r="G38" s="3">
-        <v>296000</v>
+        <v>176000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/rfuse_summary.xlsx
+++ b/rfuse/rfuse_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>972</v>
+        <v>3531</v>
       </c>
       <c r="C3" s="3">
-        <v>1962</v>
+        <v>9437</v>
       </c>
       <c r="D3" s="3">
-        <v>3711</v>
+        <v>19000</v>
       </c>
       <c r="E3" s="3">
-        <v>8537</v>
+        <v>26000</v>
       </c>
       <c r="F3" s="3">
-        <v>12800</v>
+        <v>32500</v>
       </c>
       <c r="G3" s="3">
-        <v>12400</v>
+        <v>26300</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>6972</v>
+        <v>4020</v>
       </c>
       <c r="C8" s="3">
-        <v>13800</v>
+        <v>8171</v>
       </c>
       <c r="D8" s="3">
-        <v>28100</v>
+        <v>18600</v>
       </c>
       <c r="E8" s="3">
-        <v>62900</v>
+        <v>30300</v>
       </c>
       <c r="F8" s="3">
-        <v>102000</v>
+        <v>53700</v>
       </c>
       <c r="G8" s="3">
-        <v>158000</v>
+        <v>99100</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>7613</v>
+        <v>7111</v>
       </c>
       <c r="C13" s="3">
-        <v>10800</v>
+        <v>10200</v>
       </c>
       <c r="D13" s="3">
-        <v>12800</v>
+        <v>11500</v>
       </c>
       <c r="E13" s="3">
-        <v>13500</v>
+        <v>11700</v>
       </c>
       <c r="F13" s="3">
-        <v>12200</v>
+        <v>12500</v>
       </c>
       <c r="G13" s="3">
-        <v>12500</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>129000</v>
+        <v>141000</v>
       </c>
       <c r="C18" s="3">
-        <v>179000</v>
+        <v>165000</v>
       </c>
       <c r="D18" s="3">
-        <v>199000</v>
+        <v>210000</v>
       </c>
       <c r="E18" s="3">
-        <v>203000</v>
+        <v>234000</v>
       </c>
       <c r="F18" s="3">
-        <v>178000</v>
+        <v>194000</v>
       </c>
       <c r="G18" s="3">
-        <v>149000</v>
+        <v>147000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>3820</v>
+        <v>3368</v>
       </c>
       <c r="C23" s="3">
-        <v>3305</v>
+        <v>4266</v>
       </c>
       <c r="D23" s="3">
-        <v>6787</v>
+        <v>5785</v>
       </c>
       <c r="E23" s="3">
-        <v>7454</v>
+        <v>9204</v>
       </c>
       <c r="F23" s="3">
-        <v>10400</v>
+        <v>9492</v>
       </c>
       <c r="G23" s="3">
-        <v>7043</v>
+        <v>9637</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>73600</v>
+        <v>109000</v>
       </c>
       <c r="C28" s="3">
-        <v>153000</v>
+        <v>133000</v>
       </c>
       <c r="D28" s="3">
-        <v>239000</v>
+        <v>200000</v>
       </c>
       <c r="E28" s="3">
-        <v>262000</v>
+        <v>268000</v>
       </c>
       <c r="F28" s="3">
-        <v>348000</v>
+        <v>301000</v>
       </c>
       <c r="G28" s="3">
-        <v>236000</v>
+        <v>471000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>6224</v>
+        <v>5720</v>
       </c>
       <c r="C33" s="3">
-        <v>8551</v>
+        <v>7447</v>
       </c>
       <c r="D33" s="3">
-        <v>8943</v>
+        <v>9002</v>
       </c>
       <c r="E33" s="3">
-        <v>9959</v>
+        <v>9834</v>
       </c>
       <c r="F33" s="3">
-        <v>9617</v>
+        <v>9220</v>
       </c>
       <c r="G33" s="3">
-        <v>11000</v>
+        <v>9049</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>131000</v>
+        <v>120000</v>
       </c>
       <c r="C38" s="3">
-        <v>167000</v>
+        <v>172000</v>
       </c>
       <c r="D38" s="3">
-        <v>178000</v>
+        <v>172000</v>
       </c>
       <c r="E38" s="3">
-        <v>193000</v>
+        <v>201000</v>
       </c>
       <c r="F38" s="3">
-        <v>189000</v>
+        <v>184000</v>
       </c>
       <c r="G38" s="3">
-        <v>176000</v>
+        <v>161000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/rfuse_summary.xlsx
+++ b/rfuse/rfuse_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>3531</v>
+        <v>970</v>
       </c>
       <c r="C3" s="3">
-        <v>9437</v>
+        <v>1802</v>
       </c>
       <c r="D3" s="3">
-        <v>19000</v>
+        <v>3653</v>
       </c>
       <c r="E3" s="3">
-        <v>26000</v>
+        <v>6742</v>
       </c>
       <c r="F3" s="3">
-        <v>32500</v>
+        <v>12200</v>
       </c>
       <c r="G3" s="3">
-        <v>26300</v>
+        <v>22800</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>4020</v>
+        <v>3543</v>
       </c>
       <c r="C8" s="3">
-        <v>8171</v>
+        <v>8316</v>
       </c>
       <c r="D8" s="3">
-        <v>18600</v>
+        <v>16500</v>
       </c>
       <c r="E8" s="3">
-        <v>30300</v>
+        <v>32500</v>
       </c>
       <c r="F8" s="3">
-        <v>53700</v>
+        <v>59300</v>
       </c>
       <c r="G8" s="3">
-        <v>99100</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -561,19 +561,19 @@
         <v>7111</v>
       </c>
       <c r="C13" s="3">
-        <v>10200</v>
+        <v>9660</v>
       </c>
       <c r="D13" s="3">
-        <v>11500</v>
+        <v>11200</v>
       </c>
       <c r="E13" s="3">
-        <v>11700</v>
+        <v>12600</v>
       </c>
       <c r="F13" s="3">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="G13" s="3">
-        <v>11500</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>141000</v>
+        <v>128000</v>
       </c>
       <c r="C18" s="3">
-        <v>165000</v>
+        <v>196000</v>
       </c>
       <c r="D18" s="3">
-        <v>210000</v>
+        <v>221000</v>
       </c>
       <c r="E18" s="3">
-        <v>234000</v>
+        <v>237000</v>
       </c>
       <c r="F18" s="3">
-        <v>194000</v>
+        <v>181000</v>
       </c>
       <c r="G18" s="3">
-        <v>147000</v>
+        <v>146000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>3368</v>
+        <v>3631</v>
       </c>
       <c r="C23" s="3">
-        <v>4266</v>
+        <v>4551</v>
       </c>
       <c r="D23" s="3">
-        <v>5785</v>
+        <v>6638</v>
       </c>
       <c r="E23" s="3">
-        <v>9204</v>
+        <v>9405</v>
       </c>
       <c r="F23" s="3">
-        <v>9492</v>
+        <v>9887</v>
       </c>
       <c r="G23" s="3">
-        <v>9637</v>
+        <v>9617</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>109000</v>
+        <v>105000</v>
       </c>
       <c r="C28" s="3">
-        <v>133000</v>
+        <v>112000</v>
       </c>
       <c r="D28" s="3">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="E28" s="3">
-        <v>268000</v>
+        <v>282000</v>
       </c>
       <c r="F28" s="3">
-        <v>301000</v>
+        <v>295000</v>
       </c>
       <c r="G28" s="3">
-        <v>471000</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>5720</v>
+        <v>5389</v>
       </c>
       <c r="C33" s="3">
-        <v>7447</v>
+        <v>7787</v>
       </c>
       <c r="D33" s="3">
-        <v>9002</v>
+        <v>8962</v>
       </c>
       <c r="E33" s="3">
-        <v>9834</v>
+        <v>9671</v>
       </c>
       <c r="F33" s="3">
-        <v>9220</v>
+        <v>9153</v>
       </c>
       <c r="G33" s="3">
-        <v>9049</v>
+        <v>8689</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>120000</v>
+        <v>114000</v>
       </c>
       <c r="C38" s="3">
-        <v>172000</v>
+        <v>158000</v>
       </c>
       <c r="D38" s="3">
-        <v>172000</v>
+        <v>178000</v>
       </c>
       <c r="E38" s="3">
-        <v>201000</v>
+        <v>199000</v>
       </c>
       <c r="F38" s="3">
-        <v>184000</v>
+        <v>171000</v>
       </c>
       <c r="G38" s="3">
-        <v>161000</v>
+        <v>158000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/rfuse_summary.xlsx
+++ b/rfuse/rfuse_summary.xlsx
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>5333</v>
+        <v>5389</v>
       </c>
       <c r="C3" s="3">
-        <v>9615</v>
+        <v>10200</v>
       </c>
       <c r="D3" s="3">
-        <v>17100</v>
+        <v>17000</v>
       </c>
       <c r="E3" s="3">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="F3" s="3">
-        <v>24200</v>
+        <v>25700</v>
       </c>
       <c r="G3" s="3">
-        <v>21300</v>
+        <v>23700</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>699.4001919999999</v>
+        <v>706.740224</v>
       </c>
       <c r="C4" s="4">
-        <v>1260.388352</v>
+        <v>1335.885824</v>
       </c>
       <c r="D4" s="4">
-        <v>2246.049792</v>
+        <v>2355.101696</v>
       </c>
       <c r="E4" s="4">
-        <v>3205.496832</v>
+        <v>3278.897152</v>
       </c>
       <c r="F4" s="4">
-        <v>3177.18528</v>
+        <v>3371.17184</v>
       </c>
       <c r="G4" s="4">
-        <v>2789.21216</v>
+        <v>3101.687808</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -514,22 +514,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>186.87</v>
+        <v>184.72</v>
       </c>
       <c r="C5" s="4">
-        <v>196.6</v>
+        <v>195.48</v>
       </c>
       <c r="D5" s="4">
-        <v>225.29</v>
+        <v>217.99</v>
       </c>
       <c r="E5" s="4">
-        <v>314.86</v>
+        <v>302.36</v>
       </c>
       <c r="F5" s="4">
-        <v>646.47</v>
+        <v>576.35</v>
       </c>
       <c r="G5" s="4">
-        <v>1475.04</v>
+        <v>1321.06</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -537,22 +537,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
+        <v>285</v>
+      </c>
+      <c r="C6" s="4">
         <v>310</v>
       </c>
-      <c r="C6" s="4">
-        <v>351</v>
-      </c>
       <c r="D6" s="4">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="E6" s="4">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="F6" s="4">
-        <v>1287</v>
+        <v>1254</v>
       </c>
       <c r="G6" s="4">
-        <v>2999</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -560,22 +560,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="C7" s="4">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="D7" s="4">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="E7" s="4">
-        <v>709</v>
+        <v>644</v>
       </c>
       <c r="F7" s="4">
-        <v>1500</v>
+        <v>1549</v>
       </c>
       <c r="G7" s="4">
-        <v>3720</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -614,22 +614,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>25700</v>
+        <v>28100</v>
       </c>
       <c r="C12" s="3">
-        <v>51600</v>
+        <v>56300</v>
       </c>
       <c r="D12" s="3">
-        <v>100000</v>
+        <v>108000</v>
       </c>
       <c r="E12" s="3">
-        <v>189000</v>
+        <v>204000</v>
       </c>
       <c r="F12" s="3">
-        <v>335000</v>
+        <v>367000</v>
       </c>
       <c r="G12" s="3">
-        <v>503000</v>
+        <v>593000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -637,22 +637,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>104.8576</v>
+        <v>115.34336</v>
       </c>
       <c r="C13" s="4">
-        <v>210.763776</v>
+        <v>230.68672</v>
       </c>
       <c r="D13" s="4">
-        <v>411.041792</v>
+        <v>441.450496</v>
       </c>
       <c r="E13" s="4">
-        <v>773.8490880000001</v>
+        <v>835.715072</v>
       </c>
       <c r="F13" s="4">
-        <v>1371.537408</v>
+        <v>1501.560832</v>
       </c>
       <c r="G13" s="4">
-        <v>2060.45184</v>
+        <v>2427.45344</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -660,22 +660,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>38.61556</v>
+        <v>35.04544000000001</v>
       </c>
       <c r="C14" s="4">
-        <v>37.99648000000001</v>
+        <v>34.98395</v>
       </c>
       <c r="D14" s="4">
-        <v>39.25501000000001</v>
+        <v>36.42235</v>
       </c>
       <c r="E14" s="4">
-        <v>41.65730000000001</v>
+        <v>38.04692</v>
       </c>
       <c r="F14" s="4">
-        <v>46.75563</v>
+        <v>42.49194000000001</v>
       </c>
       <c r="G14" s="4">
-        <v>62.08248</v>
+        <v>52.28419</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -683,22 +683,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>72.19200000000001</v>
+        <v>66.048</v>
       </c>
       <c r="C15" s="4">
-        <v>69.12</v>
+        <v>62.208</v>
       </c>
       <c r="D15" s="4">
-        <v>75.264</v>
+        <v>68.096</v>
       </c>
       <c r="E15" s="4">
-        <v>84.48</v>
+        <v>77.312</v>
       </c>
       <c r="F15" s="4">
-        <v>98.816</v>
+        <v>91.648</v>
       </c>
       <c r="G15" s="4">
-        <v>134.144</v>
+        <v>118.272</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -706,22 +706,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="4">
+        <v>89.60000000000001</v>
+      </c>
+      <c r="C16" s="4">
+        <v>90.624</v>
+      </c>
+      <c r="D16" s="4">
         <v>94.72</v>
       </c>
-      <c r="C16" s="4">
-        <v>96.768</v>
-      </c>
-      <c r="D16" s="4">
-        <v>99.84</v>
-      </c>
       <c r="E16" s="4">
-        <v>108.032</v>
+        <v>100.864</v>
       </c>
       <c r="F16" s="4">
-        <v>126.464</v>
+        <v>118.272</v>
       </c>
       <c r="G16" s="4">
-        <v>177.152</v>
+        <v>160.768</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -760,22 +760,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>7111</v>
+        <v>4581</v>
       </c>
       <c r="C21" s="3">
-        <v>11500</v>
+        <v>9287</v>
       </c>
       <c r="D21" s="3">
-        <v>17500</v>
+        <v>13300</v>
       </c>
       <c r="E21" s="3">
-        <v>20100</v>
+        <v>14800</v>
       </c>
       <c r="F21" s="3">
-        <v>19500</v>
+        <v>14300</v>
       </c>
       <c r="G21" s="3">
-        <v>15200</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -783,22 +783,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>932.184064</v>
+        <v>600.8340480000001</v>
       </c>
       <c r="C22" s="4">
-        <v>1507.852288</v>
+        <v>1217.396736</v>
       </c>
       <c r="D22" s="4">
-        <v>2294.284288</v>
+        <v>1745.87904</v>
       </c>
       <c r="E22" s="4">
-        <v>2638.217216</v>
+        <v>1945.10848</v>
       </c>
       <c r="F22" s="4">
-        <v>2556.428288</v>
+        <v>1872.756736</v>
       </c>
       <c r="G22" s="4">
-        <v>1987.05152</v>
+        <v>2123.3664</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -806,22 +806,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>105.81</v>
+        <v>144.73</v>
       </c>
       <c r="C23" s="4">
-        <v>109.74</v>
+        <v>154.93</v>
       </c>
       <c r="D23" s="4">
-        <v>123.61</v>
+        <v>198.31</v>
       </c>
       <c r="E23" s="4">
-        <v>186.93</v>
+        <v>363.66</v>
       </c>
       <c r="F23" s="4">
-        <v>464.54</v>
+        <v>799.97</v>
       </c>
       <c r="G23" s="4">
-        <v>1417.81</v>
+        <v>1433.95</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -829,22 +829,22 @@
         <v>4</v>
       </c>
       <c r="B24" s="4">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="C24" s="4">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="D24" s="4">
-        <v>184</v>
+        <v>273</v>
       </c>
       <c r="E24" s="4">
-        <v>289</v>
+        <v>545</v>
       </c>
       <c r="F24" s="4">
-        <v>963</v>
+        <v>1434</v>
       </c>
       <c r="G24" s="4">
-        <v>3621</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -852,22 +852,22 @@
         <v>5</v>
       </c>
       <c r="B25" s="4">
-        <v>167</v>
+        <v>355</v>
       </c>
       <c r="C25" s="4">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="D25" s="4">
-        <v>221</v>
+        <v>338</v>
       </c>
       <c r="E25" s="4">
-        <v>355</v>
+        <v>644</v>
       </c>
       <c r="F25" s="4">
-        <v>1516</v>
+        <v>1909</v>
       </c>
       <c r="G25" s="4">
-        <v>4555</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -906,22 +906,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>91300</v>
+        <v>74700</v>
       </c>
       <c r="C30" s="3">
-        <v>147000</v>
+        <v>137000</v>
       </c>
       <c r="D30" s="3">
-        <v>278000</v>
+        <v>224000</v>
       </c>
       <c r="E30" s="3">
-        <v>425000</v>
+        <v>349000</v>
       </c>
       <c r="F30" s="3">
-        <v>459000</v>
+        <v>384000</v>
       </c>
       <c r="G30" s="3">
-        <v>379000</v>
+        <v>334000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -929,22 +929,22 @@
         <v>2</v>
       </c>
       <c r="B31" s="4">
-        <v>374.341632</v>
+        <v>306.184192</v>
       </c>
       <c r="C31" s="4">
-        <v>601.882624</v>
+        <v>559.939584</v>
       </c>
       <c r="D31" s="4">
-        <v>1137.70496</v>
+        <v>916.455424</v>
       </c>
       <c r="E31" s="4">
-        <v>1740.63616</v>
+        <v>1429.209088</v>
       </c>
       <c r="F31" s="4">
-        <v>1882.19392</v>
+        <v>1573.912576</v>
       </c>
       <c r="G31" s="4">
-        <v>1552.941056</v>
+        <v>1369.440256</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -952,22 +952,22 @@
         <v>3</v>
       </c>
       <c r="B32" s="4">
-        <v>9.121370000000001</v>
+        <v>10.5498</v>
       </c>
       <c r="C32" s="4">
-        <v>11.16</v>
+        <v>11.47892</v>
       </c>
       <c r="D32" s="4">
-        <v>10.49798</v>
+        <v>12.43</v>
       </c>
       <c r="E32" s="4">
-        <v>11.54</v>
+        <v>14.47</v>
       </c>
       <c r="F32" s="4">
-        <v>15.64</v>
+        <v>27.53</v>
       </c>
       <c r="G32" s="4">
-        <v>46.21</v>
+        <v>62.69</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -975,19 +975,19 @@
         <v>4</v>
       </c>
       <c r="B33" s="4">
-        <v>10.944</v>
+        <v>12.864</v>
       </c>
       <c r="C33" s="4">
-        <v>13.888</v>
+        <v>14.144</v>
       </c>
       <c r="D33" s="4">
-        <v>13.376</v>
+        <v>15.936</v>
       </c>
       <c r="E33" s="4">
-        <v>16.32</v>
+        <v>20.352</v>
       </c>
       <c r="F33" s="4">
-        <v>21.888</v>
+        <v>38</v>
       </c>
       <c r="G33" s="4">
         <v>69</v>
@@ -998,22 +998,22 @@
         <v>5</v>
       </c>
       <c r="B34" s="4">
-        <v>12.608</v>
+        <v>15.296</v>
       </c>
       <c r="C34" s="4">
-        <v>16.32</v>
+        <v>16.512</v>
       </c>
       <c r="D34" s="4">
-        <v>15.68</v>
+        <v>20.608</v>
       </c>
       <c r="E34" s="4">
-        <v>20.352</v>
+        <v>25.984</v>
       </c>
       <c r="F34" s="4">
-        <v>29.568</v>
+        <v>51</v>
       </c>
       <c r="G34" s="4">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1052,22 +1052,22 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>10300</v>
+        <v>4571</v>
       </c>
       <c r="C39" s="3">
-        <v>9846</v>
+        <v>9394</v>
       </c>
       <c r="D39" s="3">
-        <v>15900</v>
+        <v>15800</v>
       </c>
       <c r="E39" s="3">
-        <v>13000</v>
+        <v>18400</v>
       </c>
       <c r="F39" s="3">
         <v>12700</v>
       </c>
       <c r="G39" s="3">
-        <v>10900</v>
+        <v>9753</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1075,22 +1075,22 @@
         <v>2</v>
       </c>
       <c r="B40" s="4">
-        <v>1355.808768</v>
+        <v>598.736896</v>
       </c>
       <c r="C40" s="4">
-        <v>1290.797056</v>
+        <v>1231.028224</v>
       </c>
       <c r="D40" s="4">
-        <v>2088.763392</v>
+        <v>2064.646144</v>
       </c>
       <c r="E40" s="4">
-        <v>1831.862272</v>
+        <v>2410.676224</v>
       </c>
       <c r="F40" s="4">
-        <v>1665.138688</v>
+        <v>1668.284416</v>
       </c>
       <c r="G40" s="4">
-        <v>1430.257664</v>
+        <v>1278.214144</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1098,22 +1098,22 @@
         <v>3</v>
       </c>
       <c r="B41" s="4">
-        <v>95.94</v>
+        <v>217.78</v>
       </c>
       <c r="C41" s="4">
-        <v>160.39</v>
+        <v>193.15</v>
       </c>
       <c r="D41" s="4">
-        <v>230.78</v>
+        <v>230.83</v>
       </c>
       <c r="E41" s="4">
-        <v>556.4299999999999</v>
+        <v>418.44</v>
       </c>
       <c r="F41" s="4">
-        <v>1231.82</v>
+        <v>1221.22</v>
       </c>
       <c r="G41" s="4">
-        <v>2858.32</v>
+        <v>3163.53</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1121,22 +1121,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="4">
-        <v>225</v>
+        <v>334</v>
       </c>
       <c r="C42" s="4">
-        <v>310</v>
+        <v>412</v>
       </c>
       <c r="D42" s="4">
-        <v>619</v>
+        <v>586</v>
       </c>
       <c r="E42" s="4">
-        <v>1434</v>
+        <v>1106</v>
       </c>
       <c r="F42" s="4">
-        <v>3621</v>
+        <v>3490</v>
       </c>
       <c r="G42" s="4">
-        <v>9765</v>
+        <v>9503</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1144,22 +1144,22 @@
         <v>5</v>
       </c>
       <c r="B43" s="4">
-        <v>273</v>
+        <v>3884</v>
       </c>
       <c r="C43" s="4">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D43" s="4">
-        <v>840</v>
+        <v>775</v>
       </c>
       <c r="E43" s="4">
-        <v>1893</v>
+        <v>1434</v>
       </c>
       <c r="F43" s="4">
-        <v>5342</v>
+        <v>5080</v>
       </c>
       <c r="G43" s="4">
-        <v>18220</v>
+        <v>10683</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1198,22 +1198,22 @@
         <v>1</v>
       </c>
       <c r="B48" s="3">
-        <v>309000</v>
+        <v>209000</v>
       </c>
       <c r="C48" s="3">
-        <v>455000</v>
+        <v>257000</v>
       </c>
       <c r="D48" s="3">
-        <v>520000</v>
+        <v>501000</v>
       </c>
       <c r="E48" s="3">
-        <v>461000</v>
+        <v>588000</v>
       </c>
       <c r="F48" s="3">
         <v>429000</v>
       </c>
       <c r="G48" s="3">
-        <v>383000</v>
+        <v>344000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1221,22 +1221,22 @@
         <v>2</v>
       </c>
       <c r="B49" s="4">
-        <v>1266.679808</v>
+        <v>854.58944</v>
       </c>
       <c r="C49" s="4">
-        <v>1864.368128</v>
+        <v>1050.673152</v>
       </c>
       <c r="D49" s="4">
-        <v>2130.706432</v>
+        <v>2053.111808</v>
       </c>
       <c r="E49" s="4">
-        <v>1887.4368</v>
+        <v>2410.676224</v>
       </c>
       <c r="F49" s="4">
-        <v>1757.413376</v>
+        <v>1758.461952</v>
       </c>
       <c r="G49" s="4">
-        <v>1566.572544</v>
+        <v>1408.237568</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1244,22 +1244,22 @@
         <v>3</v>
       </c>
       <c r="B50" s="4">
-        <v>2.97914</v>
+        <v>4.53424</v>
       </c>
       <c r="C50" s="4">
-        <v>3.90883</v>
+        <v>6.56279</v>
       </c>
       <c r="D50" s="4">
-        <v>7.23163</v>
+        <v>6.99548</v>
       </c>
       <c r="E50" s="4">
-        <v>16.57516</v>
+        <v>12.85302</v>
       </c>
       <c r="F50" s="4">
-        <v>35.39712</v>
+        <v>35.56024</v>
       </c>
       <c r="G50" s="4">
-        <v>79.96814000000001</v>
+        <v>85.87538000000001</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1267,22 +1267,22 @@
         <v>4</v>
       </c>
       <c r="B51" s="4">
-        <v>1.608</v>
+        <v>0.9</v>
       </c>
       <c r="C51" s="4">
-        <v>2.096</v>
+        <v>1.256</v>
       </c>
       <c r="D51" s="4">
-        <v>4.96</v>
+        <v>1.48</v>
       </c>
       <c r="E51" s="4">
-        <v>10.688</v>
+        <v>4.768</v>
       </c>
       <c r="F51" s="4">
-        <v>24.96</v>
+        <v>21.376</v>
       </c>
       <c r="G51" s="4">
-        <v>31.616</v>
+        <v>34.048</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1290,22 +1290,22 @@
         <v>5</v>
       </c>
       <c r="B52" s="4">
-        <v>102.912</v>
+        <v>224.256</v>
       </c>
       <c r="C52" s="4">
-        <v>138.24</v>
+        <v>276.48</v>
       </c>
       <c r="D52" s="4">
-        <v>232.448</v>
+        <v>329.728</v>
       </c>
       <c r="E52" s="4">
         <v>577.5360000000001</v>
       </c>
       <c r="F52" s="4">
-        <v>1122.304</v>
+        <v>1368.064</v>
       </c>
       <c r="G52" s="4">
-        <v>2179.072</v>
+        <v>3915.776</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1344,22 +1344,22 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>5953</v>
+        <v>4830</v>
       </c>
       <c r="C57" s="3">
-        <v>8827</v>
+        <v>7713</v>
       </c>
       <c r="D57" s="3">
-        <v>13500</v>
+        <v>11100</v>
       </c>
       <c r="E57" s="3">
-        <v>15300</v>
+        <v>12800</v>
       </c>
       <c r="F57" s="3">
+        <v>13900</v>
+      </c>
+      <c r="G57" s="3">
         <v>16100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>14500</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1367,22 +1367,22 @@
         <v>2</v>
       </c>
       <c r="B58" s="4">
-        <v>780.140544</v>
+        <v>633.339904</v>
       </c>
       <c r="C58" s="4">
-        <v>1156.579328</v>
+        <v>1010.827264</v>
       </c>
       <c r="D58" s="4">
-        <v>1765.801984</v>
+        <v>1449.132032</v>
       </c>
       <c r="E58" s="4">
-        <v>2011.168768</v>
+        <v>1676.673024</v>
       </c>
       <c r="F58" s="4">
-        <v>2109.734912</v>
+        <v>1825.570816</v>
       </c>
       <c r="G58" s="4">
-        <v>1897.92256</v>
+        <v>2110.783488</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1390,22 +1390,22 @@
         <v>3</v>
       </c>
       <c r="B59" s="4">
-        <v>116.6</v>
+        <v>154.41</v>
       </c>
       <c r="C59" s="4">
-        <v>119.87</v>
+        <v>163.37</v>
       </c>
       <c r="D59" s="4">
-        <v>125.42</v>
+        <v>202.81</v>
       </c>
       <c r="E59" s="4">
-        <v>176.36</v>
+        <v>367.07</v>
       </c>
       <c r="F59" s="4">
-        <v>494.11</v>
+        <v>798.9299999999999</v>
       </c>
       <c r="G59" s="4">
-        <v>1497.74</v>
+        <v>1487.74</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1413,22 +1413,22 @@
         <v>4</v>
       </c>
       <c r="B60" s="4">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="C60" s="4">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="D60" s="4">
-        <v>147</v>
+        <v>243</v>
       </c>
       <c r="E60" s="4">
-        <v>247</v>
+        <v>519</v>
       </c>
       <c r="F60" s="4">
-        <v>865</v>
+        <v>1319</v>
       </c>
       <c r="G60" s="4">
-        <v>3392</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1436,22 +1436,22 @@
         <v>5</v>
       </c>
       <c r="B61" s="4">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="C61" s="4">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="D61" s="4">
-        <v>182</v>
+        <v>318</v>
       </c>
       <c r="E61" s="4">
-        <v>322</v>
+        <v>619</v>
       </c>
       <c r="F61" s="4">
-        <v>1188</v>
+        <v>1745</v>
       </c>
       <c r="G61" s="4">
-        <v>3851</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1490,22 +1490,22 @@
         <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>91300</v>
+        <v>83300</v>
       </c>
       <c r="C66" s="3">
-        <v>163000</v>
+        <v>149000</v>
       </c>
       <c r="D66" s="3">
-        <v>254000</v>
+        <v>233000</v>
       </c>
       <c r="E66" s="3">
         <v>370000</v>
       </c>
       <c r="F66" s="3">
-        <v>497000</v>
+        <v>457000</v>
       </c>
       <c r="G66" s="3">
-        <v>474000</v>
+        <v>482000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1513,22 +1513,22 @@
         <v>2</v>
       </c>
       <c r="B67" s="4">
-        <v>374.341632</v>
+        <v>340.7872</v>
       </c>
       <c r="C67" s="4">
-        <v>668.991488</v>
+        <v>608.17408</v>
       </c>
       <c r="D67" s="4">
-        <v>1040.187392</v>
+        <v>956.3013120000001</v>
       </c>
       <c r="E67" s="4">
-        <v>1514.143744</v>
+        <v>1516.240896</v>
       </c>
       <c r="F67" s="4">
-        <v>2035.286016</v>
+        <v>1872.756736</v>
       </c>
       <c r="G67" s="4">
-        <v>1940.914176</v>
+        <v>1976.56576</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1536,20 +1536,22 @@
         <v>3</v>
       </c>
       <c r="B68" s="4">
-        <v>9.06779</v>
-      </c>
-      <c r="C68" s="4"/>
+        <v>10.09077</v>
+      </c>
+      <c r="C68" s="4">
+        <v>10.27321</v>
+      </c>
       <c r="D68" s="4">
-        <v>10.67</v>
+        <v>11.56</v>
       </c>
       <c r="E68" s="4">
-        <v>11.15416</v>
+        <v>14.45</v>
       </c>
       <c r="F68" s="4">
-        <v>16.42</v>
+        <v>27.55</v>
       </c>
       <c r="G68" s="4">
-        <v>50.36</v>
+        <v>58.52</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1557,22 +1559,22 @@
         <v>4</v>
       </c>
       <c r="B69" s="4">
-        <v>10.176</v>
+        <v>11.84</v>
       </c>
       <c r="C69" s="4">
-        <v>10.816</v>
+        <v>12.224</v>
       </c>
       <c r="D69" s="4">
-        <v>14.272</v>
+        <v>14.144</v>
       </c>
       <c r="E69" s="4">
-        <v>15.68</v>
+        <v>19.84</v>
       </c>
       <c r="F69" s="4">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G69" s="4">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1580,22 +1582,22 @@
         <v>5</v>
       </c>
       <c r="B70" s="4">
-        <v>11.328</v>
+        <v>13.248</v>
       </c>
       <c r="C70" s="4">
-        <v>12.352</v>
+        <v>14.016</v>
       </c>
       <c r="D70" s="4">
-        <v>16.768</v>
+        <v>17.536</v>
       </c>
       <c r="E70" s="4">
-        <v>19.328</v>
+        <v>26.752</v>
       </c>
       <c r="F70" s="4">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="G70" s="4">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/rfuse_summary.xlsx
+++ b/rfuse/rfuse_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>988</v>
+        <v>961</v>
       </c>
       <c r="C3" s="3">
-        <v>2894</v>
+        <v>2568</v>
       </c>
       <c r="D3" s="3">
-        <v>3914</v>
+        <v>3673</v>
       </c>
       <c r="E3" s="3">
-        <v>8569</v>
+        <v>13200</v>
       </c>
       <c r="F3" s="3">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="G3" s="3">
-        <v>21900</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>14400</v>
+        <v>12600</v>
       </c>
       <c r="C8" s="3">
-        <v>18600</v>
+        <v>19300</v>
       </c>
       <c r="D8" s="3">
-        <v>46600</v>
+        <v>41200</v>
       </c>
       <c r="E8" s="3">
-        <v>80300</v>
+        <v>81700</v>
       </c>
       <c r="F8" s="3">
-        <v>146000</v>
+        <v>151000</v>
       </c>
       <c r="G8" s="3">
-        <v>215000</v>
+        <v>194000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>2934</v>
+        <v>2836</v>
       </c>
       <c r="C13" s="3">
-        <v>3287</v>
+        <v>3207</v>
       </c>
       <c r="D13" s="3">
-        <v>3475</v>
+        <v>3366</v>
       </c>
       <c r="E13" s="3">
-        <v>3487</v>
+        <v>3604</v>
       </c>
       <c r="F13" s="3">
-        <v>3576</v>
+        <v>3804</v>
       </c>
       <c r="G13" s="3">
-        <v>4647</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -615,19 +615,19 @@
         <v>138000</v>
       </c>
       <c r="C18" s="3">
-        <v>168000</v>
+        <v>162000</v>
       </c>
       <c r="D18" s="3">
         <v>184000</v>
       </c>
       <c r="E18" s="3">
-        <v>199000</v>
+        <v>193000</v>
       </c>
       <c r="F18" s="3">
-        <v>190000</v>
+        <v>185000</v>
       </c>
       <c r="G18" s="3">
-        <v>99500</v>
+        <v>117000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>2936</v>
+        <v>3700</v>
       </c>
       <c r="C23" s="3">
-        <v>3951</v>
+        <v>3527</v>
       </c>
       <c r="D23" s="3">
-        <v>7494</v>
+        <v>7613</v>
       </c>
       <c r="E23" s="3">
-        <v>11400</v>
+        <v>9448</v>
       </c>
       <c r="F23" s="3">
-        <v>9732</v>
+        <v>9542</v>
       </c>
       <c r="G23" s="3">
-        <v>23800</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>124000</v>
+        <v>91300</v>
       </c>
       <c r="C28" s="3">
-        <v>123000</v>
+        <v>105000</v>
       </c>
       <c r="D28" s="3">
-        <v>243000</v>
+        <v>334000</v>
       </c>
       <c r="E28" s="3">
-        <v>289000</v>
+        <v>304000</v>
       </c>
       <c r="F28" s="3">
-        <v>276000</v>
+        <v>309000</v>
       </c>
       <c r="G28" s="3">
-        <v>364000</v>
+        <v>367000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -777,19 +777,19 @@
         <v>7275</v>
       </c>
       <c r="C33" s="3">
-        <v>8200</v>
+        <v>9051</v>
       </c>
       <c r="D33" s="3">
-        <v>9536</v>
+        <v>9929</v>
       </c>
       <c r="E33" s="3">
         <v>10600</v>
       </c>
       <c r="F33" s="3">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="G33" s="3">
-        <v>12100</v>
+        <v>12700</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>147000</v>
+        <v>131000</v>
       </c>
       <c r="C38" s="3">
-        <v>157000</v>
+        <v>163000</v>
       </c>
       <c r="D38" s="3">
-        <v>188000</v>
+        <v>183000</v>
       </c>
       <c r="E38" s="3">
-        <v>218000</v>
+        <v>221000</v>
       </c>
       <c r="F38" s="3">
         <v>216000</v>
       </c>
       <c r="G38" s="3">
-        <v>186000</v>
+        <v>182000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/rfuse_summary.xlsx
+++ b/rfuse/rfuse_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>961</v>
+        <v>5446</v>
       </c>
       <c r="C3" s="3">
-        <v>2568</v>
+        <v>11400</v>
       </c>
       <c r="D3" s="3">
-        <v>3673</v>
+        <v>21000</v>
       </c>
       <c r="E3" s="3">
-        <v>13200</v>
+        <v>27800</v>
       </c>
       <c r="F3" s="3">
-        <v>11000</v>
+        <v>31600</v>
       </c>
       <c r="G3" s="3">
-        <v>15000</v>
+        <v>26300</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>12600</v>
+        <v>4112</v>
       </c>
       <c r="C8" s="3">
-        <v>19300</v>
+        <v>8038</v>
       </c>
       <c r="D8" s="3">
-        <v>41200</v>
+        <v>16200</v>
       </c>
       <c r="E8" s="3">
-        <v>81700</v>
+        <v>31600</v>
       </c>
       <c r="F8" s="3">
-        <v>151000</v>
+        <v>216000</v>
       </c>
       <c r="G8" s="3">
-        <v>194000</v>
+        <v>282000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>2836</v>
+        <v>7529</v>
       </c>
       <c r="C13" s="3">
-        <v>3207</v>
+        <v>9990</v>
       </c>
       <c r="D13" s="3">
-        <v>3366</v>
+        <v>11100</v>
       </c>
       <c r="E13" s="3">
-        <v>3604</v>
+        <v>11800</v>
       </c>
       <c r="F13" s="3">
-        <v>3804</v>
+        <v>13100</v>
       </c>
       <c r="G13" s="3">
-        <v>4835</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>138000</v>
+        <v>137000</v>
       </c>
       <c r="C18" s="3">
-        <v>162000</v>
+        <v>160000</v>
       </c>
       <c r="D18" s="3">
-        <v>184000</v>
+        <v>199000</v>
       </c>
       <c r="E18" s="3">
-        <v>193000</v>
+        <v>206000</v>
       </c>
       <c r="F18" s="3">
-        <v>185000</v>
+        <v>174000</v>
       </c>
       <c r="G18" s="3">
-        <v>117000</v>
+        <v>156000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>3700</v>
+        <v>2708</v>
       </c>
       <c r="C23" s="3">
-        <v>3527</v>
+        <v>3362</v>
       </c>
       <c r="D23" s="3">
-        <v>7613</v>
+        <v>8515</v>
       </c>
       <c r="E23" s="3">
-        <v>9448</v>
+        <v>8175</v>
       </c>
       <c r="F23" s="3">
-        <v>9542</v>
+        <v>8000</v>
       </c>
       <c r="G23" s="3">
-        <v>10400</v>
+        <v>8777</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>91300</v>
+        <v>79100</v>
       </c>
       <c r="C28" s="3">
-        <v>105000</v>
+        <v>113000</v>
       </c>
       <c r="D28" s="3">
-        <v>334000</v>
+        <v>248000</v>
       </c>
       <c r="E28" s="3">
-        <v>304000</v>
+        <v>293000</v>
       </c>
       <c r="F28" s="3">
-        <v>309000</v>
+        <v>287000</v>
       </c>
       <c r="G28" s="3">
-        <v>367000</v>
+        <v>347000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>7275</v>
+        <v>5688</v>
       </c>
       <c r="C33" s="3">
-        <v>9051</v>
+        <v>7613</v>
       </c>
       <c r="D33" s="3">
-        <v>9929</v>
+        <v>8808</v>
       </c>
       <c r="E33" s="3">
-        <v>10600</v>
+        <v>9547</v>
       </c>
       <c r="F33" s="3">
-        <v>12100</v>
+        <v>9235</v>
       </c>
       <c r="G33" s="3">
-        <v>12700</v>
+        <v>8724</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>131000</v>
+        <v>134000</v>
       </c>
       <c r="C38" s="3">
-        <v>163000</v>
+        <v>180000</v>
       </c>
       <c r="D38" s="3">
-        <v>183000</v>
+        <v>218000</v>
       </c>
       <c r="E38" s="3">
-        <v>221000</v>
+        <v>212000</v>
       </c>
       <c r="F38" s="3">
-        <v>216000</v>
+        <v>182000</v>
       </c>
       <c r="G38" s="3">
-        <v>182000</v>
+        <v>167000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/rfuse_summary.xlsx
+++ b/rfuse/rfuse_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>5446</v>
+        <v>4491</v>
       </c>
       <c r="C3" s="3">
-        <v>11400</v>
+        <v>10600</v>
       </c>
       <c r="D3" s="3">
-        <v>21000</v>
+        <v>19300</v>
       </c>
       <c r="E3" s="3">
-        <v>27800</v>
+        <v>28500</v>
       </c>
       <c r="F3" s="3">
-        <v>31600</v>
+        <v>31800</v>
       </c>
       <c r="G3" s="3">
-        <v>26300</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>4112</v>
+        <v>3993</v>
       </c>
       <c r="C8" s="3">
-        <v>8038</v>
+        <v>7947</v>
       </c>
       <c r="D8" s="3">
-        <v>16200</v>
+        <v>16100</v>
       </c>
       <c r="E8" s="3">
-        <v>31600</v>
+        <v>31900</v>
       </c>
       <c r="F8" s="3">
-        <v>216000</v>
+        <v>217000</v>
       </c>
       <c r="G8" s="3">
-        <v>282000</v>
+        <v>271000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>7529</v>
+        <v>7314</v>
       </c>
       <c r="C13" s="3">
-        <v>9990</v>
+        <v>10200</v>
       </c>
       <c r="D13" s="3">
-        <v>11100</v>
+        <v>12300</v>
       </c>
       <c r="E13" s="3">
-        <v>11800</v>
+        <v>12100</v>
       </c>
       <c r="F13" s="3">
-        <v>13100</v>
+        <v>12400</v>
       </c>
       <c r="G13" s="3">
-        <v>11700</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>137000</v>
+        <v>128000</v>
       </c>
       <c r="C18" s="3">
-        <v>160000</v>
+        <v>156000</v>
       </c>
       <c r="D18" s="3">
-        <v>199000</v>
+        <v>194000</v>
       </c>
       <c r="E18" s="3">
-        <v>206000</v>
+        <v>201000</v>
       </c>
       <c r="F18" s="3">
-        <v>174000</v>
+        <v>175000</v>
       </c>
       <c r="G18" s="3">
-        <v>156000</v>
+        <v>157000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>2708</v>
+        <v>1777</v>
       </c>
       <c r="C23" s="3">
-        <v>3362</v>
+        <v>2592</v>
       </c>
       <c r="D23" s="3">
-        <v>8515</v>
+        <v>5375</v>
       </c>
       <c r="E23" s="3">
-        <v>8175</v>
+        <v>7742</v>
       </c>
       <c r="F23" s="3">
-        <v>8000</v>
+        <v>8414</v>
       </c>
       <c r="G23" s="3">
-        <v>8777</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>79100</v>
+        <v>82500</v>
       </c>
       <c r="C28" s="3">
-        <v>113000</v>
+        <v>112000</v>
       </c>
       <c r="D28" s="3">
-        <v>248000</v>
+        <v>244000</v>
       </c>
       <c r="E28" s="3">
-        <v>293000</v>
+        <v>282000</v>
       </c>
       <c r="F28" s="3">
-        <v>287000</v>
+        <v>282000</v>
       </c>
       <c r="G28" s="3">
-        <v>347000</v>
+        <v>342000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>5688</v>
+        <v>5953</v>
       </c>
       <c r="C33" s="3">
-        <v>7613</v>
+        <v>7340</v>
       </c>
       <c r="D33" s="3">
-        <v>8808</v>
+        <v>9287</v>
       </c>
       <c r="E33" s="3">
-        <v>9547</v>
+        <v>9340</v>
       </c>
       <c r="F33" s="3">
-        <v>9235</v>
+        <v>9443</v>
       </c>
       <c r="G33" s="3">
-        <v>8724</v>
+        <v>8863</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>134000</v>
+        <v>138000</v>
       </c>
       <c r="C38" s="3">
-        <v>180000</v>
+        <v>155000</v>
       </c>
       <c r="D38" s="3">
-        <v>218000</v>
+        <v>204000</v>
       </c>
       <c r="E38" s="3">
-        <v>212000</v>
+        <v>215000</v>
       </c>
       <c r="F38" s="3">
-        <v>182000</v>
+        <v>201000</v>
       </c>
       <c r="G38" s="3">
-        <v>167000</v>
+        <v>170000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/rfuse_summary.xlsx
+++ b/rfuse/rfuse_summary.xlsx
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,7 +414,7 @@
     <col min="2" max="51" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,9 +422,8 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>1</v>
@@ -441,34 +440,28 @@
       <c r="F2" s="1">
         <v>16</v>
       </c>
-      <c r="G2" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>5389</v>
+        <v>3303</v>
       </c>
       <c r="C3" s="3">
-        <v>11200</v>
+        <v>6320</v>
       </c>
       <c r="D3" s="3">
-        <v>21000</v>
+        <v>9416</v>
       </c>
       <c r="E3" s="3">
-        <v>26900</v>
+        <v>12800</v>
       </c>
       <c r="F3" s="3">
-        <v>30100</v>
-      </c>
-      <c r="G3" s="3">
-        <v>23700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -476,9 +469,8 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>1</v>
@@ -495,34 +487,28 @@
       <c r="F7" s="1">
         <v>16</v>
       </c>
-      <c r="G7" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>4127</v>
+        <v>12900</v>
       </c>
       <c r="C8" s="3">
-        <v>7751</v>
+        <v>25200</v>
       </c>
       <c r="D8" s="3">
-        <v>16100</v>
+        <v>39200</v>
       </c>
       <c r="E8" s="3">
-        <v>138000</v>
+        <v>60600</v>
       </c>
       <c r="F8" s="3">
-        <v>215000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>269000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -530,9 +516,8 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>1</v>
@@ -549,34 +534,28 @@
       <c r="F12" s="1">
         <v>16</v>
       </c>
-      <c r="G12" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>7876</v>
+        <v>8258</v>
       </c>
       <c r="C13" s="3">
-        <v>9941</v>
+        <v>10700</v>
       </c>
       <c r="D13" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E13" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F13" s="3">
         <v>12200</v>
       </c>
-      <c r="E13" s="3">
-        <v>13300</v>
-      </c>
-      <c r="F13" s="3">
-        <v>13600</v>
-      </c>
-      <c r="G13" s="3">
-        <v>12200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:6">
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
@@ -584,9 +563,8 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>1</v>
@@ -603,34 +581,28 @@
       <c r="F17" s="1">
         <v>16</v>
       </c>
-      <c r="G17" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>114000</v>
+        <v>124000</v>
       </c>
       <c r="C18" s="3">
-        <v>172000</v>
+        <v>186000</v>
       </c>
       <c r="D18" s="3">
-        <v>200000</v>
+        <v>199000</v>
       </c>
       <c r="E18" s="3">
         <v>215000</v>
       </c>
       <c r="F18" s="3">
-        <v>183000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -638,9 +610,8 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>1</v>
@@ -657,34 +628,28 @@
       <c r="F22" s="1">
         <v>16</v>
       </c>
-      <c r="G22" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>2265</v>
+        <v>8258</v>
       </c>
       <c r="C23" s="3">
-        <v>3703</v>
+        <v>7062</v>
       </c>
       <c r="D23" s="3">
-        <v>8094</v>
+        <v>8846</v>
       </c>
       <c r="E23" s="3">
-        <v>8799</v>
+        <v>13100</v>
       </c>
       <c r="F23" s="3">
-        <v>7827</v>
-      </c>
-      <c r="G23" s="3">
-        <v>8212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>25300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
@@ -692,9 +657,8 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>1</v>
@@ -711,34 +675,28 @@
       <c r="F27" s="1">
         <v>16</v>
       </c>
-      <c r="G27" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>85600</v>
+        <v>93100</v>
       </c>
       <c r="C28" s="3">
-        <v>106000</v>
+        <v>94000</v>
       </c>
       <c r="D28" s="3">
-        <v>272000</v>
+        <v>114000</v>
       </c>
       <c r="E28" s="3">
-        <v>293000</v>
+        <v>177000</v>
       </c>
       <c r="F28" s="3">
-        <v>270000</v>
-      </c>
-      <c r="G28" s="3">
-        <v>406000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>258000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
@@ -746,9 +704,8 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7">
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>1</v>
@@ -765,34 +722,28 @@
       <c r="F32" s="1">
         <v>16</v>
       </c>
-      <c r="G32" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>5505</v>
+        <v>6360</v>
       </c>
       <c r="C33" s="3">
-        <v>7968</v>
+        <v>7937</v>
       </c>
       <c r="D33" s="3">
-        <v>8175</v>
+        <v>9459</v>
       </c>
       <c r="E33" s="3">
-        <v>9626</v>
+        <v>9581</v>
       </c>
       <c r="F33" s="3">
-        <v>9147</v>
-      </c>
-      <c r="G33" s="3">
-        <v>8818</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>9609</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="B36" s="1" t="s">
         <v>8</v>
       </c>
@@ -800,9 +751,8 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7">
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>1</v>
@@ -819,43 +769,37 @@
       <c r="F37" s="1">
         <v>16</v>
       </c>
-      <c r="G37" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>122000</v>
+        <v>121000</v>
       </c>
       <c r="C38" s="3">
-        <v>171000</v>
+        <v>192000</v>
       </c>
       <c r="D38" s="3">
-        <v>199000</v>
+        <v>209000</v>
       </c>
       <c r="E38" s="3">
-        <v>224000</v>
+        <v>235000</v>
       </c>
       <c r="F38" s="3">
-        <v>198000</v>
-      </c>
-      <c r="G38" s="3">
-        <v>162000</v>
+        <v>207000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B36:F36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rfuse/rfuse_summary.xlsx
+++ b/rfuse/rfuse_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>5056</v>
+        <v>3835</v>
       </c>
       <c r="C3" s="3">
-        <v>9706</v>
+        <v>7670</v>
       </c>
       <c r="D3" s="3">
-        <v>17400</v>
+        <v>13500</v>
       </c>
       <c r="E3" s="3">
-        <v>24300</v>
+        <v>18200</v>
       </c>
       <c r="F3" s="3">
-        <v>24200</v>
+        <v>16700</v>
       </c>
       <c r="G3" s="3">
-        <v>20900</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>25500</v>
+        <v>17400</v>
       </c>
       <c r="C8" s="3">
-        <v>50600</v>
+        <v>36100</v>
       </c>
       <c r="D8" s="3">
-        <v>99300</v>
+        <v>69000</v>
       </c>
       <c r="E8" s="3">
-        <v>184000</v>
+        <v>152000</v>
       </c>
       <c r="F8" s="3">
-        <v>326000</v>
+        <v>294000</v>
       </c>
       <c r="G8" s="3">
-        <v>487000</v>
+        <v>453000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>5673</v>
+        <v>5785</v>
       </c>
       <c r="C13" s="3">
-        <v>9525</v>
+        <v>10100</v>
       </c>
       <c r="D13" s="3">
-        <v>14400</v>
+        <v>15100</v>
       </c>
       <c r="E13" s="3">
-        <v>15800</v>
+        <v>16800</v>
       </c>
       <c r="F13" s="3">
-        <v>16100</v>
+        <v>15600</v>
       </c>
       <c r="G13" s="3">
-        <v>16800</v>
+        <v>14200</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>79200</v>
+        <v>74300</v>
       </c>
       <c r="C18" s="3">
-        <v>147000</v>
+        <v>117000</v>
       </c>
       <c r="D18" s="3">
-        <v>239000</v>
+        <v>226000</v>
       </c>
       <c r="E18" s="3">
-        <v>359000</v>
+        <v>348000</v>
       </c>
       <c r="F18" s="3">
-        <v>424000</v>
+        <v>425000</v>
       </c>
       <c r="G18" s="3">
-        <v>421000</v>
+        <v>458000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>8943</v>
+        <v>6440</v>
       </c>
       <c r="C23" s="3">
-        <v>13300</v>
+        <v>10300</v>
       </c>
       <c r="D23" s="3">
-        <v>14300</v>
+        <v>13100</v>
       </c>
       <c r="E23" s="3">
-        <v>13000</v>
+        <v>10900</v>
       </c>
       <c r="F23" s="3">
-        <v>12600</v>
+        <v>10100</v>
       </c>
       <c r="G23" s="3">
-        <v>10700</v>
+        <v>8948</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>263000</v>
+        <v>140000</v>
       </c>
       <c r="C28" s="3">
-        <v>407000</v>
+        <v>347000</v>
       </c>
       <c r="D28" s="3">
-        <v>494000</v>
+        <v>506000</v>
       </c>
       <c r="E28" s="3">
-        <v>452000</v>
+        <v>441000</v>
       </c>
       <c r="F28" s="3">
-        <v>416000</v>
+        <v>401000</v>
       </c>
       <c r="G28" s="3">
-        <v>363000</v>
+        <v>345000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>4995</v>
+        <v>4675</v>
       </c>
       <c r="C33" s="3">
-        <v>7801</v>
+        <v>8031</v>
       </c>
       <c r="D33" s="3">
-        <v>11700</v>
+        <v>11200</v>
       </c>
       <c r="E33" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F33" s="3">
         <v>12900</v>
       </c>
-      <c r="F33" s="3">
-        <v>13000</v>
-      </c>
       <c r="G33" s="3">
-        <v>15700</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>83300</v>
+        <v>73800</v>
       </c>
       <c r="C38" s="3">
-        <v>146000</v>
+        <v>130000</v>
       </c>
       <c r="D38" s="3">
-        <v>229000</v>
+        <v>217000</v>
       </c>
       <c r="E38" s="3">
-        <v>369000</v>
+        <v>337000</v>
       </c>
       <c r="F38" s="3">
-        <v>451000</v>
+        <v>460000</v>
       </c>
       <c r="G38" s="3">
-        <v>485000</v>
+        <v>474000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/rfuse_summary.xlsx
+++ b/rfuse/rfuse_summary.xlsx
@@ -446,19 +446,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>3303</v>
+        <v>3210</v>
       </c>
       <c r="C3" s="3">
-        <v>6320</v>
+        <v>5851</v>
       </c>
       <c r="D3" s="3">
-        <v>9416</v>
+        <v>9163</v>
       </c>
       <c r="E3" s="3">
         <v>12800</v>
       </c>
       <c r="F3" s="3">
-        <v>19600</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -493,19 +493,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>12900</v>
+        <v>12400</v>
       </c>
       <c r="C8" s="3">
-        <v>25200</v>
+        <v>24900</v>
       </c>
       <c r="D8" s="3">
-        <v>39200</v>
+        <v>36800</v>
       </c>
       <c r="E8" s="3">
-        <v>60600</v>
+        <v>55100</v>
       </c>
       <c r="F8" s="3">
-        <v>97000</v>
+        <v>87700</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -540,19 +540,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>8258</v>
+        <v>8533</v>
       </c>
       <c r="C13" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="D13" s="3">
-        <v>12600</v>
+        <v>10800</v>
       </c>
       <c r="E13" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="F13" s="3">
-        <v>12200</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -587,19 +587,19 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>124000</v>
+        <v>116000</v>
       </c>
       <c r="C18" s="3">
-        <v>186000</v>
+        <v>168000</v>
       </c>
       <c r="D18" s="3">
-        <v>199000</v>
+        <v>200000</v>
       </c>
       <c r="E18" s="3">
-        <v>215000</v>
+        <v>210000</v>
       </c>
       <c r="F18" s="3">
-        <v>250000</v>
+        <v>257000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -634,19 +634,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>8258</v>
+        <v>2645</v>
       </c>
       <c r="C23" s="3">
-        <v>7062</v>
+        <v>2684</v>
       </c>
       <c r="D23" s="3">
-        <v>8846</v>
+        <v>3558</v>
       </c>
       <c r="E23" s="3">
-        <v>13100</v>
+        <v>5221</v>
       </c>
       <c r="F23" s="3">
-        <v>25300</v>
+        <v>7347</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -684,16 +684,16 @@
         <v>93100</v>
       </c>
       <c r="C28" s="3">
-        <v>94000</v>
+        <v>85800</v>
       </c>
       <c r="D28" s="3">
-        <v>114000</v>
+        <v>111000</v>
       </c>
       <c r="E28" s="3">
-        <v>177000</v>
+        <v>174000</v>
       </c>
       <c r="F28" s="3">
-        <v>258000</v>
+        <v>245000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -728,19 +728,19 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>6360</v>
+        <v>6522</v>
       </c>
       <c r="C33" s="3">
-        <v>7937</v>
+        <v>8192</v>
       </c>
       <c r="D33" s="3">
-        <v>9459</v>
+        <v>9287</v>
       </c>
       <c r="E33" s="3">
-        <v>9581</v>
+        <v>8856</v>
       </c>
       <c r="F33" s="3">
-        <v>9609</v>
+        <v>10300</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -775,19 +775,19 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>121000</v>
+        <v>125000</v>
       </c>
       <c r="C38" s="3">
-        <v>192000</v>
+        <v>178000</v>
       </c>
       <c r="D38" s="3">
-        <v>209000</v>
+        <v>196000</v>
       </c>
       <c r="E38" s="3">
-        <v>235000</v>
+        <v>247000</v>
       </c>
       <c r="F38" s="3">
-        <v>207000</v>
+        <v>210000</v>
       </c>
     </row>
   </sheetData>
